--- a/Hedges.xlsx
+++ b/Hedges.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88747f93bb6c7eaf/Documents/Postdoc UBC/Interactions paper/meta-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2604" documentId="13_ncr:1_{3BF83E3E-61C9-45E5-BF17-F43AA12D13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2824BD6D-77DA-4DCB-9094-DDCD6C595661}"/>
+  <xr:revisionPtr revIDLastSave="2793" documentId="13_ncr:1_{3BF83E3E-61C9-45E5-BF17-F43AA12D13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CC0FB23-9C2E-40BC-AB04-E9CA9BF0DF77}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{22809DD5-28F5-466E-A34A-A41D36053B95}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="11136" xr2:uid="{22809DD5-28F5-466E-A34A-A41D36053B95}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedges" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hedges!$A$1:$AA$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hedges!$A$1:$X$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="403">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Interaction</t>
-  </si>
-  <si>
     <t>Type of study</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
   </si>
   <si>
     <t>Salinity</t>
-  </si>
-  <si>
-    <t>Interaction effect size (Hedges d)</t>
   </si>
   <si>
     <t>Treatment replication</t>
@@ -520,9 +514,6 @@
     <t xml:space="preserve">Salmon smolts and rainbow trout exposed to 3 ppm CN (Cyanide) died twice as fast as 19° C as they did at 6 °C (Species' name not specified but should be Salmo salar and Oncorhynchus mykiss) </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Cairns, J., Heath, A.G. &amp; Parker, B.C. The effects of temperature upon the toxicity of chemicals to aquatic organisms. Hydrobiologia 47, 135–171 (1975). https://doi.org/10.1007/BF00036747      Alexander, W. B., Southgate, B. A., and Bassindale, R. 1935. Survey of the River Tees. Part II. The estuary – chemical and biological. Department of Scientific and Industrial Research. Water Pollution Research. Technical Paper No. 5. HMSO, London. 171 pp</t>
   </si>
   <si>
@@ -603,9 +594,6 @@
     <t>Disease</t>
   </si>
   <si>
-    <t xml:space="preserve">Additive </t>
-  </si>
-  <si>
     <t>Jones , D. T. , Moffi tt , C. M. &amp; Peters , K. K. ( 2007 ). Temperature-mediated differences in bacterial kidney  disease expression and survival in Renibacterium salmoninarum -challenged bull trout and other salmonids. North American Journal of Fisheries Management , 27 , 695 – 706.</t>
   </si>
   <si>
@@ -1856,9 +1844,6 @@
     <t>SD2</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Neuronal functions inhibition (AChE activity)</t>
   </si>
   <si>
@@ -1928,12 +1913,6 @@
     <t>Change in physological parametres (biotransformation of fenthion in liver)</t>
   </si>
   <si>
-    <t>SEM1 or CI</t>
-  </si>
-  <si>
-    <t>SEM2 or CI</t>
-  </si>
-  <si>
     <t xml:space="preserve"> It appears that the sensitivity of early developmental stages of Atlantic salmon increased when exposed to Cu and road salt. Road salt application during spawning can pose threat to Atlantic salmon in water bodies receiving road runoff.</t>
   </si>
   <si>
@@ -2008,9 +1987,6 @@
     <t>Pickering, A. D., &amp; Pottinger, T. G. (1987). Poor water quality suppresses the cortisol response of salmonid fish to handling and confinement. Journal of Fish Biology, 30(3), 363–374. https://doi.org/10.1111/j.1095-8649.1987.tb05761.x</t>
   </si>
   <si>
-    <t>Antagonistic</t>
-  </si>
-  <si>
     <t>A chronic small temperature increase, together with low-level ammonia pollution, substantially alters protein dynamics, and hence growth, in juvenile freshwater fishes.</t>
   </si>
   <si>
@@ -2050,9 +2026,6 @@
   </si>
   <si>
     <t>MacLeod and Pessah 1973</t>
-  </si>
-  <si>
-    <t>Tinv</t>
   </si>
   <si>
     <t>Exposure to nitrate reduced hypoxia tolerance suggesting cross-susceptibility. Figure 1 and description of results</t>
@@ -2110,9 +2083,6 @@
     <t>Sublethal Al combined with acid (low pH) caused thickening of the respiratory epithelium, hyperplasia of the filamental epithelium, a proliferation of mucous cells, and reduction in aerobic scope. Data from fig 5</t>
   </si>
   <si>
-    <t>Wilon and Wood 1992</t>
-  </si>
-  <si>
     <t>Metabolic cost, physiology and mortality</t>
   </si>
   <si>
@@ -2195,6 +2165,120 @@
   </si>
   <si>
     <t>The effects vary among different organs and are not consistently additive or synergistic for a given treatment although gill cells do show high degrees of synergism between radiation and metal exposure. Data from fig 1</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Washington, USA</t>
+  </si>
+  <si>
+    <t>Vancouver, CA</t>
+  </si>
+  <si>
+    <t>Newfoundland, CA</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Hatchery</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Wales, UK</t>
+  </si>
+  <si>
+    <t>California, USA</t>
+  </si>
+  <si>
+    <t>Arkansas, USA</t>
+  </si>
+  <si>
+    <t>Laboratory hatched</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Research Institute</t>
+  </si>
+  <si>
+    <t>Ontario, CA</t>
+  </si>
+  <si>
+    <t>Canada (Interior)</t>
+  </si>
+  <si>
+    <t>Creek</t>
+  </si>
+  <si>
+    <t>Lab and Field (to test survival)</t>
+  </si>
+  <si>
+    <t>Utah, USA</t>
+  </si>
+  <si>
+    <t>Langley, CA</t>
+  </si>
+  <si>
+    <t>Quebec, CA</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Britanny, FR</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Seattle, USA</t>
+  </si>
+  <si>
+    <t>Idaho, USA</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Wilson and Wood 1992</t>
+  </si>
+  <si>
+    <t>Wyoming, USA</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Nevada, USA</t>
+  </si>
+  <si>
+    <t>Haíɫzaqv Nation, CA</t>
   </si>
 </sst>
 </file>
@@ -2299,7 +2383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2365,9 +2449,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2435,6 +2516,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2450,6 +2549,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2749,4251 +2852,4006 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1C84BB-F2CC-42C6-A1BF-21ED272783EE}">
-  <dimension ref="A1:AA93"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="14.1796875" customWidth="1"/>
-    <col min="11" max="11" width="27.1796875" style="48" customWidth="1"/>
-    <col min="14" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.1796875" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" customWidth="1"/>
-    <col min="21" max="21" width="10.1796875" customWidth="1"/>
-    <col min="22" max="24" width="11.1796875" customWidth="1"/>
-    <col min="25" max="25" width="15.1796875" customWidth="1"/>
-    <col min="26" max="26" width="13.453125" customWidth="1"/>
-    <col min="27" max="27" width="162" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7890625" customWidth="1"/>
+    <col min="4" max="4" width="14.15625" customWidth="1"/>
+    <col min="5" max="6" width="15.7890625" customWidth="1"/>
+    <col min="7" max="7" width="14.15625" customWidth="1"/>
+    <col min="8" max="8" width="14.7890625" customWidth="1"/>
+    <col min="9" max="9" width="16.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5234375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.47265625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="27.15625" style="47" customWidth="1"/>
+    <col min="15" max="16" width="11.5234375" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5234375" customWidth="1"/>
+    <col min="19" max="19" width="10.15625" customWidth="1"/>
+    <col min="20" max="21" width="11.15625" customWidth="1"/>
+    <col min="22" max="22" width="15.15625" customWidth="1"/>
+    <col min="23" max="23" width="13.47265625" customWidth="1"/>
+    <col min="24" max="24" width="162" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="K1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="V1" s="4" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="5">
+        <v>70</v>
+      </c>
+      <c r="N2" s="5">
+        <v>90</v>
+      </c>
+      <c r="O2" s="49">
+        <v>8.16</v>
+      </c>
+      <c r="P2" s="49">
+        <v>8.16</v>
+      </c>
+      <c r="Q2" s="5">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="5">
-        <v>70</v>
-      </c>
-      <c r="M2" s="5">
-        <v>90</v>
-      </c>
-      <c r="N2" s="5">
-        <v>8.16</v>
-      </c>
-      <c r="O2" s="5">
-        <v>8.16</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="R2" s="5"/>
+      <c r="R2" s="5">
+        <v>20</v>
+      </c>
       <c r="S2" s="5">
-        <v>20</v>
-      </c>
-      <c r="T2" s="5">
-        <v>20</v>
-      </c>
-      <c r="U2" s="5">
         <v>3</v>
       </c>
-      <c r="V2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="X2" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>374</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3">
+        <v>126</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3">
         <v>29.75</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>29.35</v>
       </c>
-      <c r="N3" s="5">
-        <f>(P3*(SQRT(T3)))</f>
+      <c r="O3" s="49">
         <v>0.1936491673103736</v>
       </c>
-      <c r="O3" s="5">
-        <f>(Q3*(SQRT(T3)))</f>
+      <c r="P3" s="49">
         <v>0.23237900077244006</v>
       </c>
-      <c r="P3" s="5">
-        <v>5.0000000000000711E-2</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>5.9999999999998721E-2</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3">
+      <c r="Q3">
         <v>15</v>
       </c>
-      <c r="T3">
+      <c r="R3">
         <v>15</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X3" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>374</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5">
+        <v>126</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="5">
         <v>28</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>27.82</v>
       </c>
-      <c r="N4" s="5">
-        <f>(P4*(SQRT(T4)))</f>
+      <c r="O4" s="49">
         <v>0.30983866769658674</v>
       </c>
-      <c r="O4" s="5">
-        <f>(Q4*(SQRT(T4)))</f>
+      <c r="P4" s="49">
         <v>0.27110883423452031</v>
       </c>
-      <c r="P4" s="5">
-        <v>7.9999999999998295E-2</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>7.0000000000000284E-2</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4">
+      <c r="Q4">
         <v>15</v>
       </c>
-      <c r="T4">
+      <c r="R4">
         <v>15</v>
       </c>
-      <c r="AA4" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="X4" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2015</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>105</v>
+        <v>374</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>29.34</v>
+      </c>
+      <c r="O5" s="49">
+        <v>0.23237900077244006</v>
+      </c>
+      <c r="P5" s="49">
+        <v>0.27110883423452031</v>
+      </c>
+      <c r="Q5">
         <v>15</v>
       </c>
-      <c r="L5" s="5">
-        <v>27.3</v>
-      </c>
-      <c r="M5" s="5">
-        <v>29.34</v>
-      </c>
-      <c r="N5" s="5">
-        <f>(P5*(SQRT(T5)))</f>
-        <v>0.23237900077244006</v>
-      </c>
-      <c r="O5" s="5">
-        <f>(Q5*(SQRT(T5)))</f>
-        <v>0.27110883423452031</v>
-      </c>
-      <c r="P5" s="5">
-        <v>5.9999999999998721E-2</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>7.0000000000000284E-2</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5">
+      <c r="R5">
         <v>15</v>
       </c>
-      <c r="T5">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X5" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="5">
+        <v>26.57</v>
+      </c>
+      <c r="N6" s="5">
+        <v>27.81</v>
+      </c>
+      <c r="O6" s="49">
+        <v>0.30983866769658674</v>
+      </c>
+      <c r="P6" s="49">
+        <v>0.30983866769660051</v>
+      </c>
+      <c r="Q6">
         <v>15</v>
       </c>
-      <c r="L6" s="5">
-        <v>26.57</v>
-      </c>
-      <c r="M6" s="5">
-        <v>27.81</v>
-      </c>
-      <c r="N6" s="5">
-        <f>(P6*(SQRT(T6)))</f>
-        <v>0.30983866769658674</v>
-      </c>
-      <c r="O6" s="5">
-        <f>(Q6*(SQRT(T6)))</f>
-        <v>0.30983866769660051</v>
-      </c>
-      <c r="P6" s="5">
-        <f>26.65-L6</f>
-        <v>7.9999999999998295E-2</v>
-      </c>
-      <c r="Q6" s="5">
-        <f>27.89-M6</f>
-        <v>8.0000000000001847E-2</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6">
+      <c r="R6">
         <v>15</v>
       </c>
-      <c r="T6">
-        <v>15</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="X6" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="M7" s="5">
+        <v>5.79</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="O7" s="49">
+        <v>0.9353074360871938</v>
+      </c>
+      <c r="P7" s="49">
+        <v>0.62353829072479572</v>
+      </c>
+      <c r="Q7">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>12</v>
+      </c>
+      <c r="S7" s="5">
+        <v>6</v>
+      </c>
+      <c r="T7" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="U7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="5">
-        <v>5.79</v>
-      </c>
-      <c r="M7" s="5">
-        <v>5.12</v>
-      </c>
-      <c r="N7" s="5">
-        <f>(P7*(SQRT(T7)))</f>
-        <v>0.9353074360871938</v>
-      </c>
-      <c r="O7" s="5">
-        <f>(Q7*(SQRT(T7)))</f>
-        <v>0.62353829072479572</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7">
-        <v>12</v>
-      </c>
-      <c r="T7">
-        <v>12</v>
-      </c>
-      <c r="U7" s="5">
-        <v>6</v>
-      </c>
-      <c r="W7" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="X7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y7" s="5">
+      <c r="V7" s="5">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="Z7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="87" x14ac:dyDescent="0.35">
+      <c r="W7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>2009</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="L8">
+        <v>125</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="M8">
         <v>14.7</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>9.98</v>
       </c>
-      <c r="N8">
+      <c r="O8" s="50">
         <v>1.6</v>
       </c>
-      <c r="O8">
-        <v>1.1064316407259731</v>
+      <c r="P8" s="50">
+        <v>1.10643164072597</v>
       </c>
       <c r="Q8">
-        <f>2.36462425159278*2</f>
-        <v>4.72924850318556</v>
+        <v>8</v>
       </c>
       <c r="R8">
-        <f>TINV(1-0.95,8-1)</f>
-        <v>2.3646242515927849</v>
-      </c>
-      <c r="S8">
         <v>8</v>
       </c>
-      <c r="T8">
-        <v>8</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X8" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>373</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="5">
+        <v>125</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="5">
         <v>420</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>320.39999999999998</v>
       </c>
-      <c r="N9" s="5">
-        <f>(P9*(SQRT(T9)))</f>
+      <c r="O9" s="49">
         <v>81.332650270355757</v>
       </c>
-      <c r="O9" s="5">
-        <f>(Q9*(SQRT(T9)))</f>
+      <c r="P9" s="49">
         <v>60.418540200835707</v>
       </c>
-      <c r="P9" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9">
+      <c r="Q9">
         <v>60</v>
       </c>
-      <c r="T9">
+      <c r="R9">
         <v>60</v>
       </c>
-      <c r="U9" s="5">
+      <c r="S9" s="5">
         <v>2</v>
       </c>
-      <c r="AA9" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="X9" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>2014</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="5">
+        <v>98.2</v>
+      </c>
+      <c r="N10" s="5">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="5">
-        <v>98.2</v>
-      </c>
-      <c r="M10" s="5">
-        <v>35</v>
-      </c>
-      <c r="N10" s="5">
-        <f>(P10*(SQRT(T10)))</f>
+      <c r="O10" s="49">
         <v>9.5317994103946617</v>
       </c>
-      <c r="O10" s="5">
-        <f>(Q10*(SQRT(T10)))</f>
+      <c r="P10" s="49">
         <v>8.3438600180012692</v>
       </c>
-      <c r="P10" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="Q10" s="5">
-        <f>M10-32.05</f>
-        <v>2.9500000000000028</v>
-      </c>
-      <c r="R10" s="5"/>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
       <c r="S10">
-        <v>8</v>
-      </c>
-      <c r="T10">
-        <v>8</v>
-      </c>
-      <c r="U10">
         <v>3</v>
       </c>
-      <c r="AA10" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="X10" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L11" s="5">
+        <v>125</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="M11" s="5">
         <v>1148</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>1641</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="49">
         <v>313.85000000000002</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="49">
         <v>163.6</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
       <c r="S11">
-        <v>8</v>
-      </c>
-      <c r="T11">
-        <v>8</v>
-      </c>
-      <c r="U11">
         <v>3</v>
       </c>
-      <c r="AA11" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X11" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1980</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" s="5">
+        <v>143.5</v>
+      </c>
+      <c r="N12" s="5">
+        <v>130.6</v>
+      </c>
+      <c r="O12" s="49">
+        <v>2.6</v>
+      </c>
+      <c r="P12" s="49">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L12" s="5">
-        <v>143.5</v>
-      </c>
-      <c r="M12" s="5">
-        <v>130.6</v>
-      </c>
-      <c r="N12" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="O12" s="5">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="R12">
+        <v>5</v>
+      </c>
       <c r="S12">
-        <v>5</v>
-      </c>
-      <c r="T12">
-        <v>5</v>
-      </c>
-      <c r="U12">
         <v>4</v>
       </c>
-      <c r="AA12" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X12" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1980</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="5">
+        <v>126</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" s="5">
         <v>193.82</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>161.25</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="49">
         <v>7.4</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="49">
         <v>20.93</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
       <c r="S13">
-        <v>8</v>
-      </c>
-      <c r="T13">
-        <v>8</v>
-      </c>
-      <c r="U13">
         <v>7</v>
       </c>
-      <c r="AA13" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="X13" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>2007</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>5</v>
+        <v>373</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="L14" s="5">
+        <v>126</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M14" s="5">
         <v>30.67</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>24.8</v>
       </c>
-      <c r="N14">
+      <c r="O14" s="50">
         <v>0.44</v>
       </c>
-      <c r="O14">
+      <c r="P14" s="50">
         <v>1.22</v>
       </c>
+      <c r="Q14">
+        <v>50</v>
+      </c>
+      <c r="R14">
+        <v>50</v>
+      </c>
       <c r="S14">
-        <v>50</v>
-      </c>
-      <c r="T14">
-        <v>50</v>
-      </c>
-      <c r="U14">
         <v>2</v>
       </c>
-      <c r="AA14" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="87" x14ac:dyDescent="0.35">
+      <c r="X14" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>2014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L15">
+        <v>125</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="M15">
         <v>96.36</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>51.9</v>
       </c>
-      <c r="N15" s="5">
-        <f>(P15*(SQRT(S15)))</f>
+      <c r="O15" s="49">
         <v>7.4104790668350189</v>
       </c>
-      <c r="O15" s="5">
-        <f>(Q15*(SQRT(T15)))</f>
+      <c r="P15" s="49">
         <v>9.8994949366116654</v>
       </c>
-      <c r="P15">
-        <v>2.62</v>
-      </c>
       <c r="Q15">
-        <v>3.5</v>
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <v>8</v>
       </c>
       <c r="S15">
-        <v>8</v>
-      </c>
-      <c r="T15">
-        <v>8</v>
-      </c>
-      <c r="U15">
         <v>3</v>
       </c>
-      <c r="AA15" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="87" x14ac:dyDescent="0.35">
+      <c r="X15" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>2001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>195</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>22</v>
+        <v>376</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="L16">
+        <v>125</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="M16">
         <v>10.35</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>22.47</v>
       </c>
-      <c r="N16" s="5">
-        <f>(P16*(SQRT(S16)))</f>
+      <c r="O16" s="49">
         <v>6.1381430416698501</v>
       </c>
-      <c r="O16" s="5">
-        <f>(Q16*(SQRT(T16)))</f>
+      <c r="P16" s="49">
         <v>16.932808390813381</v>
       </c>
-      <c r="P16">
-        <v>2.3199999999999998</v>
-      </c>
       <c r="Q16">
-        <v>6.4</v>
-      </c>
-      <c r="S16">
         <v>7</v>
       </c>
-      <c r="T16">
+      <c r="R16">
         <v>7</v>
       </c>
-      <c r="AA16" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X16" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1990</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>20</v>
+      <c r="I17" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="L17">
+        <v>125</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17">
         <v>31.9</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>42.4</v>
       </c>
-      <c r="N17">
+      <c r="O17" s="50">
         <v>8.0379457470922873</v>
       </c>
-      <c r="O17">
+      <c r="P17" s="50">
         <v>10.624067422243717</v>
       </c>
-      <c r="P17">
-        <f>TINV(1-0.95,10-1)*2</f>
-        <v>4.5243143255964098</v>
-      </c>
       <c r="Q17">
-        <f>SQRT(T17)*(38.2-26.7)/P17</f>
-        <v>8.0379457470922873</v>
-      </c>
-      <c r="S17">
         <v>10</v>
       </c>
-      <c r="T17">
+      <c r="R17">
         <v>10</v>
       </c>
-      <c r="AA17" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X17" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>2007</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="L18">
+        <v>126</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="M18">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.18</v>
       </c>
-      <c r="N18">
+      <c r="O18" s="50">
         <v>0.48076223547269065</v>
       </c>
-      <c r="O18">
+      <c r="P18" s="50">
         <v>4.7133552497322609E-2</v>
       </c>
-      <c r="P18">
-        <f>TINV(1-0.95,4-1)*2</f>
-        <v>6.3648926105674155</v>
-      </c>
       <c r="Q18">
-        <f>SQRT(T18)*(2.12-0.59)/P18</f>
-        <v>0.48076223547269065</v>
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>4</v>
-      </c>
-      <c r="T18">
-        <v>4</v>
-      </c>
-      <c r="U18">
         <v>2</v>
       </c>
-      <c r="AA18" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" s="22" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="X18" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="20">
         <v>2009</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="22">
+        <v>-5.2</v>
+      </c>
+      <c r="N19" s="22">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="O19" s="51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P19" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="Q19" s="22">
         <v>8</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="22">
-        <f>5.2*-1</f>
-        <v>-5.2</v>
-      </c>
-      <c r="M19" s="22">
-        <f>9.2*-1</f>
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="N19" s="22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O19" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="S19" s="22">
+      <c r="R19" s="22">
         <v>8</v>
       </c>
-      <c r="T19" s="22">
-        <v>8</v>
-      </c>
-      <c r="AA19" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X19" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>2011</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20">
+        <v>126</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20">
         <v>67.3</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2.1</v>
       </c>
-      <c r="N20">
+      <c r="O20" s="50">
         <v>16.626378168747024</v>
       </c>
-      <c r="O20">
+      <c r="P20" s="50">
         <v>1.1961423142983469</v>
       </c>
       <c r="Q20">
-        <f>SQRT(T20)*(3.1-1.1)/R20</f>
-        <v>1.1961423142983469</v>
+        <v>8</v>
       </c>
       <c r="R20">
-        <f>TINV(1-0.95,8-1)*2</f>
-        <v>4.7292485031855698</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>8</v>
-      </c>
-      <c r="T20">
-        <v>8</v>
-      </c>
-      <c r="U20">
         <v>3</v>
       </c>
-      <c r="AA20" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="X20" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>2001</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="L21">
+        <v>126</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M21">
         <v>69.91</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>35.99</v>
       </c>
-      <c r="N21">
+      <c r="O21" s="50">
         <v>11.94</v>
       </c>
-      <c r="O21">
+      <c r="P21" s="50">
         <v>3.11</v>
       </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
       <c r="S21">
-        <v>10</v>
-      </c>
-      <c r="T21">
-        <v>10</v>
-      </c>
-      <c r="U21">
         <v>3</v>
       </c>
-      <c r="AA21" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" s="22" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="X21" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="22" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="20">
         <v>2007</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>35</v>
+        <v>373</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="L22" s="22">
-        <f>1.71*-1</f>
+        <v>300</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M22" s="22">
         <v>-1.71</v>
       </c>
-      <c r="M22" s="22">
-        <f>2.45*-1</f>
+      <c r="N22" s="22">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="N22" s="24">
-        <f t="shared" ref="N22:O24" si="0">(P22*(SQRT(S22)))</f>
+      <c r="O22" s="52">
         <v>0.29393876913398131</v>
       </c>
-      <c r="O22" s="24">
-        <f t="shared" si="0"/>
+      <c r="P22" s="52">
         <v>0.44090815370097203</v>
       </c>
-      <c r="P22" s="22">
-        <v>0.12</v>
-      </c>
       <c r="Q22" s="22">
-        <v>0.18</v>
+        <v>6</v>
+      </c>
+      <c r="R22" s="22">
+        <v>6</v>
       </c>
       <c r="S22" s="22">
-        <v>6</v>
-      </c>
-      <c r="T22" s="22">
-        <v>6</v>
-      </c>
-      <c r="U22" s="22">
         <v>3</v>
       </c>
-      <c r="AA22" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" s="22" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="X22" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="20">
         <v>2007</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>35</v>
+        <v>373</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="L23" s="22">
-        <f>1.82*-1</f>
+        <v>300</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="M23" s="22">
         <v>-1.82</v>
       </c>
-      <c r="M23" s="22">
-        <f>2.79*-1</f>
+      <c r="N23" s="22">
         <v>-2.79</v>
       </c>
-      <c r="N23" s="24">
-        <f t="shared" si="0"/>
+      <c r="O23" s="52">
         <v>0.36742346141747667</v>
       </c>
-      <c r="O23" s="24">
-        <f t="shared" si="0"/>
+      <c r="P23" s="52">
         <v>1.0532805893967665</v>
       </c>
-      <c r="P23" s="22">
-        <v>0.15</v>
-      </c>
       <c r="Q23" s="22">
-        <v>0.43</v>
+        <v>6</v>
+      </c>
+      <c r="R23" s="22">
+        <v>6</v>
       </c>
       <c r="S23" s="22">
-        <v>6</v>
-      </c>
-      <c r="T23" s="22">
-        <v>6</v>
-      </c>
-      <c r="U23" s="22">
         <v>3</v>
       </c>
-      <c r="AA23" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="X23" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>2006</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>71</v>
+        <v>379</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="L24">
+        <v>81</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="M24">
         <v>30.7</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>25.6</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" si="0"/>
+      <c r="O24" s="49">
         <v>4.0249223594996222</v>
       </c>
-      <c r="O24" s="5">
-        <f t="shared" si="0"/>
+      <c r="P24" s="49">
         <v>6.2609903369994111</v>
       </c>
-      <c r="P24">
-        <v>1.8</v>
-      </c>
       <c r="Q24">
-        <v>2.8</v>
-      </c>
-      <c r="S24">
         <v>5</v>
       </c>
-      <c r="T24">
+      <c r="R24">
         <v>5</v>
       </c>
-      <c r="AA24" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" s="22" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="X24" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="20">
         <v>2021</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="K25" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="L25" s="22">
-        <f>2.33*-1</f>
+        <v>126</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="M25" s="22">
         <v>-2.33</v>
       </c>
-      <c r="M25" s="22">
-        <f>3.13*-1</f>
+      <c r="N25" s="22">
         <v>-3.13</v>
       </c>
-      <c r="N25" s="24">
-        <f>(P25*(SQRT(S25)))</f>
+      <c r="O25" s="52">
         <v>0.31843366656181316</v>
       </c>
-      <c r="O25" s="24">
+      <c r="P25" s="52">
         <v>0.44331717018285627</v>
       </c>
-      <c r="P25" s="22">
-        <v>0.13</v>
-      </c>
       <c r="Q25" s="22">
-        <f>SQRT(T25)*(1.22-0.4)/R25</f>
-        <v>0.44331717018285627</v>
+        <v>6</v>
       </c>
       <c r="R25" s="22">
-        <f>TINV(1-0.95,7-1)*2</f>
-        <v>4.8938237022899376</v>
+        <v>7</v>
       </c>
       <c r="S25" s="22">
-        <v>6</v>
-      </c>
-      <c r="T25" s="22">
-        <v>7</v>
-      </c>
-      <c r="U25" s="22">
         <v>4</v>
       </c>
-      <c r="AA25" s="29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="X25" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>2021</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>134</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>309</v>
+        <v>19</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>136</v>
+        <v>302</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="L26">
+        <v>126</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="M26">
         <v>29.23</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>28.23</v>
       </c>
-      <c r="N26">
+      <c r="O26" s="50">
         <v>0.74</v>
       </c>
-      <c r="O26">
+      <c r="P26" s="50">
         <v>0.97571377503223433</v>
       </c>
       <c r="Q26">
-        <f>SQRT(T26)*(28.93-27.43)/R26</f>
-        <v>0.97571377503223433</v>
+        <v>9</v>
       </c>
       <c r="R26">
-        <f>TINV(1-0.95,9-1)*2</f>
-        <v>4.6120082704083325</v>
+        <v>9</v>
       </c>
       <c r="S26">
-        <v>9</v>
-      </c>
-      <c r="T26">
-        <v>9</v>
-      </c>
-      <c r="U26">
         <v>4</v>
       </c>
-      <c r="AA26" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X26" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>2022</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>5</v>
+        <v>373</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="L27">
+        <v>126</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="M27">
         <v>28.1</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>28.7</v>
       </c>
-      <c r="N27">
+      <c r="O27" s="50">
         <v>0.47</v>
       </c>
-      <c r="O27">
+      <c r="P27" s="50">
         <v>0.19</v>
       </c>
-      <c r="S27">
+      <c r="Q27">
         <v>10</v>
       </c>
-      <c r="T27">
+      <c r="R27">
         <v>9</v>
       </c>
-      <c r="AA27" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X27" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>2022</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>5</v>
+        <v>134</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="L28">
+        <v>126</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="M28">
         <v>28.08</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>28.64</v>
       </c>
-      <c r="N28">
+      <c r="O28" s="50">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O28">
+      <c r="P28" s="50">
         <v>0.19</v>
       </c>
-      <c r="S28">
+      <c r="Q28">
         <v>9</v>
       </c>
-      <c r="T28">
+      <c r="R28">
         <v>10</v>
       </c>
-      <c r="AA28" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="X28" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>35</v>
+        <v>373</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="L29">
+        <v>126</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="M29">
         <v>53.99</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>100</v>
       </c>
-      <c r="N29" s="5">
+      <c r="O29" s="49">
         <v>18.5</v>
       </c>
-      <c r="O29" s="5">
+      <c r="P29" s="49">
         <v>0</v>
       </c>
-      <c r="P29">
-        <v>11.53</v>
-      </c>
       <c r="Q29">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
       </c>
       <c r="S29">
-        <v>5</v>
-      </c>
-      <c r="T29">
-        <v>5</v>
-      </c>
-      <c r="U29">
         <v>4</v>
       </c>
-      <c r="AA29" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" s="22" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="X29" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20">
         <v>2011</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>183</v>
+        <v>134</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>22</v>
+        <v>381</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K30" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="L30" s="22">
-        <f>46.04*-1</f>
+        <v>310</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="M30" s="22">
         <v>-46.04</v>
       </c>
-      <c r="M30" s="22">
-        <f>44.42*-1</f>
+      <c r="N30" s="22">
         <v>-44.42</v>
       </c>
-      <c r="N30" s="24">
-        <f t="shared" ref="N30:O33" si="1">(P30*(SQRT(S30)))</f>
+      <c r="O30" s="52">
         <v>7.1</v>
       </c>
-      <c r="O30" s="24">
-        <f t="shared" si="1"/>
+      <c r="P30" s="52">
         <v>5.8</v>
       </c>
-      <c r="P30" s="22">
-        <v>0.71</v>
-      </c>
       <c r="Q30" s="22">
-        <v>0.57999999999999996</v>
+        <v>100</v>
+      </c>
+      <c r="R30" s="22">
+        <v>100</v>
       </c>
       <c r="S30" s="22">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="T30" s="22">
-        <v>100</v>
-      </c>
-      <c r="U30" s="22">
-        <v>3</v>
-      </c>
-      <c r="W30" s="22">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="X30" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y30" s="22">
+      <c r="U30" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="V30" s="22">
         <v>-0.44</v>
       </c>
-      <c r="Z30" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA30" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="W30" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1997</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L31">
+      <c r="K31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M31">
         <v>37.64</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>47.52</v>
       </c>
-      <c r="N31" s="5">
-        <f t="shared" si="1"/>
+      <c r="O31" s="49">
         <v>7.2812086908699438</v>
       </c>
-      <c r="O31" s="5">
-        <f t="shared" si="1"/>
+      <c r="P31" s="49">
         <v>13.632901378650107</v>
       </c>
-      <c r="P31">
-        <v>0.94</v>
-      </c>
       <c r="Q31">
-        <v>1.76</v>
+        <v>60</v>
+      </c>
+      <c r="R31">
+        <v>60</v>
       </c>
       <c r="S31">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>60</v>
-      </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
-      <c r="W31">
         <v>-0.69</v>
       </c>
-      <c r="X31" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y31">
+      <c r="U31" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31">
         <v>-1.46</v>
       </c>
-      <c r="Z31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA31" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" s="22" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="W31" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="22" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20">
         <v>1998</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>113</v>
+        <v>134</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M32" s="22">
+        <v>-281.2</v>
+      </c>
+      <c r="N32" s="22">
+        <v>-338.3</v>
+      </c>
+      <c r="O32" s="52">
+        <v>99.728631796490632</v>
+      </c>
+      <c r="P32" s="52">
+        <v>69.318107302493488</v>
+      </c>
+      <c r="Q32" s="22">
         <v>20</v>
       </c>
-      <c r="J32" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K32" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="L32" s="22">
-        <f>281.2*-1</f>
-        <v>-281.2</v>
-      </c>
-      <c r="M32" s="22">
-        <f>338.3*-1</f>
-        <v>-338.3</v>
-      </c>
-      <c r="N32" s="24">
-        <f t="shared" si="1"/>
-        <v>99.728631796490632</v>
-      </c>
-      <c r="O32" s="24">
-        <f t="shared" si="1"/>
-        <v>69.318107302493488</v>
-      </c>
-      <c r="P32" s="22">
-        <v>22.3</v>
-      </c>
-      <c r="Q32" s="22">
-        <v>15.5</v>
+      <c r="R32" s="22">
+        <v>20</v>
       </c>
       <c r="S32" s="22">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="T32" s="22">
-        <v>20</v>
-      </c>
-      <c r="U32" s="22">
-        <v>3</v>
-      </c>
-      <c r="W32" s="22">
         <v>0.36</v>
       </c>
-      <c r="X32" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA32" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" s="22" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="U32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X32" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20">
         <v>1998</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="M33" s="22">
+        <v>-3.45</v>
+      </c>
+      <c r="N33" s="22">
+        <v>-8.35</v>
+      </c>
+      <c r="O33" s="52">
+        <v>2.4890158697766473</v>
+      </c>
+      <c r="P33" s="52">
+        <v>2.9698484809835</v>
+      </c>
+      <c r="Q33" s="22">
         <v>8</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K33" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="L33" s="22">
-        <f>3.45*-1</f>
-        <v>-3.45</v>
-      </c>
-      <c r="M33" s="22">
-        <f>8.35*-1</f>
-        <v>-8.35</v>
-      </c>
-      <c r="N33" s="24">
-        <f t="shared" si="1"/>
-        <v>2.4890158697766473</v>
-      </c>
-      <c r="O33" s="24">
-        <f t="shared" si="1"/>
-        <v>2.9698484809835</v>
-      </c>
-      <c r="P33" s="22">
-        <v>0.88</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>1.05</v>
+      <c r="R33" s="22">
+        <v>8</v>
       </c>
       <c r="S33" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T33" s="22">
-        <v>8</v>
-      </c>
-      <c r="U33" s="22">
-        <v>5</v>
-      </c>
-      <c r="W33" s="22">
         <v>0.98</v>
       </c>
-      <c r="X33" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y33" s="22">
+      <c r="U33" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="V33" s="22">
         <v>1.69</v>
       </c>
-      <c r="Z33" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA33" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="116" x14ac:dyDescent="0.35">
+      <c r="W33" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>2003</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34">
         <v>42.71</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>51.48</v>
       </c>
-      <c r="N34" s="5">
-        <f t="shared" ref="N34:O34" si="2">(P34*(SQRT(S34)))</f>
+      <c r="O34" s="49">
         <v>2.7189336144893277</v>
       </c>
-      <c r="O34" s="5">
-        <f t="shared" si="2"/>
+      <c r="P34" s="49">
         <v>3.0128723836233089</v>
       </c>
-      <c r="P34">
-        <v>1.1100000000000001</v>
-      </c>
       <c r="Q34">
-        <v>1.23</v>
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
       </c>
       <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>-2.87</v>
+      </c>
+      <c r="U34" t="s">
         <v>6</v>
       </c>
-      <c r="T34">
+      <c r="V34">
+        <v>-2.21</v>
+      </c>
+      <c r="W34" t="s">
         <v>6</v>
       </c>
-      <c r="U34">
-        <v>3</v>
-      </c>
-      <c r="W34">
-        <v>-2.87</v>
-      </c>
-      <c r="X34" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y34">
-        <v>-2.21</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA34" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" s="22" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="X34" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="20">
         <v>1997</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>76</v>
+        <v>134</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K35" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="L35" s="22">
-        <f>78.08*-1</f>
+        <v>101</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" s="22">
         <v>-78.08</v>
       </c>
-      <c r="M35" s="22">
-        <f>17.29*-1</f>
+      <c r="N35" s="22">
         <v>-17.29</v>
       </c>
-      <c r="N35" s="24">
-        <f t="shared" ref="N35:O35" si="3">(P35*(SQRT(S35)))</f>
+      <c r="O35" s="52">
         <v>16.696826045689043</v>
       </c>
-      <c r="O35" s="24">
-        <f t="shared" si="3"/>
+      <c r="P35" s="52">
         <v>3.6366193091936361</v>
       </c>
-      <c r="P35" s="22">
-        <v>5.28</v>
-      </c>
       <c r="Q35" s="22">
-        <v>1.1499999999999999</v>
+        <v>10</v>
+      </c>
+      <c r="R35" s="22">
+        <v>10</v>
       </c>
       <c r="S35" s="22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T35" s="22">
-        <v>10</v>
-      </c>
-      <c r="U35" s="22">
-        <v>3</v>
-      </c>
-      <c r="W35" s="22">
         <v>-0.16</v>
       </c>
-      <c r="X35" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA35" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="U35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1973</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>70</v>
+        <v>195</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>11</v>
+        <v>384</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="L36">
+        <v>32</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M36">
         <v>77.5</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>23.3</v>
       </c>
-      <c r="N36">
+      <c r="O36" s="50">
         <v>9.0739989566014003</v>
       </c>
-      <c r="O36">
+      <c r="P36" s="50">
         <v>9.8414258889876844</v>
       </c>
       <c r="Q36">
-        <f>SQRT(T36)*(29.4-18.5)/R36</f>
-        <v>9.8414258889876844</v>
+        <v>10</v>
       </c>
       <c r="R36">
-        <f>TINV(1-0.95,15-1)*2</f>
-        <v>4.2895733758356069</v>
-      </c>
-      <c r="S36">
-        <v>10</v>
-      </c>
-      <c r="T36">
         <v>15</v>
       </c>
-      <c r="AA36" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" s="22" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="X36" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="22" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="20">
         <v>1997</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>76</v>
+        <v>172</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>385</v>
       </c>
       <c r="F37" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I37" s="21" t="s">
+      <c r="K37" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" s="22">
+        <v>-177.85</v>
+      </c>
+      <c r="N37" s="22">
+        <v>-137.78</v>
+      </c>
+      <c r="O37" s="52">
+        <v>50.222086774645284</v>
+      </c>
+      <c r="P37" s="52">
+        <v>45.884114898295685</v>
+      </c>
+      <c r="Q37" s="22">
         <v>20</v>
       </c>
-      <c r="J37" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="K37" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="L37" s="22">
-        <f>177.85*-1</f>
-        <v>-177.85</v>
-      </c>
-      <c r="M37" s="22">
-        <f>137.78*-1</f>
-        <v>-137.78</v>
-      </c>
-      <c r="N37" s="24">
-        <f t="shared" ref="N37" si="4">(P37*(SQRT(S37)))</f>
-        <v>50.222086774645284</v>
-      </c>
-      <c r="O37" s="24">
-        <f>(Q37*(SQRT(T37)))</f>
-        <v>45.884114898295685</v>
-      </c>
-      <c r="P37" s="22">
-        <v>11.23</v>
-      </c>
-      <c r="Q37" s="22">
-        <v>10.26</v>
+      <c r="R37" s="22">
+        <v>20</v>
       </c>
       <c r="S37" s="22">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="T37" s="22">
-        <v>20</v>
-      </c>
-      <c r="U37" s="22">
-        <v>3</v>
-      </c>
-      <c r="W37" s="22">
         <v>-0.74</v>
       </c>
-      <c r="X37" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y37" s="22">
+      <c r="U37" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" s="22">
         <v>-0.74</v>
       </c>
-      <c r="Z37" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA37" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="W37" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="X37" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>2002</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="L38">
+        <v>32</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M38">
         <v>17.25</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>38.020000000000003</v>
       </c>
-      <c r="N38">
+      <c r="O38" s="50">
         <v>1.5321240372342109</v>
       </c>
-      <c r="O38">
+      <c r="P38" s="50">
         <v>6.7651152100340699</v>
       </c>
       <c r="Q38">
-        <f>SQRT(T38)*(46.41-29.61)/R38</f>
-        <v>6.7651152100340699</v>
+        <v>10</v>
       </c>
       <c r="R38">
-        <f>TINV(1-0.95,5-1)*2</f>
-        <v>5.5528902103955859</v>
+        <v>5</v>
       </c>
       <c r="S38">
-        <v>10</v>
-      </c>
-      <c r="T38">
-        <v>5</v>
-      </c>
-      <c r="U38">
         <v>3</v>
       </c>
-      <c r="AA38" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="X38" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>2005</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J39" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="L39">
+        <v>149</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="M39">
         <v>66.400000000000006</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>25.2</v>
       </c>
-      <c r="N39">
+      <c r="O39" s="50">
         <v>42.9</v>
       </c>
-      <c r="O39">
+      <c r="P39" s="50">
         <v>29.8</v>
       </c>
+      <c r="Q39">
+        <v>16</v>
+      </c>
+      <c r="R39">
+        <v>12</v>
+      </c>
       <c r="S39">
-        <v>16</v>
-      </c>
-      <c r="T39">
-        <v>12</v>
-      </c>
-      <c r="U39">
         <v>2</v>
       </c>
-      <c r="AA39" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="X39" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>2008</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>334</v>
+        <v>134</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>11</v>
+        <v>391</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>333</v>
+        <v>19</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>20</v>
+        <v>250</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="L40">
+        <v>324</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="M40">
         <v>465.01</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>249.85</v>
       </c>
-      <c r="N40" s="5">
-        <f>(P40*(SQRT(S40)))</f>
+      <c r="O40" s="49">
         <v>85.825310951956368</v>
       </c>
-      <c r="O40" s="5">
-        <f>(Q40*(SQRT(T40)))</f>
+      <c r="P40" s="49">
         <v>45.158985816778483</v>
       </c>
-      <c r="P40">
-        <v>11.08</v>
-      </c>
       <c r="Q40">
-        <v>5.83</v>
+        <v>60</v>
+      </c>
+      <c r="R40">
+        <v>60</v>
       </c>
       <c r="S40">
-        <v>60</v>
-      </c>
-      <c r="T40">
-        <v>60</v>
-      </c>
-      <c r="U40">
         <v>2</v>
       </c>
-      <c r="Y40">
+      <c r="V40">
         <v>2.08</v>
       </c>
-      <c r="Z40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA40" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" s="22" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="W40" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="22" customFormat="1" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="20">
         <v>2002</v>
       </c>
       <c r="B41" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="M41" s="22">
+        <v>-12.08</v>
+      </c>
+      <c r="N41" s="22">
+        <v>-11.3</v>
+      </c>
+      <c r="O41" s="52">
+        <v>6.8447936418857802</v>
+      </c>
+      <c r="P41" s="52">
+        <v>5.0628845532956808</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>8</v>
+      </c>
+      <c r="R41" s="22">
+        <v>8</v>
+      </c>
+      <c r="S41" s="22">
+        <v>3</v>
+      </c>
+      <c r="T41" s="22">
+        <v>-0.78</v>
+      </c>
+      <c r="U41" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="V41" s="22">
+        <v>-0.9</v>
+      </c>
+      <c r="W41" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="X41" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K41" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="L41" s="22">
-        <f>12.08*-1</f>
-        <v>-12.08</v>
-      </c>
-      <c r="M41" s="22">
-        <f>11.3*-1</f>
-        <v>-11.3</v>
-      </c>
-      <c r="N41" s="24">
-        <f>(P41*(SQRT(S41)))</f>
-        <v>6.8447936418857802</v>
-      </c>
-      <c r="O41" s="24">
-        <f>(Q41*(SQRT(T41)))</f>
-        <v>5.0628845532956808</v>
-      </c>
-      <c r="P41" s="22">
-        <v>2.42</v>
-      </c>
-      <c r="Q41" s="22">
-        <v>1.79</v>
-      </c>
-      <c r="S41" s="22">
-        <v>8</v>
-      </c>
-      <c r="T41" s="22">
-        <v>8</v>
-      </c>
-      <c r="U41" s="22">
-        <v>3</v>
-      </c>
-      <c r="W41" s="22">
-        <v>-0.78</v>
-      </c>
-      <c r="X41" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y41" s="22">
-        <v>-0.9</v>
-      </c>
-      <c r="Z41" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA41" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="145" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:24" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>2011</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M42">
+        <v>42.7</v>
+      </c>
+      <c r="N42">
+        <v>8.1</v>
+      </c>
+      <c r="O42" s="50">
+        <v>26</v>
+      </c>
+      <c r="P42" s="50">
+        <v>5.2</v>
+      </c>
+      <c r="Q42">
+        <v>10</v>
+      </c>
+      <c r="R42">
         <v>5</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L42">
-        <v>42.7</v>
-      </c>
-      <c r="M42">
-        <v>8.1</v>
-      </c>
-      <c r="N42">
-        <v>26</v>
-      </c>
-      <c r="O42">
-        <v>5.2</v>
-      </c>
       <c r="S42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T42">
-        <v>5</v>
-      </c>
-      <c r="U42">
-        <v>3</v>
-      </c>
-      <c r="W42">
         <v>-0.5</v>
       </c>
-      <c r="X42" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y42">
+      <c r="U42" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42">
         <v>0.49</v>
       </c>
-      <c r="Z42" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA42" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="87" x14ac:dyDescent="0.35">
+      <c r="W42" t="s">
+        <v>21</v>
+      </c>
+      <c r="X42" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>2009</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>179</v>
+        <v>134</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="L43">
+        <v>154</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M43">
         <v>19.04</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>6.79</v>
       </c>
-      <c r="N43">
+      <c r="O43" s="50">
         <v>12.53</v>
       </c>
-      <c r="O43">
+      <c r="P43" s="50">
         <v>6.29</v>
       </c>
-      <c r="S43">
+      <c r="Q43">
         <v>10</v>
       </c>
-      <c r="T43">
+      <c r="R43">
         <v>10</v>
       </c>
-      <c r="AA43" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="X43" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>2007</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="M44">
+        <v>11.6</v>
+      </c>
+      <c r="N44">
+        <v>7.8</v>
+      </c>
+      <c r="O44" s="50">
+        <v>9.0863734532347564</v>
+      </c>
+      <c r="P44" s="50">
+        <v>5.3819288915313566</v>
+      </c>
+      <c r="Q44">
+        <v>10</v>
+      </c>
+      <c r="R44">
+        <v>10</v>
+      </c>
+      <c r="S44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>-0.2</v>
+      </c>
+      <c r="W44" t="s">
+        <v>21</v>
+      </c>
+      <c r="X44" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="L44">
-        <v>11.6</v>
-      </c>
-      <c r="M44">
-        <v>7.8</v>
-      </c>
-      <c r="N44">
-        <v>9.0863734532347564</v>
-      </c>
-      <c r="O44">
-        <v>5.3819288915313566</v>
-      </c>
-      <c r="Q44">
-        <f>SQRT(T44)*(13.7-6)/R44</f>
-        <v>5.3819288915313566</v>
-      </c>
-      <c r="R44">
-        <f>TINV(1-0.95,10-1)*2</f>
-        <v>4.5243143255964098</v>
-      </c>
-      <c r="S44">
-        <v>10</v>
-      </c>
-      <c r="T44">
-        <v>10</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
-      <c r="Y44">
-        <v>-0.2</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA44" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" s="22" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:24" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="20">
         <v>2005</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>179</v>
+        <v>134</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K45" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="L45" s="22">
+        <v>32</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L45" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="M45" s="22">
         <v>0</v>
       </c>
-      <c r="M45" s="22">
-        <f>21.46*-1</f>
+      <c r="N45" s="22">
         <v>-21.46</v>
       </c>
-      <c r="N45" s="22">
+      <c r="O45" s="51">
         <v>0</v>
       </c>
-      <c r="O45" s="22">
+      <c r="P45" s="51">
         <v>7</v>
       </c>
+      <c r="Q45" s="22">
+        <v>30</v>
+      </c>
+      <c r="R45" s="22">
+        <v>30</v>
+      </c>
       <c r="S45" s="22">
-        <v>30</v>
-      </c>
-      <c r="T45" s="22">
-        <v>30</v>
-      </c>
-      <c r="U45" s="22">
         <v>2</v>
       </c>
-      <c r="AA45" s="29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="X45" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>2011</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M46">
+        <v>0.95</v>
+      </c>
+      <c r="N46">
+        <v>0.81</v>
+      </c>
+      <c r="O46" s="49">
+        <v>0.22627416997969524</v>
+      </c>
+      <c r="P46" s="49">
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="Q46">
         <v>8</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="R46">
+        <v>8</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>0.48</v>
+      </c>
+      <c r="W46" t="s">
+        <v>21</v>
+      </c>
+      <c r="X46" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L46">
-        <v>0.95</v>
-      </c>
-      <c r="M46">
-        <v>0.81</v>
-      </c>
-      <c r="N46" s="5">
-        <f t="shared" ref="N46:O46" si="5">(P46*(SQRT(S46)))</f>
-        <v>0.22627416997969524</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="5"/>
-        <v>0.14142135623730953</v>
-      </c>
-      <c r="P46">
-        <v>0.08</v>
-      </c>
-      <c r="Q46">
-        <v>0.05</v>
-      </c>
-      <c r="S46">
-        <v>8</v>
-      </c>
-      <c r="T46">
-        <v>8</v>
-      </c>
-      <c r="U46">
-        <v>3</v>
-      </c>
-      <c r="Y46">
-        <v>0.48</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA46" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>2005</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M47">
+        <v>14.61</v>
+      </c>
+      <c r="N47">
+        <v>24.12</v>
+      </c>
+      <c r="O47" s="49">
+        <v>19.118381207623205</v>
+      </c>
+      <c r="P47" s="49">
+        <v>13.684736022298713</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>-0.41</v>
+      </c>
+      <c r="W47" t="s">
+        <v>21</v>
+      </c>
+      <c r="X47" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="L47">
-        <v>14.61</v>
-      </c>
-      <c r="M47">
-        <v>24.12</v>
-      </c>
-      <c r="N47" s="5">
-        <f t="shared" ref="N47:O50" si="6">(P47*(SQRT(S47)))</f>
-        <v>19.118381207623205</v>
-      </c>
-      <c r="O47" s="5">
-        <f t="shared" si="6"/>
-        <v>13.684736022298713</v>
-      </c>
-      <c r="P47">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="Q47">
-        <v>6.12</v>
-      </c>
-      <c r="S47">
-        <v>5</v>
-      </c>
-      <c r="T47">
-        <v>5</v>
-      </c>
-      <c r="U47">
-        <v>3</v>
-      </c>
-      <c r="Y47">
-        <v>-0.41</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA47" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" s="22" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:24" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="20">
         <v>1998</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" s="22">
+        <v>-30.7</v>
+      </c>
+      <c r="N48" s="22">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="O48" s="52">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="P48" s="52">
+        <v>8.4970583144992009</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>20</v>
+      </c>
+      <c r="R48" s="22">
+        <v>20</v>
+      </c>
+      <c r="S48" s="22">
         <v>5</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K48" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="L48" s="22">
-        <f>30.7*-1</f>
-        <v>-30.7</v>
-      </c>
-      <c r="M48" s="22">
-        <f>40.7*-1</f>
-        <v>-40.700000000000003</v>
-      </c>
-      <c r="N48" s="24">
-        <f t="shared" si="6"/>
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="O48" s="24">
-        <f t="shared" si="6"/>
-        <v>8.4970583144992009</v>
-      </c>
-      <c r="P48" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="Q48" s="22">
-        <v>1.9</v>
-      </c>
-      <c r="S48" s="22">
-        <v>20</v>
-      </c>
       <c r="T48" s="22">
-        <v>20</v>
-      </c>
-      <c r="U48" s="22">
-        <v>5</v>
-      </c>
-      <c r="W48" s="22">
         <v>0.95</v>
       </c>
-      <c r="X48" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA48" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="116" x14ac:dyDescent="0.35">
+      <c r="U48" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X48" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1994</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="M49">
+        <v>19.05</v>
+      </c>
+      <c r="N49">
+        <v>12.05</v>
+      </c>
+      <c r="O49" s="49">
+        <v>7.4670476093299429</v>
+      </c>
+      <c r="P49" s="49">
+        <v>6.0811183182043091</v>
+      </c>
+      <c r="Q49">
         <v>8</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L49">
-        <v>19.05</v>
-      </c>
-      <c r="M49">
-        <v>12.05</v>
-      </c>
-      <c r="N49" s="5">
-        <f t="shared" si="6"/>
-        <v>7.4670476093299429</v>
-      </c>
-      <c r="O49" s="5">
-        <f t="shared" si="6"/>
-        <v>6.0811183182043091</v>
-      </c>
-      <c r="P49">
-        <v>2.64</v>
-      </c>
-      <c r="Q49">
-        <v>2.15</v>
-      </c>
-      <c r="S49">
+      <c r="R49">
         <v>8</v>
       </c>
-      <c r="T49">
-        <v>8</v>
-      </c>
-      <c r="AA49" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X49" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1992</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M50">
+        <v>29.44</v>
+      </c>
+      <c r="N50">
+        <v>15.16</v>
+      </c>
+      <c r="O50" s="49">
+        <v>15.641201999846434</v>
+      </c>
+      <c r="P50" s="49">
+        <v>3.5355339059327378</v>
+      </c>
+      <c r="Q50">
         <v>8</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="L50">
-        <v>29.44</v>
-      </c>
-      <c r="M50">
-        <v>15.16</v>
-      </c>
-      <c r="N50" s="5">
-        <f t="shared" si="6"/>
-        <v>15.641201999846434</v>
-      </c>
-      <c r="O50" s="5">
-        <f t="shared" si="6"/>
-        <v>3.5355339059327378</v>
-      </c>
-      <c r="P50">
-        <v>5.53</v>
-      </c>
-      <c r="Q50">
-        <v>1.25</v>
-      </c>
-      <c r="S50">
+      <c r="R50">
         <v>8</v>
       </c>
-      <c r="T50">
-        <v>8</v>
-      </c>
-      <c r="AA50" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="X50" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>2018</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="M51">
+        <v>471.35659760087231</v>
+      </c>
+      <c r="N51">
+        <v>201.72464558342421</v>
+      </c>
+      <c r="O51" s="50">
+        <v>106.99870850466866</v>
+      </c>
+      <c r="P51" s="50">
+        <v>31.113054492942087</v>
+      </c>
+      <c r="Q51">
+        <v>7</v>
+      </c>
+      <c r="R51">
+        <v>7</v>
+      </c>
+      <c r="X51" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="L51">
-        <v>471.35659760087231</v>
-      </c>
-      <c r="M51">
-        <v>201.72464558342421</v>
-      </c>
-      <c r="N51">
-        <v>106.99870850466866</v>
-      </c>
-      <c r="O51">
-        <v>31.113054492942087</v>
-      </c>
-      <c r="S51">
-        <v>7</v>
-      </c>
-      <c r="T51">
-        <v>7</v>
-      </c>
-      <c r="AA51" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" s="22" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:24" s="22" customFormat="1" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="20">
         <v>1992</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>390</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>22</v>
+        <v>400</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="K52" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="L52" s="22">
-        <f>5.96*-1</f>
+        <v>259</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M52" s="22">
         <v>-5.96</v>
       </c>
-      <c r="M52" s="22">
-        <f>9.05*-1</f>
+      <c r="N52" s="22">
         <v>-9.0500000000000007</v>
       </c>
-      <c r="N52" s="24">
-        <f t="shared" ref="N52:O54" si="7">(P52*(SQRT(S52)))</f>
+      <c r="O52" s="52">
         <v>1.2347469376354008</v>
       </c>
-      <c r="O52" s="24">
-        <f t="shared" si="7"/>
+      <c r="P52" s="52">
         <v>1.1973303637676613</v>
       </c>
-      <c r="P52" s="22">
-        <v>0.33</v>
-      </c>
       <c r="Q52" s="22">
-        <v>0.32</v>
-      </c>
-      <c r="S52" s="22">
         <v>14</v>
       </c>
-      <c r="T52" s="22">
+      <c r="R52" s="22">
         <v>14</v>
       </c>
-      <c r="AA52" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="X52" s="28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>2008</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>22</v>
+        <v>381</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>20</v>
+        <v>143</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="L53">
+        <v>282</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="M53">
         <v>76.89</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>61</v>
       </c>
-      <c r="N53" s="5">
-        <f t="shared" si="7"/>
+      <c r="O53" s="49">
         <v>18.291036055948279</v>
       </c>
-      <c r="O53" s="5">
-        <f t="shared" si="7"/>
+      <c r="P53" s="49">
         <v>27.168225926622448</v>
       </c>
-      <c r="P53">
-        <v>8.18</v>
-      </c>
       <c r="Q53">
-        <v>12.15</v>
-      </c>
-      <c r="S53">
         <v>5</v>
       </c>
-      <c r="T53">
+      <c r="R53">
         <v>5</v>
       </c>
-      <c r="AA53" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" ht="195.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X53" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="195.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1998</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M54">
+        <v>44.5</v>
+      </c>
+      <c r="N54">
+        <v>49.7</v>
+      </c>
+      <c r="O54" s="49">
+        <v>3.1112698372208096</v>
+      </c>
+      <c r="P54" s="49">
+        <v>4.8083261120685235</v>
+      </c>
+      <c r="Q54">
         <v>8</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L54">
-        <v>44.5</v>
-      </c>
-      <c r="M54">
-        <v>49.7</v>
-      </c>
-      <c r="N54" s="5">
-        <f t="shared" si="7"/>
-        <v>3.1112698372208096</v>
-      </c>
-      <c r="O54" s="5">
-        <f t="shared" si="7"/>
-        <v>4.8083261120685235</v>
-      </c>
-      <c r="P54">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q54">
-        <v>1.7</v>
+      <c r="R54">
+        <v>8</v>
       </c>
       <c r="S54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T54">
-        <v>8</v>
-      </c>
-      <c r="U54">
-        <v>4</v>
-      </c>
-      <c r="W54">
         <v>-0.42</v>
       </c>
-      <c r="X54" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y54">
+      <c r="U54" t="s">
+        <v>6</v>
+      </c>
+      <c r="V54">
         <v>-0.36</v>
       </c>
-      <c r="Z54" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA54" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" s="22" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W54" t="s">
+        <v>21</v>
+      </c>
+      <c r="X54" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" s="22" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="20">
         <v>2010</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>70</v>
+        <v>134</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>390</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>20</v>
+        <v>143</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K55" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="L55" s="22">
-        <f>0.635*-1</f>
+        <v>283</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L55" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="M55" s="22">
         <v>-0.63500000000000001</v>
       </c>
-      <c r="M55" s="22">
-        <f>0.305*-1</f>
+      <c r="N55" s="22">
         <v>-0.30499999999999999</v>
       </c>
-      <c r="N55" s="22">
+      <c r="O55" s="51">
         <v>0.16675629580995099</v>
       </c>
-      <c r="O55" s="22">
+      <c r="P55" s="51">
         <v>0.19057862378280113</v>
       </c>
       <c r="Q55" s="22">
-        <f>SQRT(T55)*(0.5-0.1)/R55</f>
-        <v>0.19057862378280113</v>
+        <v>6</v>
       </c>
       <c r="R55" s="22">
-        <f>TINV(1-0.95,6-1)*2</f>
-        <v>5.1411636712726301</v>
+        <v>6</v>
       </c>
       <c r="S55" s="22">
-        <v>6</v>
-      </c>
-      <c r="T55" s="22">
-        <v>6</v>
-      </c>
-      <c r="U55" s="22">
         <v>3</v>
       </c>
-      <c r="AA55" s="29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" ht="213" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X55" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="213" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>2013</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>70</v>
+        <v>129</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>22</v>
+        <v>381</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="L56">
+        <v>189</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M56">
         <v>5.45</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>10.45</v>
       </c>
-      <c r="N56" s="5">
-        <f t="shared" ref="N56" si="8">(P56*(SQRT(S56)))</f>
+      <c r="O56" s="49">
         <v>1.62</v>
       </c>
-      <c r="O56" s="5">
-        <f t="shared" ref="O56" si="9">(Q56*(SQRT(T56)))</f>
+      <c r="P56" s="49">
         <v>7.7099999999999991</v>
       </c>
-      <c r="P56">
-        <v>0.54</v>
-      </c>
       <c r="Q56">
-        <v>2.57</v>
-      </c>
-      <c r="S56">
         <v>9</v>
       </c>
-      <c r="T56">
+      <c r="R56">
         <v>9</v>
       </c>
-      <c r="AA56" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="X56" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>1980</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="M57">
+        <v>22.45</v>
+      </c>
+      <c r="N57">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="O57" s="50">
+        <v>0.48926626286648645</v>
+      </c>
+      <c r="P57" s="50">
+        <v>0.62905662368548221</v>
+      </c>
+      <c r="Q57">
+        <v>10</v>
+      </c>
+      <c r="R57">
+        <v>10</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+      <c r="X57" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="L57">
-        <v>22.45</v>
-      </c>
-      <c r="M57">
-        <v>19.649999999999999</v>
-      </c>
-      <c r="N57">
-        <v>0.48926626286648645</v>
-      </c>
-      <c r="O57">
-        <v>0.62905662368548221</v>
-      </c>
-      <c r="Q57">
-        <f>SQRT(T57)*(22.9-22.2)/R57</f>
-        <v>0.48926626286648645</v>
-      </c>
-      <c r="R57">
-        <f>TINV(1-0.95,10-1)*2</f>
-        <v>4.5243143255964098</v>
-      </c>
-      <c r="S57">
-        <v>10</v>
-      </c>
-      <c r="T57">
-        <v>10</v>
-      </c>
-      <c r="U57">
-        <v>3</v>
-      </c>
-      <c r="AA57" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" s="22" customFormat="1" ht="103.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:24" s="22" customFormat="1" ht="88.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="20">
         <v>1987</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>127</v>
+        <v>172</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="I58" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L58" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="M58" s="22">
+        <v>-77.25</v>
+      </c>
+      <c r="N58" s="22">
+        <v>-117.55</v>
+      </c>
+      <c r="O58" s="52">
+        <v>37.085274705737312</v>
+      </c>
+      <c r="P58" s="52">
+        <v>33.851948245263522</v>
+      </c>
+      <c r="Q58" s="22">
+        <v>24</v>
+      </c>
+      <c r="R58" s="22">
+        <v>24</v>
+      </c>
+      <c r="S58" s="22">
+        <v>2</v>
+      </c>
+      <c r="X58" s="28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="29">
+        <v>1998</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K59" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L59" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="T59" s="31">
+        <v>-0.1</v>
+      </c>
+      <c r="U59" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="X59" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="31" customFormat="1" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="29">
+        <v>2012</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="K58" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="L58" s="22">
-        <f>77.25*-1</f>
-        <v>-77.25</v>
-      </c>
-      <c r="M58" s="22">
-        <f>117.55*-1</f>
-        <v>-117.55</v>
-      </c>
-      <c r="N58" s="24">
-        <f>(P58*(SQRT(S58)))</f>
-        <v>37.085274705737312</v>
-      </c>
-      <c r="O58" s="24">
-        <f>(Q58*(SQRT(T58)))</f>
-        <v>33.851948245263522</v>
-      </c>
-      <c r="P58" s="22">
-        <v>7.57</v>
-      </c>
-      <c r="Q58" s="22">
-        <v>6.91</v>
-      </c>
-      <c r="S58" s="22">
-        <v>24</v>
-      </c>
-      <c r="T58" s="22">
-        <v>24</v>
-      </c>
-      <c r="U58" s="22">
-        <v>2</v>
-      </c>
-      <c r="AA58" s="29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" s="32" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="30">
-        <v>1998</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="I59" s="31" t="s">
+      <c r="D60" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="K60" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L60" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="M60">
+        <v>-67.859950130000001</v>
+      </c>
+      <c r="N60">
+        <v>-24.040649080000001</v>
+      </c>
+      <c r="O60" s="50">
+        <v>86.879081420000006</v>
+      </c>
+      <c r="P60" s="50">
+        <v>34.964740970000001</v>
+      </c>
+      <c r="R60" s="31">
         <v>20</v>
       </c>
-      <c r="J59" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K59" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="W59" s="32">
-        <v>-0.1</v>
-      </c>
-      <c r="X59" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA59" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" s="32" customFormat="1" ht="174" x14ac:dyDescent="0.35">
-      <c r="A60" s="30">
-        <v>2012</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="H60" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="I60" s="31" t="s">
+      <c r="T60" s="31">
+        <v>-0.43</v>
+      </c>
+      <c r="U60" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="X60" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" s="34" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="32">
+        <v>1982</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K60" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="L60">
-        <f>67.85995013*-1</f>
-        <v>-67.859950130000001</v>
-      </c>
-      <c r="M60">
-        <f>24.04064908*-1</f>
-        <v>-24.040649080000001</v>
-      </c>
-      <c r="N60">
-        <v>86.879081420000006</v>
-      </c>
-      <c r="O60">
-        <v>34.964740970000001</v>
-      </c>
-      <c r="T60" s="32">
+      <c r="D61" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J61" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="L61" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="M61" s="34">
+        <v>84</v>
+      </c>
+      <c r="N61" s="34">
+        <v>102</v>
+      </c>
+      <c r="O61" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="P61" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q61" s="34">
+        <v>4</v>
+      </c>
+      <c r="R61" s="34">
+        <v>4</v>
+      </c>
+      <c r="X61" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" s="34" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="32">
+        <v>1982</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W60" s="32">
-        <v>-0.43</v>
-      </c>
-      <c r="X60" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA60" s="37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" s="35" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A61" s="33">
-        <v>1982</v>
-      </c>
-      <c r="B61" s="34" t="s">
+      <c r="D62" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="L62" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="M62" s="34">
+        <v>32</v>
+      </c>
+      <c r="N62" s="34">
+        <v>23</v>
+      </c>
+      <c r="O62" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="P62" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q62" s="34">
+        <v>4</v>
+      </c>
+      <c r="R62" s="34">
+        <v>3</v>
+      </c>
+      <c r="X62" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="C61" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="I61" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="K61" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="L61" s="35">
-        <v>84</v>
-      </c>
-      <c r="M61" s="35">
-        <v>102</v>
-      </c>
-      <c r="N61" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="O61" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q61" s="35">
-        <f>SQRT(T61)*(135.66-68.34)/R61</f>
-        <v>21.153538360798382</v>
-      </c>
-      <c r="R61" s="35">
-        <f>TINV(1-0.95,4-1)*2</f>
-        <v>6.3648926105674155</v>
-      </c>
-      <c r="S61" s="35">
-        <v>4</v>
-      </c>
-      <c r="T61" s="35">
-        <v>4</v>
-      </c>
-      <c r="AA61" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" s="35" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A62" s="33">
-        <v>1982</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="I62" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="K62" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="L62" s="35">
-        <v>32</v>
-      </c>
-      <c r="M62" s="35">
-        <v>23</v>
-      </c>
-      <c r="N62" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="O62" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q62" s="35">
-        <f>SQRT(T62)*(24.61-21.39)/R62</f>
-        <v>1.2327179764718441</v>
-      </c>
-      <c r="R62" s="35">
-        <f>TINV(1-0.95,10-1)*2</f>
-        <v>4.5243143255964098</v>
-      </c>
-      <c r="S62" s="35">
-        <v>4</v>
-      </c>
-      <c r="T62" s="35">
-        <v>3</v>
-      </c>
-      <c r="AA62" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="13">
         <v>2021</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>5</v>
+        <v>392</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>11</v>
+        <v>402</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="15"/>
+        <v>126</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
@@ -7001,52 +6859,51 @@
       <c r="U63" s="15"/>
       <c r="V63" s="15"/>
       <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="X63" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="13">
         <v>2021</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>106</v>
+        <v>392</v>
       </c>
       <c r="F64" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G64" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="H64" s="14" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="I64" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J64" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="K64" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K64" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L64" s="15"/>
+      <c r="L64" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
@@ -7054,1172 +6911,1196 @@
       <c r="U64" s="15"/>
       <c r="V64" s="15"/>
       <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X64" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="13">
         <v>1994</v>
       </c>
       <c r="B65" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="J65" s="14" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="L65" s="15">
+        <v>126</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="M65" s="15">
         <v>6.7</v>
       </c>
-      <c r="M65" s="15">
+      <c r="N65" s="15">
         <v>16.8</v>
       </c>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="AA65" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="X65" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="13">
         <v>1994</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="J66" s="14" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="L66" s="15">
+        <v>126</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="M66" s="15">
         <v>6.7</v>
       </c>
-      <c r="M66" s="15">
+      <c r="N66" s="15">
         <v>16.8</v>
       </c>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="AA66" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="X66" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="13">
         <v>2014</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
       <c r="G67" s="14" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA67" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="X67" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="13">
         <v>2015</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="14" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA68" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="X68" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="13">
         <v>2010</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="14" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA69" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="X69" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="13">
         <v>2006</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L70" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="K70" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="T70" s="16">
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="R70" s="16">
         <v>68</v>
       </c>
-      <c r="AA70" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="X70" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="13">
         <v>2008</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="14" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA71" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" s="16" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="X71" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" s="16" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="13">
         <v>1993</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="14" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="J72" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K72" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA72" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="L72" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="O72" s="56"/>
+      <c r="P72" s="56"/>
+      <c r="X72" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="13">
         <v>2005</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="14" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>298</v>
+        <v>70</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA73" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O73" s="56"/>
+      <c r="P73" s="56"/>
+      <c r="X73" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="13">
         <v>1990</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="14" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="S74" s="16">
+        <v>125</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="16">
         <v>10</v>
       </c>
-      <c r="T74" s="16">
+      <c r="R74" s="16">
         <v>10</v>
       </c>
-      <c r="AA74" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="X74" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="13">
         <v>1990</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
       <c r="G75" s="14" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="S75" s="16">
+        <v>125</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="16">
         <v>10</v>
       </c>
-      <c r="T75" s="16">
+      <c r="R75" s="16">
         <v>10</v>
       </c>
-      <c r="AA75" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" s="16" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="X75" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" s="16" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="13">
         <v>1997</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
       <c r="G76" s="14" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I76" s="14" t="s">
-        <v>20</v>
+        <v>103</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K76" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA76" s="17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" s="16" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L76" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="X76" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" s="16" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="13">
         <v>1996</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="14" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K77" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA77" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L77" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="X77" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="13">
         <v>1991</v>
       </c>
       <c r="B78" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="J78" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K78" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA78" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" s="16" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L78" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O78" s="56"/>
+      <c r="P78" s="56"/>
+      <c r="X78" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="13">
         <v>1935</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
       <c r="G79" s="14" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I79" s="14" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K79" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA79" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" s="16" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L79" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="O79" s="56"/>
+      <c r="P79" s="56"/>
+      <c r="X79" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="13">
         <v>1935</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="14" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K80" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA80" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L80" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="X80" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="13">
         <v>1960</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K81" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA81" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L81" s="19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" s="16" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="O81" s="56"/>
+      <c r="P81" s="56"/>
+      <c r="X81" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" s="16" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="13">
         <v>1961</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D82" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K82" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA82" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" s="16" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="L82" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="X82" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="13">
         <v>1981</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>127</v>
+        <v>19</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="J83" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K83" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K83" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA83" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="L83" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="X83" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="13">
         <v>1968</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="J84" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K84" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K84" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA84" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="L84" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="X84" s="41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="13">
         <v>2006</v>
       </c>
       <c r="B85" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L85" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K85" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA85" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" s="16" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="X85" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" s="16" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="13">
         <v>1978</v>
       </c>
       <c r="B86" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L86" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="X86" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="24">
+        <v>2012</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K87" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="L87" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="O87" s="57"/>
+      <c r="P87" s="57"/>
+      <c r="X87" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="24">
+        <v>2012</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J88" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K88" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="L88" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J86" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA86" s="17" t="s">
+      <c r="O88" s="57"/>
+      <c r="P88" s="57"/>
+      <c r="X88" s="38" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="27" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="25">
-        <v>2012</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="C87" s="26" t="s">
+    <row r="89" spans="1:24" s="26" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="24">
+        <v>2014</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J89" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K89" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L89" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="O89" s="57"/>
+      <c r="P89" s="57"/>
+      <c r="X89" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" s="26" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="24">
+        <v>2018</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J90" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K90" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L90" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="O90" s="57"/>
+      <c r="P90" s="57"/>
+      <c r="X90" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" s="26" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="24">
+        <v>2013</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J91" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K91" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L91" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="O91" s="57"/>
+      <c r="P91" s="57"/>
+      <c r="X91" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="24">
+        <v>2007</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J92" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="K92" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L92" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="O92" s="57"/>
+      <c r="P92" s="57"/>
+      <c r="Q92" s="26">
+        <v>3</v>
+      </c>
+      <c r="R92" s="26">
+        <v>3</v>
+      </c>
+      <c r="S92" s="26">
         <v>8</v>
       </c>
-      <c r="D87" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" s="26" t="s">
+      <c r="X92" s="38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="24">
+        <v>2007</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G87" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H87" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="I87" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J87" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K87" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA87" s="39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A88" s="25">
-        <v>2012</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="C88" s="26" t="s">
+      <c r="D93" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J93" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K93" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L93" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="O93" s="57"/>
+      <c r="P93" s="57"/>
+      <c r="Q93" s="26">
+        <v>3</v>
+      </c>
+      <c r="R93" s="26">
+        <v>3</v>
+      </c>
+      <c r="S93" s="26">
         <v>8</v>
       </c>
-      <c r="D88" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="G88" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="I88" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J88" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K88" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA88" s="39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" s="27" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="25">
-        <v>2014</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="I89" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="K89" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA89" s="28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" s="27" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F90" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H90" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="I90" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J90" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="K90" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA90" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" s="27" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A91" s="25">
-        <v>2013</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="H91" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="I91" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J91" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K91" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA91" s="39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A92" s="25">
-        <v>2007</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H92" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="I92" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J92" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K92" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="S92" s="27">
-        <v>3</v>
-      </c>
-      <c r="T92" s="27">
-        <v>3</v>
-      </c>
-      <c r="U92" s="27">
-        <v>8</v>
-      </c>
-      <c r="AA92" s="39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" s="27" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="25">
-        <v>2007</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="H93" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="I93" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J93" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K93" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="S93" s="27">
-        <v>3</v>
-      </c>
-      <c r="T93" s="27">
-        <v>3</v>
-      </c>
-      <c r="U93" s="27">
-        <v>8</v>
-      </c>
-      <c r="AA93" s="39" t="s">
-        <v>251</v>
+      <c r="X93" s="38" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA93" xr:uid="{BF1C84BB-F2CC-42C6-A1BF-21ED272783EE}"/>
+  <autoFilter ref="A1:X93" xr:uid="{BF1C84BB-F2CC-42C6-A1BF-21ED272783EE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Hedges.xlsx
+++ b/Hedges.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88747f93bb6c7eaf/Documents/Postdoc UBC/Interactions paper/meta-analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88747f93bb6c7eaf/Documents/Postdoc UBC/Interactions paper/meta-analysis/interactions_salmonids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2793" documentId="13_ncr:1_{3BF83E3E-61C9-45E5-BF17-F43AA12D13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CC0FB23-9C2E-40BC-AB04-E9CA9BF0DF77}"/>
+  <xr:revisionPtr revIDLastSave="2867" documentId="13_ncr:1_{3BF83E3E-61C9-45E5-BF17-F43AA12D13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82E58D35-53C2-4B69-9CCE-761F334ABD8A}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="11136" xr2:uid="{22809DD5-28F5-466E-A34A-A41D36053B95}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="412">
   <si>
     <t>Description</t>
   </si>
@@ -2245,9 +2245,6 @@
     <t>Farm</t>
   </si>
   <si>
-    <t>Britanny, FR</t>
-  </si>
-  <si>
     <t>River</t>
   </si>
   <si>
@@ -2279,6 +2276,36 @@
   </si>
   <si>
     <t>Haíɫzaqv Nation, CA</t>
+  </si>
+  <si>
+    <t>Oregon. USA</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>British Columbia, CA</t>
+  </si>
+  <si>
+    <t>Montana, USA</t>
+  </si>
+  <si>
+    <t>Herbert and Shurben, 1964</t>
+  </si>
+  <si>
+    <t>Amonia</t>
+  </si>
+  <si>
+    <t>Herbert, D.W.M. and Surben, D.S. (1964), The toxicity to fish of mixtures of poisons. Annals of Applied Biology, 53: 33-41. https://doi.org/10.1111/j.1744-7348.1964.tb03778.x</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
 </sst>
 </file>
@@ -2383,7 +2410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2534,6 +2561,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,10 +2579,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2852,11 +2878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1C84BB-F2CC-42C6-A1BF-21ED272783EE}">
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5376,7 +5402,7 @@
         <v>390</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>19</v>
@@ -5441,7 +5467,7 @@
         <v>134</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>377</v>
@@ -5518,7 +5544,7 @@
         <v>390</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>19</v>
@@ -5592,7 +5618,7 @@
         <v>382</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>19</v>
@@ -5651,7 +5677,7 @@
         <v>373</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>19</v>
@@ -5781,7 +5807,7 @@
         <v>390</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>19</v>
@@ -5985,7 +6011,7 @@
         <v>373</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>19</v>
@@ -6032,7 +6058,7 @@
         <v>1992</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -6103,7 +6129,7 @@
         <v>390</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>19</v>
@@ -6162,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>19</v>
@@ -6475,7 +6501,7 @@
         <v>373</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>19</v>
@@ -6537,7 +6563,7 @@
         <v>373</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>19</v>
@@ -6648,7 +6674,7 @@
         <v>382</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G60" s="30" t="s">
         <v>19</v>
@@ -6825,10 +6851,10 @@
         <v>172</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>16</v>
@@ -6877,7 +6903,7 @@
         <v>123</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>368</v>
@@ -7026,8 +7052,12 @@
       <c r="D67" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="E67" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="G67" s="14" t="s">
         <v>19</v>
       </c>
@@ -7065,8 +7095,12 @@
       <c r="D68" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="E68" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="G68" s="14" t="s">
         <v>19</v>
       </c>
@@ -7104,8 +7138,12 @@
       <c r="D69" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="E69" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>394</v>
+      </c>
       <c r="G69" s="14" t="s">
         <v>16</v>
       </c>
@@ -7143,8 +7181,12 @@
       <c r="D70" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="E70" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>393</v>
+      </c>
       <c r="G70" s="14" t="s">
         <v>19</v>
       </c>
@@ -7185,8 +7227,12 @@
       <c r="D71" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="E71" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>403</v>
+      </c>
       <c r="G71" s="14" t="s">
         <v>19</v>
       </c>
@@ -7224,8 +7270,12 @@
       <c r="D72" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="E72" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>404</v>
+      </c>
       <c r="G72" s="14" t="s">
         <v>16</v>
       </c>
@@ -7263,8 +7313,12 @@
       <c r="D73" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="E73" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="G73" s="14" t="s">
         <v>293</v>
       </c>
@@ -7302,8 +7356,12 @@
       <c r="D74" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="E74" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>377</v>
+      </c>
       <c r="G74" s="14" t="s">
         <v>19</v>
       </c>
@@ -7347,8 +7405,12 @@
       <c r="D75" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="E75" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>368</v>
+      </c>
       <c r="G75" s="14" t="s">
         <v>19</v>
       </c>
@@ -7392,8 +7454,12 @@
       <c r="D76" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="E76" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>405</v>
+      </c>
       <c r="G76" s="14" t="s">
         <v>19</v>
       </c>
@@ -7431,8 +7497,12 @@
       <c r="D77" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="E77" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>383</v>
+      </c>
       <c r="G77" s="14" t="s">
         <v>19</v>
       </c>
@@ -7470,8 +7540,12 @@
       <c r="D78" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="E78" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>406</v>
+      </c>
       <c r="G78" s="14" t="s">
         <v>19</v>
       </c>
@@ -7509,8 +7583,12 @@
       <c r="D79" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="E79" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="G79" s="14" t="s">
         <v>16</v>
       </c>
@@ -7548,8 +7626,12 @@
       <c r="D80" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="E80" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="G80" s="14" t="s">
         <v>16</v>
       </c>
@@ -7587,8 +7669,12 @@
       <c r="D81" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="E81" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="G81" s="14" t="s">
         <v>19</v>
       </c>
@@ -7626,8 +7712,12 @@
       <c r="D82" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="E82" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="G82" s="14" t="s">
         <v>19</v>
       </c>
@@ -7665,8 +7755,12 @@
       <c r="D83" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="E83" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="G83" s="14" t="s">
         <v>19</v>
       </c>
@@ -7704,8 +7798,12 @@
       <c r="D84" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+      <c r="E84" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="G84" s="14" t="s">
         <v>19</v>
       </c>
@@ -7743,8 +7841,12 @@
       <c r="D85" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="E85" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="G85" s="14" t="s">
         <v>19</v>
       </c>
@@ -7782,8 +7884,12 @@
       <c r="D86" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+      <c r="E86" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>383</v>
+      </c>
       <c r="G86" s="14" t="s">
         <v>19</v>
       </c>
@@ -7821,8 +7927,12 @@
       <c r="D87" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
+      <c r="E87" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>411</v>
+      </c>
       <c r="G87" s="25" t="s">
         <v>19</v>
       </c>
@@ -7860,8 +7970,12 @@
       <c r="D88" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
+      <c r="E88" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>411</v>
+      </c>
       <c r="G88" s="25" t="s">
         <v>19</v>
       </c>
@@ -7899,8 +8013,12 @@
       <c r="D89" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
+      <c r="E89" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>381</v>
+      </c>
       <c r="G89" s="25" t="s">
         <v>19</v>
       </c>
@@ -7938,8 +8056,12 @@
       <c r="D90" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
+      <c r="E90" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>381</v>
+      </c>
       <c r="G90" s="25" t="s">
         <v>19</v>
       </c>
@@ -7977,8 +8099,12 @@
       <c r="D91" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
+      <c r="E91" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>381</v>
+      </c>
       <c r="G91" s="25" t="s">
         <v>19</v>
       </c>
@@ -8016,8 +8142,12 @@
       <c r="D92" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
+      <c r="E92" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>381</v>
+      </c>
       <c r="G92" s="25" t="s">
         <v>19</v>
       </c>
@@ -8064,8 +8194,12 @@
       <c r="D93" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
+      <c r="E93" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>381</v>
+      </c>
       <c r="G93" s="25" t="s">
         <v>19</v>
       </c>
@@ -8097,6 +8231,41 @@
       </c>
       <c r="X93" s="38" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B94" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="C94" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G94" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X94" s="8" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/Hedges.xlsx
+++ b/Hedges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88747f93bb6c7eaf/Documents/Postdoc UBC/Interactions paper/meta-analysis/interactions_salmonids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2867" documentId="13_ncr:1_{3BF83E3E-61C9-45E5-BF17-F43AA12D13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82E58D35-53C2-4B69-9CCE-761F334ABD8A}"/>
+  <xr:revisionPtr revIDLastSave="2882" documentId="13_ncr:1_{3BF83E3E-61C9-45E5-BF17-F43AA12D13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035D1424-52DC-4650-8ED9-8D1139DCEA62}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="11136" xr2:uid="{22809DD5-28F5-466E-A34A-A41D36053B95}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Hedges" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hedges!$A$1:$X$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hedges!$A$1:$U$94</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Hedges!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="404">
   <si>
     <t>Description</t>
   </si>
@@ -58,9 +59,6 @@
     <t>Deleterious effects of high temperature are reduced by high contents of DO</t>
   </si>
   <si>
-    <t>Antagonism</t>
-  </si>
-  <si>
     <t>Rainbow trout (Oncorhynchus mykiss)</t>
   </si>
   <si>
@@ -70,9 +68,6 @@
     <t>Critical thermal maximum decreased with hypoxia</t>
   </si>
   <si>
-    <t>Synergistic</t>
-  </si>
-  <si>
     <t>Atlantic salmon (Salmo salar)</t>
   </si>
   <si>
@@ -101,9 +96,6 @@
   </si>
   <si>
     <t>Chinook salmon (Oncorhynchus tshawytscha)</t>
-  </si>
-  <si>
-    <t>Additive</t>
   </si>
   <si>
     <t>Projection</t>
@@ -820,9 +812,6 @@
     <t>Temperature increased toxicity of used pesticides</t>
   </si>
   <si>
-    <t>Sokolova IM,  Lannig G. Interactive effects of metal pollution and temperature on metabolism in aquatic ectotherms: implications of global climate change, Clim Res, 2008, vol. 37 (pg. 181-201)</t>
-  </si>
-  <si>
     <t>Exposure to Ni leds to a reduction in CTmax and the upper lethal temperature limit</t>
   </si>
   <si>
@@ -1850,18 +1839,6 @@
     <t>High temperature and high nitrate develop in cross-tolerance (they reported as a synergism)</t>
   </si>
   <si>
-    <t>Reported (Hedges d) Jackson et al. 2015</t>
-  </si>
-  <si>
-    <t>Reported Interaction  (Jackson et al. 2015)</t>
-  </si>
-  <si>
-    <t>Reported (Hedges d) Matthaei and Lange 2015</t>
-  </si>
-  <si>
-    <t>Reported Interaction  (Matthaei and Lange)</t>
-  </si>
-  <si>
     <t>High temperatures interplays with population density (nutrien limitation = NL) and results in a reduction growth.</t>
   </si>
   <si>
@@ -2101,9 +2078,6 @@
     <t>Al + Cd may work antagonistic to and counteract the early molecular responses to intermediate doses of g-irradiation by reducing the transcriptional effects of the g-irradiation in fish exposed to a combination of metals and radiation. Data from Glutathion reductasa in fig. 1</t>
   </si>
   <si>
-    <t>Nilse et al. 2013</t>
-  </si>
-  <si>
     <t>Sustained elevated plasma glucose levels post transfer to good water quality implies that smolts were stressed for days and weeks after experiencing acid/Al episodes, which may lead to depletion of readily available energy required for coping successfully with physiological and ecological challenges during the early marine phase</t>
   </si>
   <si>
@@ -2306,6 +2280,9 @@
   </si>
   <si>
     <t>Turkey</t>
+  </si>
+  <si>
+    <t>Nilsen et al. 2013</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2561,9 +2538,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2579,6 +2553,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2878,11 +2856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1C84BB-F2CC-42C6-A1BF-21ED272783EE}">
-  <dimension ref="A1:X94"/>
+  <dimension ref="A1:U211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2901,119 +2879,104 @@
     <col min="15" max="16" width="11.5234375" style="50" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5234375" customWidth="1"/>
     <col min="19" max="19" width="10.15625" customWidth="1"/>
-    <col min="20" max="21" width="11.15625" customWidth="1"/>
-    <col min="22" max="22" width="15.15625" customWidth="1"/>
-    <col min="23" max="23" width="13.47265625" customWidth="1"/>
-    <col min="24" max="24" width="162" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="162" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>5</v>
@@ -3039,46 +3002,46 @@
       <c r="S2" s="5">
         <v>3</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T2" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3">
         <v>29.75</v>
@@ -3098,46 +3061,46 @@
       <c r="R3">
         <v>15</v>
       </c>
-      <c r="X3" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T3" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" s="5">
         <v>28</v>
@@ -3157,46 +3120,46 @@
       <c r="R4">
         <v>15</v>
       </c>
-      <c r="X4" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T4" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2015</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M5" s="5">
         <v>27.3</v>
@@ -3216,46 +3179,46 @@
       <c r="R5">
         <v>15</v>
       </c>
-      <c r="X5" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T5" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M6" s="5">
         <v>26.57</v>
@@ -3275,46 +3238,46 @@
       <c r="R6">
         <v>15</v>
       </c>
-      <c r="X6" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T6" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M7" s="5">
         <v>5.79</v>
@@ -3337,58 +3300,46 @@
       <c r="S7" s="5">
         <v>6</v>
       </c>
-      <c r="T7" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="U7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7" s="5">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="W7" t="s">
-        <v>21</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T7" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>2009</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M8">
         <v>14.7</v>
@@ -3408,46 +3359,46 @@
       <c r="R8">
         <v>8</v>
       </c>
-      <c r="X8" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T8" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M9" s="5">
         <v>420</v>
@@ -3470,46 +3421,46 @@
       <c r="S9" s="5">
         <v>2</v>
       </c>
-      <c r="X9" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T9" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>2014</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M10" s="5">
         <v>98.2</v>
@@ -3532,46 +3483,46 @@
       <c r="S10">
         <v>3</v>
       </c>
-      <c r="X10" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T10" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M11" s="5">
         <v>1148</v>
@@ -3594,46 +3545,46 @@
       <c r="S11">
         <v>3</v>
       </c>
-      <c r="X11" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T11" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1980</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M12" s="5">
         <v>143.5</v>
@@ -3656,46 +3607,46 @@
       <c r="S12">
         <v>4</v>
       </c>
-      <c r="X12" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T12" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1980</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M13" s="5">
         <v>193.82</v>
@@ -3718,46 +3669,46 @@
       <c r="S13">
         <v>7</v>
       </c>
-      <c r="X13" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T13" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>2007</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M14" s="5">
         <v>30.67</v>
@@ -3780,46 +3731,46 @@
       <c r="S14">
         <v>2</v>
       </c>
-      <c r="X14" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T14" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>2014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M15">
         <v>96.36</v>
@@ -3842,46 +3793,46 @@
       <c r="S15">
         <v>3</v>
       </c>
-      <c r="X15" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T15" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>2001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M16">
         <v>10.35</v>
@@ -3901,46 +3852,46 @@
       <c r="R16">
         <v>7</v>
       </c>
-      <c r="X16" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T16" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1990</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M17">
         <v>31.9</v>
@@ -3960,46 +3911,46 @@
       <c r="R17">
         <v>10</v>
       </c>
-      <c r="X17" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T17" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>2007</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M18">
         <v>1.1200000000000001</v>
@@ -4022,46 +3973,46 @@
       <c r="S18">
         <v>2</v>
       </c>
-      <c r="X18" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T18" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="20">
         <v>2009</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M19" s="22">
         <v>-5.2</v>
@@ -4081,46 +4032,46 @@
       <c r="R19" s="22">
         <v>8</v>
       </c>
-      <c r="X19" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T19" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>2011</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M20">
         <v>67.3</v>
@@ -4143,46 +4094,46 @@
       <c r="S20">
         <v>3</v>
       </c>
-      <c r="X20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T20" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>2001</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M21">
         <v>69.91</v>
@@ -4205,46 +4156,46 @@
       <c r="S21">
         <v>3</v>
       </c>
-      <c r="X21" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="22" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T21" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="22" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="20">
         <v>2007</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M22" s="22">
         <v>-1.71</v>
@@ -4267,46 +4218,46 @@
       <c r="S22" s="22">
         <v>3</v>
       </c>
-      <c r="X22" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T22" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="20">
         <v>2007</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M23" s="22">
         <v>-1.82</v>
@@ -4329,46 +4280,46 @@
       <c r="S23" s="22">
         <v>3</v>
       </c>
-      <c r="X23" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T23" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>2006</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M24">
         <v>30.7</v>
@@ -4388,46 +4339,46 @@
       <c r="R24">
         <v>5</v>
       </c>
-      <c r="X24" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T24" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="20">
         <v>2021</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M25" s="22">
         <v>-2.33</v>
@@ -4450,46 +4401,46 @@
       <c r="S25" s="22">
         <v>4</v>
       </c>
-      <c r="X25" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T25" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>2021</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M26">
         <v>29.23</v>
@@ -4512,46 +4463,46 @@
       <c r="S26">
         <v>4</v>
       </c>
-      <c r="X26" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T26" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>2022</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M27">
         <v>28.1</v>
@@ -4571,46 +4522,46 @@
       <c r="R27">
         <v>9</v>
       </c>
-      <c r="X27" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T27" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>2022</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M28">
         <v>28.08</v>
@@ -4630,46 +4581,46 @@
       <c r="R28">
         <v>10</v>
       </c>
-      <c r="X28" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T28" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M29">
         <v>53.99</v>
@@ -4692,46 +4643,46 @@
       <c r="S29">
         <v>4</v>
       </c>
-      <c r="X29" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T29" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20">
         <v>2011</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L30" s="42" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M30" s="22">
         <v>-46.04</v>
@@ -4754,58 +4705,46 @@
       <c r="S30" s="22">
         <v>3</v>
       </c>
-      <c r="T30" s="22">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="U30" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="V30" s="22">
-        <v>-0.44</v>
-      </c>
-      <c r="W30" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="X30" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T30" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1997</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M31">
         <v>37.64</v>
@@ -4828,58 +4767,46 @@
       <c r="S31">
         <v>3</v>
       </c>
-      <c r="T31">
-        <v>-0.69</v>
-      </c>
-      <c r="U31" t="s">
-        <v>6</v>
-      </c>
-      <c r="V31">
-        <v>-1.46</v>
-      </c>
-      <c r="W31" t="s">
-        <v>21</v>
-      </c>
-      <c r="X31" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" s="22" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T31" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="22" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20">
         <v>1998</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M32" s="22">
         <v>-281.2</v>
@@ -4902,52 +4829,46 @@
       <c r="S32" s="22">
         <v>3</v>
       </c>
-      <c r="T32" s="22">
-        <v>0.36</v>
-      </c>
-      <c r="U32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="X32" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T32" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20">
         <v>1998</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M33" s="22">
         <v>-3.45</v>
@@ -4970,58 +4891,46 @@
       <c r="S33" s="22">
         <v>5</v>
       </c>
-      <c r="T33" s="22">
-        <v>0.98</v>
-      </c>
-      <c r="U33" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="V33" s="22">
-        <v>1.69</v>
-      </c>
-      <c r="W33" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="X33" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T33" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>2003</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M34">
         <v>42.71</v>
@@ -5044,58 +4953,46 @@
       <c r="S34">
         <v>3</v>
       </c>
-      <c r="T34">
-        <v>-2.87</v>
-      </c>
-      <c r="U34" t="s">
-        <v>6</v>
-      </c>
-      <c r="V34">
-        <v>-2.21</v>
-      </c>
-      <c r="W34" t="s">
-        <v>6</v>
-      </c>
-      <c r="X34" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T34" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="20">
         <v>1997</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>4</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M35" s="22">
         <v>-78.08</v>
@@ -5118,52 +5015,46 @@
       <c r="S35" s="22">
         <v>3</v>
       </c>
-      <c r="T35" s="22">
-        <v>-0.16</v>
-      </c>
-      <c r="U35" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="X35" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T35" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1973</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M36">
         <v>77.5</v>
@@ -5183,46 +5074,46 @@
       <c r="R36">
         <v>15</v>
       </c>
-      <c r="X36" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" s="22" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T36" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="22" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="20">
         <v>1997</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>4</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L37" s="37" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M37" s="22">
         <v>-177.85</v>
@@ -5245,58 +5136,46 @@
       <c r="S37" s="22">
         <v>3</v>
       </c>
-      <c r="T37" s="22">
-        <v>-0.74</v>
-      </c>
-      <c r="U37" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="V37" s="22">
-        <v>-0.74</v>
-      </c>
-      <c r="W37" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="X37" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T37" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>2002</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M38">
         <v>17.25</v>
@@ -5319,46 +5198,46 @@
       <c r="S38">
         <v>3</v>
       </c>
-      <c r="X38" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T38" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>2005</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="J39" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="M39">
         <v>66.400000000000006</v>
@@ -5381,46 +5260,46 @@
       <c r="S39">
         <v>2</v>
       </c>
-      <c r="X39" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T39" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>2008</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M40">
         <v>465.01</v>
@@ -5443,52 +5322,46 @@
       <c r="S40">
         <v>2</v>
       </c>
-      <c r="V40">
-        <v>2.08</v>
-      </c>
-      <c r="W40" t="s">
-        <v>6</v>
-      </c>
-      <c r="X40" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" s="22" customFormat="1" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="T40" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="22" customFormat="1" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="20">
         <v>2002</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>4</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L41" s="37" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M41" s="22">
         <v>-12.08</v>
@@ -5511,58 +5384,46 @@
       <c r="S41" s="22">
         <v>3</v>
       </c>
-      <c r="T41" s="22">
-        <v>-0.78</v>
-      </c>
-      <c r="U41" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="V41" s="22">
-        <v>-0.9</v>
-      </c>
-      <c r="W41" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="X41" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="T41" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>2011</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M42">
         <v>42.7</v>
@@ -5585,58 +5446,46 @@
       <c r="S42">
         <v>3</v>
       </c>
-      <c r="T42">
-        <v>-0.5</v>
-      </c>
-      <c r="U42" t="s">
-        <v>6</v>
-      </c>
-      <c r="V42">
-        <v>0.49</v>
-      </c>
-      <c r="W42" t="s">
-        <v>21</v>
-      </c>
-      <c r="X42" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T42" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>2009</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M43">
         <v>19.04</v>
@@ -5656,46 +5505,46 @@
       <c r="R43">
         <v>10</v>
       </c>
-      <c r="X43" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T43" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>2007</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M44">
         <v>11.6</v>
@@ -5718,52 +5567,46 @@
       <c r="S44">
         <v>2</v>
       </c>
-      <c r="V44">
-        <v>-0.2</v>
-      </c>
-      <c r="W44" t="s">
-        <v>21</v>
-      </c>
-      <c r="X44" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T44" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="20">
         <v>2005</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M45" s="22">
         <v>0</v>
@@ -5786,46 +5629,46 @@
       <c r="S45" s="22">
         <v>2</v>
       </c>
-      <c r="X45" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T45" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>2011</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M46">
         <v>0.95</v>
@@ -5848,52 +5691,46 @@
       <c r="S46">
         <v>3</v>
       </c>
-      <c r="V46">
-        <v>0.48</v>
-      </c>
-      <c r="W46" t="s">
-        <v>21</v>
-      </c>
-      <c r="X46" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T46" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>2005</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M47">
         <v>14.61</v>
@@ -5916,52 +5753,46 @@
       <c r="S47">
         <v>3</v>
       </c>
-      <c r="V47">
-        <v>-0.41</v>
-      </c>
-      <c r="W47" t="s">
-        <v>21</v>
-      </c>
-      <c r="X47" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T47" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="20">
         <v>1998</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H48" s="21" t="s">
         <v>4</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M48" s="22">
         <v>-30.7</v>
@@ -5984,52 +5815,46 @@
       <c r="S48" s="22">
         <v>5</v>
       </c>
-      <c r="T48" s="22">
-        <v>0.95</v>
-      </c>
-      <c r="U48" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="X48" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T48" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1994</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M49">
         <v>19.05</v>
@@ -6049,46 +5874,46 @@
       <c r="R49">
         <v>8</v>
       </c>
-      <c r="X49" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T49" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1992</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M50">
         <v>29.44</v>
@@ -6108,46 +5933,46 @@
       <c r="R50">
         <v>8</v>
       </c>
-      <c r="X50" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T50" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>2018</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="L51" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M51">
         <v>471.35659760087231</v>
@@ -6167,46 +5992,46 @@
       <c r="R51">
         <v>7</v>
       </c>
-      <c r="X51" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" s="22" customFormat="1" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T51" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="22" customFormat="1" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="20">
         <v>1992</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E52" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="F52" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>399</v>
-      </c>
       <c r="G52" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I52" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L52" s="37" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M52" s="22">
         <v>-5.96</v>
@@ -6226,46 +6051,46 @@
       <c r="R52" s="22">
         <v>14</v>
       </c>
-      <c r="X52" s="28" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T52" s="28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>2008</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M53">
         <v>76.89</v>
@@ -6285,46 +6110,46 @@
       <c r="R53">
         <v>5</v>
       </c>
-      <c r="X53" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="195.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T53" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="195.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1998</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M54">
         <v>44.5</v>
@@ -6347,58 +6172,46 @@
       <c r="S54">
         <v>4</v>
       </c>
-      <c r="T54">
-        <v>-0.42</v>
-      </c>
-      <c r="U54" t="s">
-        <v>6</v>
-      </c>
-      <c r="V54">
-        <v>-0.36</v>
-      </c>
-      <c r="W54" t="s">
-        <v>21</v>
-      </c>
-      <c r="X54" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" s="22" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T54" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="22" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="20">
         <v>2010</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L55" s="37" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M55" s="22">
         <v>-0.63500000000000001</v>
@@ -6421,46 +6234,46 @@
       <c r="S55" s="22">
         <v>3</v>
       </c>
-      <c r="X55" s="28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="213" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T55" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="213" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>2013</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M56">
         <v>5.45</v>
@@ -6480,46 +6293,46 @@
       <c r="R56">
         <v>9</v>
       </c>
-      <c r="X56" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T56" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>1980</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="M57">
         <v>22.45</v>
@@ -6542,46 +6355,46 @@
       <c r="S57">
         <v>3</v>
       </c>
-      <c r="X57" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" s="22" customFormat="1" ht="88.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T57" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="22" customFormat="1" ht="88.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="20">
         <v>1987</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L58" s="37" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M58" s="22">
         <v>-77.25</v>
@@ -6604,95 +6417,89 @@
       <c r="S58" s="22">
         <v>2</v>
       </c>
-      <c r="X58" s="28" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T58" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="29">
         <v>1998</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H59" s="30" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J59" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K59" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L59" s="30" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O59" s="53"/>
       <c r="P59" s="53"/>
-      <c r="T59" s="31">
-        <v>-0.1</v>
-      </c>
-      <c r="U59" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="X59" s="39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" s="31" customFormat="1" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T59" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="31" customFormat="1" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="29">
         <v>2012</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H60" s="30" t="s">
         <v>4</v>
       </c>
       <c r="I60" s="30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J60" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K60" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L60" s="44" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M60">
         <v>-67.859950130000001</v>
@@ -6709,52 +6516,46 @@
       <c r="R60" s="31">
         <v>20</v>
       </c>
-      <c r="T60" s="31">
-        <v>-0.43</v>
-      </c>
-      <c r="U60" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="X60" s="36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" s="34" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T60" s="36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="34" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="32">
         <v>1982</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K61" s="33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L61" s="43" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M61" s="34">
         <v>84</v>
@@ -6763,10 +6564,10 @@
         <v>102</v>
       </c>
       <c r="O61" s="54" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P61" s="54" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="Q61" s="34">
         <v>4</v>
@@ -6774,46 +6575,46 @@
       <c r="R61" s="34">
         <v>4</v>
       </c>
-      <c r="X61" s="35" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" s="34" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T61" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="34" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="32">
         <v>1982</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J62" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K62" s="33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L62" s="43" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M62" s="34">
         <v>32</v>
@@ -6822,10 +6623,10 @@
         <v>23</v>
       </c>
       <c r="O62" s="54" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="P62" s="54" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="Q62" s="34">
         <v>4</v>
@@ -6833,46 +6634,46 @@
       <c r="R62" s="34">
         <v>3</v>
       </c>
-      <c r="X62" s="35" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T62" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="13">
         <v>2021</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I63" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
@@ -6881,50 +6682,46 @@
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T63" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="13">
         <v>2021</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
@@ -6933,50 +6730,46 @@
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T64" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="13">
         <v>1994</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M65" s="15">
         <v>6.7</v>
@@ -6986,46 +6779,46 @@
       </c>
       <c r="O65" s="55"/>
       <c r="P65" s="55"/>
-      <c r="X65" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T65" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="13">
         <v>1994</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M66" s="15">
         <v>6.7</v>
@@ -7035,350 +6828,350 @@
       </c>
       <c r="O66" s="55"/>
       <c r="P66" s="55"/>
-      <c r="X66" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T66" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="13">
         <v>2014</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O67" s="56"/>
       <c r="P67" s="56"/>
-      <c r="X67" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T67" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="13">
         <v>2015</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O68" s="56"/>
       <c r="P68" s="56"/>
-      <c r="X68" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T68" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="13">
         <v>2010</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O69" s="56"/>
       <c r="P69" s="56"/>
-      <c r="X69" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T69" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="13">
         <v>2006</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O70" s="56"/>
       <c r="P70" s="56"/>
       <c r="R70" s="16">
         <v>68</v>
       </c>
-      <c r="X70" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T70" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="13">
         <v>2008</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L71" s="14" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="O71" s="56"/>
       <c r="P71" s="56"/>
-      <c r="X71" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" s="16" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T71" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" s="16" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="13">
         <v>1993</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L72" s="45" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O72" s="56"/>
       <c r="P72" s="56"/>
-      <c r="X72" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T72" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="13">
         <v>2005</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O73" s="56"/>
       <c r="P73" s="56"/>
-      <c r="X73" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T73" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="13">
         <v>1990</v>
       </c>
       <c r="B74" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="I74" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O74" s="56"/>
       <c r="P74" s="56"/>
@@ -7388,46 +7181,46 @@
       <c r="R74" s="16">
         <v>10</v>
       </c>
-      <c r="X74" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T74" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="13">
         <v>1990</v>
       </c>
       <c r="B75" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="I75" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L75" s="14" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O75" s="56"/>
       <c r="P75" s="56"/>
@@ -7437,734 +7230,734 @@
       <c r="R75" s="16">
         <v>10</v>
       </c>
-      <c r="X75" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" s="16" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T75" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="16" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="13">
         <v>1997</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L76" s="45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O76" s="56"/>
       <c r="P76" s="56"/>
-      <c r="X76" s="17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" s="16" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T76" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" s="16" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="13">
         <v>1996</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L77" s="45" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O77" s="56"/>
       <c r="P77" s="56"/>
-      <c r="X77" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T77" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="13">
         <v>1991</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O78" s="56"/>
       <c r="P78" s="56"/>
-      <c r="X78" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T78" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="13">
         <v>1935</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L79" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O79" s="56"/>
       <c r="P79" s="56"/>
-      <c r="X79" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T79" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="13">
         <v>1935</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L80" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O80" s="56"/>
       <c r="P80" s="56"/>
-      <c r="X80" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T80" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="13">
         <v>1960</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O81" s="56"/>
       <c r="P81" s="56"/>
-      <c r="X81" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" s="16" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T81" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="16" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="13">
         <v>1961</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L82" s="45" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O82" s="56"/>
       <c r="P82" s="56"/>
-      <c r="X82" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T82" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="13">
         <v>1981</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O83" s="56"/>
       <c r="P83" s="56"/>
-      <c r="X83" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T83" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="13">
         <v>1968</v>
       </c>
       <c r="B84" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L84" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J84" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K84" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L84" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="O84" s="56"/>
       <c r="P84" s="56"/>
-      <c r="X84" s="41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="T84" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="13">
         <v>2006</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I85" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J85" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="J85" s="14" t="s">
-        <v>166</v>
-      </c>
       <c r="K85" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O85" s="56"/>
       <c r="P85" s="56"/>
-      <c r="X85" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" s="16" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T85" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="16" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="13">
         <v>1978</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="O86" s="56"/>
       <c r="P86" s="56"/>
-      <c r="X86" s="17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="T86" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="24">
         <v>2012</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G87" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H87" s="25" t="s">
         <v>4</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J87" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K87" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L87" s="46" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O87" s="57"/>
       <c r="P87" s="57"/>
-      <c r="X87" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T87" s="38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="24">
         <v>2012</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J88" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K88" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L88" s="46" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O88" s="57"/>
       <c r="P88" s="57"/>
-      <c r="X88" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" s="26" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T88" s="38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="26" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="24">
         <v>2014</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J89" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K89" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L89" s="25" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="O89" s="57"/>
       <c r="P89" s="57"/>
-      <c r="X89" s="27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" s="26" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T89" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="26" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="24">
         <v>2018</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J90" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K90" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L90" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O90" s="57"/>
       <c r="P90" s="57"/>
-      <c r="X90" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" s="26" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="T90" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" s="26" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="24">
         <v>2013</v>
       </c>
       <c r="B91" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J91" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F91" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="G91" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I91" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J91" s="25" t="s">
-        <v>189</v>
-      </c>
       <c r="K91" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L91" s="46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O91" s="57"/>
       <c r="P91" s="57"/>
-      <c r="X91" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T91" s="38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="24">
         <v>2007</v>
       </c>
       <c r="B92" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J92" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C92" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="I92" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J92" s="25" t="s">
-        <v>145</v>
-      </c>
       <c r="K92" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L92" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O92" s="57"/>
       <c r="P92" s="57"/>
@@ -8177,46 +7970,46 @@
       <c r="S92" s="26">
         <v>8</v>
       </c>
-      <c r="X92" s="38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="T92" s="38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="24">
         <v>2007</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H93" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J93" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="I93" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J93" s="25" t="s">
-        <v>146</v>
-      </c>
       <c r="K93" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L93" s="46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O93" s="57"/>
       <c r="P93" s="57"/>
@@ -8229,47 +8022,1645 @@
       <c r="S93" s="26">
         <v>8</v>
       </c>
-      <c r="X93" s="38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="T93" s="38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>1964</v>
       </c>
-      <c r="B94" s="58" t="s">
-        <v>408</v>
-      </c>
-      <c r="C94" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="F94" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="G94" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="58" t="s">
-        <v>409</v>
+      <c r="B94" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="X94" s="8" t="s">
-        <v>410</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="T94" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="120" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="1"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="49"/>
+      <c r="Q120" s="49"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120"/>
+      <c r="U120" s="7"/>
+    </row>
+    <row r="121" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" s="1"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="O121"/>
+      <c r="P121" s="49"/>
+      <c r="Q121" s="49"/>
+      <c r="T121"/>
+      <c r="U121" s="8"/>
+    </row>
+    <row r="122" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="1"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="49"/>
+      <c r="Q122" s="49"/>
+      <c r="T122"/>
+      <c r="U122" s="8"/>
+    </row>
+    <row r="123" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123" s="1"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="49"/>
+      <c r="Q123" s="49"/>
+      <c r="T123"/>
+      <c r="U123" s="8"/>
+    </row>
+    <row r="124" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124" s="1"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="49"/>
+      <c r="Q124" s="49"/>
+      <c r="T124"/>
+      <c r="U124" s="8"/>
+    </row>
+    <row r="125" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125" s="1"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="49"/>
+      <c r="Q125" s="49"/>
+      <c r="T125"/>
+      <c r="U125" s="7"/>
+    </row>
+    <row r="126" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="1"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="1"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="O126" s="5"/>
+      <c r="Q126" s="50"/>
+      <c r="T126"/>
+      <c r="U126" s="7"/>
+    </row>
+    <row r="127" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="1"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="49"/>
+      <c r="Q127" s="49"/>
+      <c r="T127"/>
+      <c r="U127" s="10"/>
+    </row>
+    <row r="128" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" s="1"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="49"/>
+      <c r="Q128" s="49"/>
+      <c r="T128"/>
+      <c r="U128" s="8"/>
+    </row>
+    <row r="129" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="1"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="49"/>
+      <c r="Q129" s="49"/>
+      <c r="T129"/>
+      <c r="U129" s="8"/>
+    </row>
+    <row r="130" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="1"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="49"/>
+      <c r="Q130" s="49"/>
+      <c r="T130"/>
+      <c r="U130" s="8"/>
+    </row>
+    <row r="131" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="1"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="49"/>
+      <c r="Q131" s="49"/>
+      <c r="T131"/>
+      <c r="U131" s="7"/>
+    </row>
+    <row r="132" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" s="1"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="Q132" s="50"/>
+      <c r="T132"/>
+      <c r="U132" s="7"/>
+    </row>
+    <row r="133" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="1"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="1"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="O133"/>
+      <c r="P133" s="49"/>
+      <c r="Q133" s="49"/>
+      <c r="T133"/>
+      <c r="U133" s="7"/>
+    </row>
+    <row r="134" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="1"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="1"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="O134"/>
+      <c r="P134" s="49"/>
+      <c r="Q134" s="49"/>
+      <c r="T134"/>
+      <c r="U134" s="7"/>
+    </row>
+    <row r="135" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="1"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="1"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="O135"/>
+      <c r="Q135" s="50"/>
+      <c r="T135"/>
+      <c r="U135" s="8"/>
+    </row>
+    <row r="136" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136" s="1"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="1"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="O136"/>
+      <c r="Q136" s="50"/>
+      <c r="T136"/>
+      <c r="U136" s="7"/>
+    </row>
+    <row r="137" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" s="1"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="1"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="O137"/>
+      <c r="Q137" s="50"/>
+      <c r="T137"/>
+      <c r="U137" s="7"/>
+    </row>
+    <row r="138" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138" s="1"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="1"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="O138"/>
+      <c r="Q138" s="50"/>
+      <c r="T138"/>
+      <c r="U138" s="7"/>
+    </row>
+    <row r="139" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139" s="1"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="1"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="O139"/>
+      <c r="Q139" s="50"/>
+      <c r="T139"/>
+      <c r="U139" s="7"/>
+    </row>
+    <row r="140" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" s="1"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="2"/>
+      <c r="O140"/>
+      <c r="P140" s="49"/>
+      <c r="Q140" s="49"/>
+      <c r="T140"/>
+      <c r="U140" s="7"/>
+    </row>
+    <row r="141" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B141" s="1"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="2"/>
+      <c r="O141"/>
+      <c r="P141" s="49"/>
+      <c r="Q141" s="49"/>
+      <c r="T141"/>
+      <c r="U141" s="7"/>
+    </row>
+    <row r="142" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142" s="1"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="12"/>
+      <c r="O142"/>
+      <c r="P142" s="49"/>
+      <c r="Q142" s="49"/>
+      <c r="T142"/>
+      <c r="U142" s="8"/>
+    </row>
+    <row r="143" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143" s="1"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="1"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="O143"/>
+      <c r="P143" s="49"/>
+      <c r="Q143" s="49"/>
+      <c r="T143"/>
+      <c r="U143" s="8"/>
+    </row>
+    <row r="144" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B144" s="1"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="1"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="O144"/>
+      <c r="Q144" s="50"/>
+      <c r="T144"/>
+      <c r="U144" s="8"/>
+    </row>
+    <row r="145" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145" s="1"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="O145"/>
+      <c r="Q145" s="50"/>
+      <c r="T145"/>
+      <c r="U145" s="8"/>
+    </row>
+    <row r="146" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146" s="1"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="1"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="O146"/>
+      <c r="Q146" s="50"/>
+      <c r="T146"/>
+      <c r="U146" s="8"/>
+    </row>
+    <row r="147" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147" s="1"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="O147"/>
+      <c r="P147" s="49"/>
+      <c r="Q147" s="49"/>
+      <c r="T147"/>
+      <c r="U147" s="8"/>
+    </row>
+    <row r="148" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148" s="1"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="1"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="12"/>
+      <c r="O148"/>
+      <c r="P148" s="49"/>
+      <c r="Q148" s="49"/>
+      <c r="T148"/>
+      <c r="U148" s="8"/>
+    </row>
+    <row r="149" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B149" s="1"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="1"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="2"/>
+      <c r="O149"/>
+      <c r="P149" s="49"/>
+      <c r="Q149" s="49"/>
+      <c r="T149"/>
+      <c r="U149" s="8"/>
+    </row>
+    <row r="150" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B150" s="1"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="1"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="2"/>
+      <c r="O150"/>
+      <c r="P150" s="49"/>
+      <c r="Q150" s="49"/>
+      <c r="T150"/>
+      <c r="U150" s="8"/>
+    </row>
+    <row r="151" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151" s="1"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="1"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="2"/>
+      <c r="O151"/>
+      <c r="P151" s="49"/>
+      <c r="Q151" s="49"/>
+      <c r="T151"/>
+      <c r="U151" s="8"/>
+    </row>
+    <row r="152" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B152" s="1"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="1"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="2"/>
+      <c r="O152"/>
+      <c r="P152" s="49"/>
+      <c r="Q152" s="49"/>
+      <c r="T152"/>
+      <c r="U152" s="8"/>
+    </row>
+    <row r="153" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153" s="1"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="1"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="2"/>
+      <c r="O153"/>
+      <c r="P153" s="49"/>
+      <c r="Q153" s="49"/>
+      <c r="T153"/>
+      <c r="U153" s="8"/>
+    </row>
+    <row r="154" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154" s="1"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="1"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="2"/>
+      <c r="O154"/>
+      <c r="Q154" s="50"/>
+      <c r="T154"/>
+      <c r="U154" s="8"/>
+    </row>
+    <row r="155" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B155" s="1"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="1"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="2"/>
+      <c r="O155"/>
+      <c r="P155" s="49"/>
+      <c r="Q155" s="49"/>
+      <c r="T155"/>
+      <c r="U155" s="8"/>
+    </row>
+    <row r="156" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B156" s="1"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="1"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="2"/>
+      <c r="O156"/>
+      <c r="Q156" s="50"/>
+      <c r="T156"/>
+      <c r="U156" s="8"/>
+    </row>
+    <row r="157" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B157" s="1"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="1"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="2"/>
+      <c r="O157"/>
+      <c r="Q157" s="50"/>
+      <c r="T157"/>
+      <c r="U157" s="8"/>
+    </row>
+    <row r="158" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B158" s="1"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="1"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="2"/>
+      <c r="O158"/>
+      <c r="P158" s="49"/>
+      <c r="Q158" s="49"/>
+      <c r="T158"/>
+      <c r="U158" s="8"/>
+    </row>
+    <row r="159" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B159" s="1"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="1"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="2"/>
+      <c r="O159"/>
+      <c r="P159" s="49"/>
+      <c r="Q159" s="49"/>
+      <c r="T159"/>
+      <c r="U159" s="8"/>
+    </row>
+    <row r="160" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B160" s="1"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="1"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="2"/>
+      <c r="O160"/>
+      <c r="Q160" s="50"/>
+      <c r="T160"/>
+      <c r="U160" s="8"/>
+    </row>
+    <row r="161" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B161" s="1"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="1"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="2"/>
+      <c r="O161"/>
+      <c r="Q161" s="50"/>
+      <c r="T161"/>
+      <c r="U161" s="8"/>
+    </row>
+    <row r="162" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="1"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="2"/>
+      <c r="O162"/>
+      <c r="Q162" s="50"/>
+      <c r="T162"/>
+      <c r="U162" s="8"/>
+    </row>
+    <row r="163" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B163" s="1"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="1"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="2"/>
+      <c r="O163"/>
+      <c r="Q163" s="50"/>
+      <c r="T163"/>
+      <c r="U163" s="8"/>
+    </row>
+    <row r="164" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B164" s="1"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="1"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="2"/>
+      <c r="O164"/>
+      <c r="P164" s="49"/>
+      <c r="Q164" s="49"/>
+      <c r="T164"/>
+      <c r="U164" s="8"/>
+    </row>
+    <row r="165" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B165" s="1"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="1"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="2"/>
+      <c r="O165"/>
+      <c r="P165" s="49"/>
+      <c r="Q165" s="49"/>
+      <c r="T165"/>
+      <c r="U165" s="8"/>
+    </row>
+    <row r="166" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B166" s="1"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="1"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="2"/>
+      <c r="O166"/>
+      <c r="P166" s="49"/>
+      <c r="Q166" s="49"/>
+      <c r="T166"/>
+      <c r="U166" s="8"/>
+    </row>
+    <row r="167" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B167" s="1"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="1"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="2"/>
+      <c r="O167"/>
+      <c r="P167" s="49"/>
+      <c r="Q167" s="49"/>
+      <c r="T167"/>
+      <c r="U167" s="8"/>
+    </row>
+    <row r="168" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B168" s="1"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="1"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="O168"/>
+      <c r="P168" s="49"/>
+      <c r="Q168" s="49"/>
+      <c r="T168"/>
+      <c r="U168" s="8"/>
+    </row>
+    <row r="169" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B169" s="1"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="1"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="2"/>
+      <c r="O169"/>
+      <c r="Q169" s="50"/>
+      <c r="T169"/>
+      <c r="U169" s="8"/>
+    </row>
+    <row r="170" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B170" s="1"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="1"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="2"/>
+      <c r="O170"/>
+      <c r="P170" s="49"/>
+      <c r="Q170" s="49"/>
+      <c r="T170"/>
+      <c r="U170" s="8"/>
+    </row>
+    <row r="171" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B171" s="1"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="1"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="2"/>
+      <c r="O171"/>
+      <c r="P171" s="49"/>
+      <c r="Q171" s="49"/>
+      <c r="T171"/>
+      <c r="U171" s="8"/>
+    </row>
+    <row r="172" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B172" s="1"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="1"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="7"/>
+      <c r="O172"/>
+      <c r="P172" s="49"/>
+      <c r="Q172" s="49"/>
+      <c r="T172"/>
+      <c r="U172" s="8"/>
+    </row>
+    <row r="173" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B173" s="1"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="1"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="2"/>
+      <c r="O173"/>
+      <c r="Q173" s="50"/>
+      <c r="T173"/>
+      <c r="U173" s="8"/>
+    </row>
+    <row r="174" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B174" s="1"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="1"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="2"/>
+      <c r="O174"/>
+      <c r="P174" s="49"/>
+      <c r="Q174" s="49"/>
+      <c r="T174"/>
+      <c r="U174" s="8"/>
+    </row>
+    <row r="175" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B175" s="1"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="1"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="2"/>
+      <c r="O175"/>
+      <c r="Q175" s="50"/>
+      <c r="T175"/>
+      <c r="U175" s="6"/>
+    </row>
+    <row r="176" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B176" s="1"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="2"/>
+      <c r="O176"/>
+      <c r="P176" s="49"/>
+      <c r="Q176" s="49"/>
+      <c r="T176"/>
+      <c r="U176" s="8"/>
+    </row>
+    <row r="177" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B177" s="1"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="1"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="O177"/>
+      <c r="Q177" s="50"/>
+      <c r="T177"/>
+      <c r="U177" s="7"/>
+    </row>
+    <row r="178" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B178" s="1"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="2"/>
+      <c r="O178"/>
+      <c r="Q178" s="50"/>
+      <c r="T178"/>
+      <c r="U178" s="8"/>
+    </row>
+    <row r="179" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B179" s="1"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="1"/>
+      <c r="L179" s="3"/>
+      <c r="M179" s="2"/>
+      <c r="O179"/>
+      <c r="Q179" s="50"/>
+      <c r="T179"/>
+      <c r="U179" s="8"/>
+    </row>
+    <row r="180" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B180" s="1"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="1"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="2"/>
+      <c r="O180"/>
+      <c r="Q180" s="50"/>
+      <c r="T180"/>
+      <c r="U180" s="8"/>
+    </row>
+    <row r="181" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B181" s="1"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="49"/>
+      <c r="Q181" s="49"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="8"/>
+    </row>
+    <row r="182" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B182" s="1"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="5"/>
+      <c r="P182" s="49"/>
+      <c r="Q182" s="49"/>
+      <c r="R182" s="5"/>
+      <c r="S182" s="5"/>
+      <c r="T182" s="5"/>
+      <c r="U182" s="7"/>
+    </row>
+    <row r="183" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B183" s="1"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="5"/>
+      <c r="O183" s="5"/>
+      <c r="P183" s="49"/>
+      <c r="Q183" s="49"/>
+      <c r="T183"/>
+      <c r="U183" s="8"/>
+    </row>
+    <row r="184" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B184" s="1"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="5"/>
+      <c r="P184" s="49"/>
+      <c r="Q184" s="49"/>
+      <c r="T184"/>
+      <c r="U184" s="8"/>
+    </row>
+    <row r="185" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B185" s="1"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="O185"/>
+      <c r="Q185" s="50"/>
+      <c r="T185"/>
+      <c r="U185" s="7"/>
+    </row>
+    <row r="186" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B186" s="1"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="O186"/>
+      <c r="Q186" s="50"/>
+      <c r="T186"/>
+      <c r="U186" s="7"/>
+    </row>
+    <row r="187" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B187" s="1"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="O187"/>
+      <c r="Q187" s="50"/>
+      <c r="T187"/>
+      <c r="U187" s="7"/>
+    </row>
+    <row r="188" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B188" s="1"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="1"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="O188"/>
+      <c r="Q188" s="50"/>
+      <c r="T188"/>
+      <c r="U188" s="7"/>
+    </row>
+    <row r="189" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B189" s="1"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="1"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3"/>
+      <c r="O189"/>
+      <c r="Q189" s="50"/>
+      <c r="T189"/>
+      <c r="U189" s="7"/>
+    </row>
+    <row r="190" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B190" s="1"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="1"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="12"/>
+      <c r="O190"/>
+      <c r="Q190" s="50"/>
+      <c r="T190"/>
+      <c r="U190" s="7"/>
+    </row>
+    <row r="191" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B191" s="1"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="1"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
+      <c r="O191"/>
+      <c r="Q191" s="50"/>
+      <c r="T191"/>
+      <c r="U191" s="8"/>
+    </row>
+    <row r="192" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B192" s="1"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="1"/>
+      <c r="L192" s="3"/>
+      <c r="M192" s="3"/>
+      <c r="O192"/>
+      <c r="Q192" s="50"/>
+      <c r="T192"/>
+      <c r="U192" s="7"/>
+    </row>
+    <row r="193" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B193" s="1"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="1"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="O193"/>
+      <c r="Q193" s="50"/>
+      <c r="T193"/>
+      <c r="U193" s="7"/>
+    </row>
+    <row r="194" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B194" s="1"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="1"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="12"/>
+      <c r="O194"/>
+      <c r="Q194" s="50"/>
+      <c r="T194"/>
+      <c r="U194" s="8"/>
+    </row>
+    <row r="195" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B195" s="1"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="1"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="12"/>
+      <c r="O195"/>
+      <c r="Q195" s="50"/>
+      <c r="T195"/>
+      <c r="U195" s="8"/>
+    </row>
+    <row r="196" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B196" s="1"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="1"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="2"/>
+      <c r="O196"/>
+      <c r="Q196" s="50"/>
+      <c r="T196"/>
+      <c r="U196" s="8"/>
+    </row>
+    <row r="197" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B197" s="1"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="1"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="12"/>
+      <c r="O197"/>
+      <c r="Q197" s="50"/>
+      <c r="T197"/>
+      <c r="U197" s="8"/>
+    </row>
+    <row r="198" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B198" s="1"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="1"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="12"/>
+      <c r="O198"/>
+      <c r="Q198" s="50"/>
+      <c r="T198"/>
+      <c r="U198" s="8"/>
+    </row>
+    <row r="199" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B199" s="1"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="1"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="2"/>
+      <c r="O199"/>
+      <c r="Q199" s="50"/>
+      <c r="T199"/>
+      <c r="U199" s="8"/>
+    </row>
+    <row r="200" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B200" s="1"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="47"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="1"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="12"/>
+      <c r="O200"/>
+      <c r="Q200" s="50"/>
+      <c r="T200"/>
+      <c r="U200" s="7"/>
+    </row>
+    <row r="201" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B201" s="1"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="2"/>
+      <c r="O201"/>
+      <c r="Q201" s="50"/>
+      <c r="T201"/>
+      <c r="U201" s="8"/>
+    </row>
+    <row r="202" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B202" s="1"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="1"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="2"/>
+      <c r="O202"/>
+      <c r="Q202" s="50"/>
+      <c r="T202"/>
+      <c r="U202" s="6"/>
+    </row>
+    <row r="203" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B203" s="1"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="1"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="2"/>
+      <c r="O203"/>
+      <c r="Q203" s="50"/>
+      <c r="T203"/>
+      <c r="U203" s="8"/>
+    </row>
+    <row r="204" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B204" s="1"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="1"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="2"/>
+      <c r="O204"/>
+      <c r="Q204" s="50"/>
+      <c r="T204"/>
+      <c r="U204" s="8"/>
+    </row>
+    <row r="205" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B205" s="1"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="1"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="2"/>
+      <c r="O205"/>
+      <c r="Q205" s="50"/>
+      <c r="T205"/>
+      <c r="U205" s="8"/>
+    </row>
+    <row r="206" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B206" s="1"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="1"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="2"/>
+      <c r="O206"/>
+      <c r="Q206" s="50"/>
+      <c r="T206"/>
+      <c r="U206" s="8"/>
+    </row>
+    <row r="207" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B207" s="1"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="1"/>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3"/>
+      <c r="O207"/>
+      <c r="Q207" s="50"/>
+      <c r="T207"/>
+      <c r="U207" s="7"/>
+    </row>
+    <row r="208" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B208" s="1"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="1"/>
+      <c r="L208" s="3"/>
+      <c r="M208" s="3"/>
+      <c r="O208"/>
+      <c r="Q208" s="50"/>
+      <c r="T208"/>
+      <c r="U208" s="7"/>
+    </row>
+    <row r="209" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B209" s="1"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="1"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="2"/>
+      <c r="O209"/>
+      <c r="Q209" s="50"/>
+      <c r="T209"/>
+      <c r="U209" s="8"/>
+    </row>
+    <row r="210" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B210" s="1"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="1"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="2"/>
+      <c r="O210"/>
+      <c r="Q210" s="50"/>
+      <c r="T210"/>
+      <c r="U210" s="8"/>
+    </row>
+    <row r="211" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B211" s="1"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="1"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="2"/>
+      <c r="O211"/>
+      <c r="Q211" s="50"/>
+      <c r="T211"/>
+      <c r="U211" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X93" xr:uid="{BF1C84BB-F2CC-42C6-A1BF-21ED272783EE}"/>
+  <autoFilter ref="A1:U94" xr:uid="{BF1C84BB-F2CC-42C6-A1BF-21ED272783EE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Hedges.xlsx
+++ b/Hedges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88747f93bb6c7eaf/Documents/Postdoc UBC/Interactions paper/meta-analysis/interactions_salmonids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2882" documentId="13_ncr:1_{3BF83E3E-61C9-45E5-BF17-F43AA12D13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035D1424-52DC-4650-8ED9-8D1139DCEA62}"/>
+  <xr:revisionPtr revIDLastSave="2894" documentId="13_ncr:1_{3BF83E3E-61C9-45E5-BF17-F43AA12D13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFBAC90-1189-47CF-8AB0-516A49E05290}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="11136" xr2:uid="{22809DD5-28F5-466E-A34A-A41D36053B95}"/>
   </bookViews>
@@ -2387,7 +2387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2413,110 +2413,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2527,17 +2434,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2859,8 +2793,8 @@
   <dimension ref="A1:U211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2875,15 +2809,15 @@
     <col min="9" max="9" width="16.7890625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5234375" style="3" customWidth="1"/>
     <col min="11" max="11" width="17.47265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="27.15625" style="47" customWidth="1"/>
-    <col min="15" max="16" width="11.5234375" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.15625" style="16" customWidth="1"/>
+    <col min="15" max="16" width="11.5234375" style="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5234375" customWidth="1"/>
     <col min="19" max="19" width="10.15625" customWidth="1"/>
     <col min="20" max="20" width="162" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2925,10 +2859,10 @@
       <c r="N1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="17" t="s">
         <v>268</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -2940,1344 +2874,1352 @@
       <c r="S1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
+      <c r="A2" s="26">
         <v>2021</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="21">
         <v>70</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="21">
         <v>90</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="22">
         <v>8.16</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="22">
         <v>8.16</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="21">
         <v>20</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="21">
         <v>20</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="21">
         <v>3</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="23" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+      <c r="A3" s="26">
         <v>2015</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="24">
         <v>29.75</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="24">
         <v>29.35</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="22">
         <v>0.1936491673103736</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="22">
         <v>0.23237900077244006</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="24">
         <v>15</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="24">
         <v>15</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="S3" s="24"/>
+      <c r="T3" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+      <c r="A4" s="26">
         <v>2015</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="21">
         <v>28</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="21">
         <v>27.82</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="22">
         <v>0.30983866769658674</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="22">
         <v>0.27110883423452031</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="24">
         <v>15</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="24">
         <v>15</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="S4" s="24"/>
+      <c r="T4" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
+      <c r="A5" s="26">
         <v>2015</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="21">
         <v>27.3</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="21">
         <v>29.34</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="22">
         <v>0.23237900077244006</v>
       </c>
-      <c r="P5" s="49">
+      <c r="P5" s="22">
         <v>0.27110883423452031</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="24">
         <v>15</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="24">
         <v>15</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="S5" s="24"/>
+      <c r="T5" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
+      <c r="A6" s="26">
         <v>2021</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="21">
         <v>26.57</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="21">
         <v>27.81</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="22">
         <v>0.30983866769658674</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="22">
         <v>0.30983866769660051</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="24">
         <v>15</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="24">
         <v>15</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="S6" s="24"/>
+      <c r="T6" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
+      <c r="A7" s="26">
         <v>2007</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="21">
         <v>5.79</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="21">
         <v>5.12</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="22">
         <v>0.9353074360871938</v>
       </c>
-      <c r="P7" s="49">
+      <c r="P7" s="22">
         <v>0.62353829072479572</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="24">
         <v>12</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="24">
         <v>12</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="21">
         <v>6</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
+      <c r="A8" s="26">
         <v>2009</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="24">
         <v>14.7</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="21">
         <v>9.98</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="27">
         <v>1.6</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8" s="27">
         <v>1.10643164072597</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="24">
         <v>8</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="24">
         <v>8</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="23" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
+      <c r="A9" s="26">
         <v>2020</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="21">
         <v>420</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="21">
         <v>320.39999999999998</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="22">
         <v>81.332650270355757</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="22">
         <v>60.418540200835707</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="24">
         <v>60</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="24">
         <v>60</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="21">
         <v>2</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="28" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
+      <c r="A10" s="26">
         <v>2014</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="21">
         <v>98.2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="21">
         <v>35</v>
       </c>
-      <c r="O10" s="49">
+      <c r="O10" s="22">
         <v>9.5317994103946617</v>
       </c>
-      <c r="P10" s="49">
+      <c r="P10" s="22">
         <v>8.3438600180012692</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="24">
         <v>8</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="24">
         <v>8</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="24">
         <v>3</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="25" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
+      <c r="A11" s="26">
         <v>2020</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="21">
         <v>1148</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="21">
         <v>1641</v>
       </c>
-      <c r="O11" s="49">
+      <c r="O11" s="22">
         <v>313.85000000000002</v>
       </c>
-      <c r="P11" s="49">
+      <c r="P11" s="22">
         <v>163.6</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="24">
         <v>8</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="24">
         <v>8</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="25" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
+      <c r="A12" s="26">
         <v>1980</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="21">
         <v>143.5</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="21">
         <v>130.6</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="22">
         <v>2.6</v>
       </c>
-      <c r="P12" s="49">
+      <c r="P12" s="22">
         <v>9.2100000000000009</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="24">
         <v>5</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="24">
         <v>5</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="24">
         <v>4</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+      <c r="A13" s="26">
         <v>1980</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="21">
         <v>193.82</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="21">
         <v>161.25</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="22">
         <v>7.4</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="22">
         <v>20.93</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="24">
         <v>8</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="24">
         <v>8</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="24">
         <v>7</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
+      <c r="A14" s="26">
         <v>2007</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="21">
         <v>30.67</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="21">
         <v>24.8</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="27">
         <v>0.44</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14" s="27">
         <v>1.22</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="24">
         <v>50</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="24">
         <v>50</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="24">
         <v>2</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="23" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
+      <c r="A15" s="26">
         <v>2014</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="24">
         <v>96.36</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="24">
         <v>51.9</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="22">
         <v>7.4104790668350189</v>
       </c>
-      <c r="P15" s="49">
+      <c r="P15" s="22">
         <v>9.8994949366116654</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="24">
         <v>8</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="24">
         <v>8</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="24">
         <v>3</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="23" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
+      <c r="A16" s="26">
         <v>2001</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="24">
         <v>10.35</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="24">
         <v>22.47</v>
       </c>
-      <c r="O16" s="49">
+      <c r="O16" s="22">
         <v>6.1381430416698501</v>
       </c>
-      <c r="P16" s="49">
+      <c r="P16" s="22">
         <v>16.932808390813381</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="24">
         <v>7</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="24">
         <v>7</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="S16" s="24"/>
+      <c r="T16" s="23" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
+      <c r="A17" s="26">
         <v>1990</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="24">
         <v>31.9</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="24">
         <v>42.4</v>
       </c>
-      <c r="O17" s="50">
+      <c r="O17" s="27">
         <v>8.0379457470922873</v>
       </c>
-      <c r="P17" s="50">
+      <c r="P17" s="27">
         <v>10.624067422243717</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="24">
         <v>10</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="24">
         <v>10</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="S17" s="24"/>
+      <c r="T17" s="25" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
+      <c r="A18" s="26">
         <v>2007</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="24">
         <v>1.1200000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="24">
         <v>0.18</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="27">
         <v>0.48076223547269065</v>
       </c>
-      <c r="P18" s="50">
+      <c r="P18" s="27">
         <v>4.7133552497322609E-2</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="24">
         <v>4</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="24">
         <v>4</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="24">
         <v>2</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="23" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="20">
+    <row r="19" spans="1:20" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="26">
         <v>2009</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="24">
         <v>-5.2</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="24">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="O19" s="51">
+      <c r="O19" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P19" s="51">
+      <c r="P19" s="27">
         <v>0.3</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="24">
         <v>8</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="24">
         <v>8</v>
       </c>
+      <c r="S19" s="24"/>
       <c r="T19" s="23" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1">
+      <c r="A20" s="26">
         <v>2011</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="24">
         <v>67.3</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="24">
         <v>2.1</v>
       </c>
-      <c r="O20" s="50">
+      <c r="O20" s="27">
         <v>16.626378168747024</v>
       </c>
-      <c r="P20" s="50">
+      <c r="P20" s="27">
         <v>1.1961423142983469</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="24">
         <v>8</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="24">
         <v>8</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="24">
         <v>3</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="23" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1">
+      <c r="A21" s="26">
         <v>2001</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="24">
         <v>69.91</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="24">
         <v>35.99</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="27">
         <v>11.94</v>
       </c>
-      <c r="P21" s="50">
+      <c r="P21" s="27">
         <v>3.11</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="24">
         <v>10</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="24">
         <v>10</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="24">
         <v>3</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="23" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="22" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="20">
+    <row r="22" spans="1:20" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="26">
         <v>2007</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="24">
         <v>-1.71</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="24">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="O22" s="52">
+      <c r="O22" s="22">
         <v>0.29393876913398131</v>
       </c>
-      <c r="P22" s="52">
+      <c r="P22" s="22">
         <v>0.44090815370097203</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="24">
         <v>6</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="24">
         <v>6</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="24">
         <v>3</v>
       </c>
       <c r="T22" s="23" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="20">
+    <row r="23" spans="1:20" s="12" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="26">
         <v>2007</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="24">
         <v>-1.82</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="24">
         <v>-2.79</v>
       </c>
-      <c r="O23" s="52">
+      <c r="O23" s="22">
         <v>0.36742346141747667</v>
       </c>
-      <c r="P23" s="52">
+      <c r="P23" s="22">
         <v>1.0532805893967665</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="24">
         <v>6</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="24">
         <v>6</v>
       </c>
-      <c r="S23" s="22">
+      <c r="S23" s="24">
         <v>3</v>
       </c>
       <c r="T23" s="23" t="s">
@@ -4285,3779 +4227,3938 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1">
+      <c r="A24" s="26">
         <v>2006</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="24">
         <v>30.7</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="24">
         <v>25.6</v>
       </c>
-      <c r="O24" s="49">
+      <c r="O24" s="22">
         <v>4.0249223594996222</v>
       </c>
-      <c r="P24" s="49">
+      <c r="P24" s="22">
         <v>6.2609903369994111</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="24">
         <v>5</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="24">
         <v>5</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="S24" s="24"/>
+      <c r="T24" s="25" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="20">
+    <row r="25" spans="1:20" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="26">
         <v>2021</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="24">
         <v>-2.33</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="24">
         <v>-3.13</v>
       </c>
-      <c r="O25" s="52">
+      <c r="O25" s="22">
         <v>0.31843366656181316</v>
       </c>
-      <c r="P25" s="52">
+      <c r="P25" s="22">
         <v>0.44331717018285627</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="24">
         <v>6</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="24">
         <v>7</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25" s="24">
         <v>4</v>
       </c>
-      <c r="T25" s="28" t="s">
+      <c r="T25" s="25" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1">
+      <c r="A26" s="26">
         <v>2021</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="24">
         <v>29.23</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="24">
         <v>28.23</v>
       </c>
-      <c r="O26" s="50">
+      <c r="O26" s="27">
         <v>0.74</v>
       </c>
-      <c r="P26" s="50">
+      <c r="P26" s="27">
         <v>0.97571377503223433</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="24">
         <v>9</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="24">
         <v>9</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="24">
         <v>4</v>
       </c>
-      <c r="T26" s="8" t="s">
+      <c r="T26" s="25" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1">
+      <c r="A27" s="26">
         <v>2022</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="24">
         <v>28.1</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="24">
         <v>28.7</v>
       </c>
-      <c r="O27" s="50">
+      <c r="O27" s="27">
         <v>0.47</v>
       </c>
-      <c r="P27" s="50">
+      <c r="P27" s="27">
         <v>0.19</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="24">
         <v>10</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="24">
         <v>9</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="S27" s="24"/>
+      <c r="T27" s="25" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1">
+      <c r="A28" s="26">
         <v>2022</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="24">
         <v>28.08</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="24">
         <v>28.64</v>
       </c>
-      <c r="O28" s="50">
+      <c r="O28" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P28" s="50">
+      <c r="P28" s="27">
         <v>0.19</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="24">
         <v>9</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="24">
         <v>10</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="S28" s="24"/>
+      <c r="T28" s="25" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1">
+      <c r="A29" s="26">
         <v>2018</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="24">
         <v>53.99</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="24">
         <v>100</v>
       </c>
-      <c r="O29" s="49">
+      <c r="O29" s="22">
         <v>18.5</v>
       </c>
-      <c r="P29" s="49">
+      <c r="P29" s="22">
         <v>0</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="24">
         <v>5</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="24">
         <v>5</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="24">
         <v>4</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="T29" s="25" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="20">
+    <row r="30" spans="1:20" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="26">
         <v>2011</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L30" s="42" t="s">
+      <c r="L30" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="24">
         <v>-46.04</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="24">
         <v>-44.42</v>
       </c>
-      <c r="O30" s="52">
+      <c r="O30" s="22">
         <v>7.1</v>
       </c>
-      <c r="P30" s="52">
+      <c r="P30" s="22">
         <v>5.8</v>
       </c>
-      <c r="Q30" s="22">
+      <c r="Q30" s="24">
         <v>100</v>
       </c>
-      <c r="R30" s="22">
+      <c r="R30" s="24">
         <v>100</v>
       </c>
-      <c r="S30" s="22">
+      <c r="S30" s="24">
         <v>3</v>
       </c>
-      <c r="T30" s="28" t="s">
+      <c r="T30" s="25" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1">
+      <c r="A31" s="26">
         <v>1997</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="24">
         <v>37.64</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="24">
         <v>47.52</v>
       </c>
-      <c r="O31" s="49">
+      <c r="O31" s="22">
         <v>7.2812086908699438</v>
       </c>
-      <c r="P31" s="49">
+      <c r="P31" s="22">
         <v>13.632901378650107</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="24">
         <v>60</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="24">
         <v>60</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="24">
         <v>3</v>
       </c>
-      <c r="T31" s="8" t="s">
+      <c r="T31" s="25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="22" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="20">
+    <row r="32" spans="1:20" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="26">
         <v>1998</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="K32" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="L32" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="24">
         <v>-281.2</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="24">
         <v>-338.3</v>
       </c>
-      <c r="O32" s="52">
+      <c r="O32" s="22">
         <v>99.728631796490632</v>
       </c>
-      <c r="P32" s="52">
+      <c r="P32" s="22">
         <v>69.318107302493488</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32" s="24">
         <v>20</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32" s="24">
         <v>20</v>
       </c>
-      <c r="S32" s="22">
+      <c r="S32" s="24">
         <v>3</v>
       </c>
-      <c r="T32" s="28" t="s">
+      <c r="T32" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="20">
+    <row r="33" spans="1:20" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="26">
         <v>1998</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="K33" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L33" s="37" t="s">
+      <c r="L33" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="24">
         <v>-3.45</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="24">
         <v>-8.35</v>
       </c>
-      <c r="O33" s="52">
+      <c r="O33" s="22">
         <v>2.4890158697766473</v>
       </c>
-      <c r="P33" s="52">
+      <c r="P33" s="22">
         <v>2.9698484809835</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q33" s="24">
         <v>8</v>
       </c>
-      <c r="R33" s="22">
+      <c r="R33" s="24">
         <v>8</v>
       </c>
-      <c r="S33" s="22">
+      <c r="S33" s="24">
         <v>5</v>
       </c>
-      <c r="T33" s="28" t="s">
+      <c r="T33" s="25" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1">
+      <c r="A34" s="26">
         <v>2003</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="24">
         <v>42.71</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="24">
         <v>51.48</v>
       </c>
-      <c r="O34" s="49">
+      <c r="O34" s="22">
         <v>2.7189336144893277</v>
       </c>
-      <c r="P34" s="49">
+      <c r="P34" s="22">
         <v>3.0128723836233089</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="24">
         <v>6</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="24">
         <v>6</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="24">
         <v>3</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="T34" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="20">
+    <row r="35" spans="1:20" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="26">
         <v>1997</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="37" t="s">
+      <c r="L35" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="24">
         <v>-78.08</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="24">
         <v>-17.29</v>
       </c>
-      <c r="O35" s="52">
+      <c r="O35" s="22">
         <v>16.696826045689043</v>
       </c>
-      <c r="P35" s="52">
+      <c r="P35" s="22">
         <v>3.6366193091936361</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q35" s="24">
         <v>10</v>
       </c>
-      <c r="R35" s="22">
+      <c r="R35" s="24">
         <v>10</v>
       </c>
-      <c r="S35" s="22">
+      <c r="S35" s="24">
         <v>3</v>
       </c>
-      <c r="T35" s="28" t="s">
+      <c r="T35" s="25" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1">
+      <c r="A36" s="26">
         <v>1973</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="24">
         <v>77.5</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="24">
         <v>23.3</v>
       </c>
-      <c r="O36" s="50">
+      <c r="O36" s="27">
         <v>9.0739989566014003</v>
       </c>
-      <c r="P36" s="50">
+      <c r="P36" s="27">
         <v>9.8414258889876844</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="24">
         <v>10</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="24">
         <v>15</v>
       </c>
-      <c r="T36" s="8" t="s">
+      <c r="S36" s="24"/>
+      <c r="T36" s="25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="22" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="20">
+    <row r="37" spans="1:20" s="12" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="26">
         <v>1997</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="37" t="s">
+      <c r="L37" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="24">
         <v>-177.85</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N37" s="24">
         <v>-137.78</v>
       </c>
-      <c r="O37" s="52">
+      <c r="O37" s="22">
         <v>50.222086774645284</v>
       </c>
-      <c r="P37" s="52">
+      <c r="P37" s="22">
         <v>45.884114898295685</v>
       </c>
-      <c r="Q37" s="22">
+      <c r="Q37" s="24">
         <v>20</v>
       </c>
-      <c r="R37" s="22">
+      <c r="R37" s="24">
         <v>20</v>
       </c>
-      <c r="S37" s="22">
+      <c r="S37" s="24">
         <v>3</v>
       </c>
-      <c r="T37" s="28" t="s">
+      <c r="T37" s="25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1">
+      <c r="A38" s="26">
         <v>2002</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="24">
         <v>17.25</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="24">
         <v>38.020000000000003</v>
       </c>
-      <c r="O38" s="50">
+      <c r="O38" s="27">
         <v>1.5321240372342109</v>
       </c>
-      <c r="P38" s="50">
+      <c r="P38" s="27">
         <v>6.7651152100340699</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="24">
         <v>10</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="24">
         <v>5</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="24">
         <v>3</v>
       </c>
-      <c r="T38" s="8" t="s">
+      <c r="T38" s="25" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1">
+      <c r="A39" s="26">
         <v>2005</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="24">
         <v>66.400000000000006</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="24">
         <v>25.2</v>
       </c>
-      <c r="O39" s="50">
+      <c r="O39" s="27">
         <v>42.9</v>
       </c>
-      <c r="P39" s="50">
+      <c r="P39" s="27">
         <v>29.8</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="24">
         <v>16</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="24">
         <v>12</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="24">
         <v>2</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="T39" s="25" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1">
+      <c r="A40" s="26">
         <v>2008</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="24">
         <v>465.01</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="24">
         <v>249.85</v>
       </c>
-      <c r="O40" s="49">
+      <c r="O40" s="22">
         <v>85.825310951956368</v>
       </c>
-      <c r="P40" s="49">
+      <c r="P40" s="22">
         <v>45.158985816778483</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="24">
         <v>60</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="24">
         <v>60</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="24">
         <v>2</v>
       </c>
-      <c r="T40" s="8" t="s">
+      <c r="T40" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="22" customFormat="1" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="20">
+    <row r="41" spans="1:20" s="12" customFormat="1" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="26">
         <v>2002</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L41" s="37" t="s">
+      <c r="L41" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="24">
         <v>-12.08</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="24">
         <v>-11.3</v>
       </c>
-      <c r="O41" s="52">
+      <c r="O41" s="22">
         <v>6.8447936418857802</v>
       </c>
-      <c r="P41" s="52">
+      <c r="P41" s="22">
         <v>5.0628845532956808</v>
       </c>
-      <c r="Q41" s="22">
+      <c r="Q41" s="24">
         <v>8</v>
       </c>
-      <c r="R41" s="22">
+      <c r="R41" s="24">
         <v>8</v>
       </c>
-      <c r="S41" s="22">
+      <c r="S41" s="24">
         <v>3</v>
       </c>
-      <c r="T41" s="28" t="s">
+      <c r="T41" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1">
+      <c r="A42" s="26">
         <v>2011</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="24">
         <v>42.7</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="24">
         <v>8.1</v>
       </c>
-      <c r="O42" s="50">
+      <c r="O42" s="27">
         <v>26</v>
       </c>
-      <c r="P42" s="50">
+      <c r="P42" s="27">
         <v>5.2</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="24">
         <v>10</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="24">
         <v>5</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="24">
         <v>3</v>
       </c>
-      <c r="T42" s="8" t="s">
+      <c r="T42" s="25" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1">
+      <c r="A43" s="26">
         <v>2009</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="24">
         <v>19.04</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="24">
         <v>6.79</v>
       </c>
-      <c r="O43" s="50">
+      <c r="O43" s="27">
         <v>12.53</v>
       </c>
-      <c r="P43" s="50">
+      <c r="P43" s="27">
         <v>6.29</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="24">
         <v>10</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="24">
         <v>10</v>
       </c>
-      <c r="T43" s="8" t="s">
+      <c r="S43" s="24"/>
+      <c r="T43" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1">
+      <c r="A44" s="26">
         <v>2007</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="24">
         <v>11.6</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="24">
         <v>7.8</v>
       </c>
-      <c r="O44" s="50">
+      <c r="O44" s="27">
         <v>9.0863734532347564</v>
       </c>
-      <c r="P44" s="50">
+      <c r="P44" s="27">
         <v>5.3819288915313566</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="24">
         <v>10</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="24">
         <v>10</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="24">
         <v>2</v>
       </c>
-      <c r="T44" s="8" t="s">
+      <c r="T44" s="25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="20">
+    <row r="45" spans="1:20" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="26">
         <v>2005</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I45" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K45" s="21" t="s">
+      <c r="K45" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L45" s="37" t="s">
+      <c r="L45" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="24">
         <v>0</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N45" s="24">
         <v>-21.46</v>
       </c>
-      <c r="O45" s="51">
+      <c r="O45" s="27">
         <v>0</v>
       </c>
-      <c r="P45" s="51">
+      <c r="P45" s="27">
         <v>7</v>
       </c>
-      <c r="Q45" s="22">
+      <c r="Q45" s="24">
         <v>30</v>
       </c>
-      <c r="R45" s="22">
+      <c r="R45" s="24">
         <v>30</v>
       </c>
-      <c r="S45" s="22">
+      <c r="S45" s="24">
         <v>2</v>
       </c>
-      <c r="T45" s="28" t="s">
+      <c r="T45" s="25" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1">
+      <c r="A46" s="26">
         <v>2011</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="24">
         <v>0.95</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="24">
         <v>0.81</v>
       </c>
-      <c r="O46" s="49">
+      <c r="O46" s="22">
         <v>0.22627416997969524</v>
       </c>
-      <c r="P46" s="49">
+      <c r="P46" s="22">
         <v>0.14142135623730953</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="24">
         <v>8</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="24">
         <v>8</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="24">
         <v>3</v>
       </c>
-      <c r="T46" s="8" t="s">
+      <c r="T46" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1">
+      <c r="A47" s="26">
         <v>2005</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="24">
         <v>14.61</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="24">
         <v>24.12</v>
       </c>
-      <c r="O47" s="49">
+      <c r="O47" s="22">
         <v>19.118381207623205</v>
       </c>
-      <c r="P47" s="49">
+      <c r="P47" s="22">
         <v>13.684736022298713</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="24">
         <v>5</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="24">
         <v>5</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="24">
         <v>3</v>
       </c>
-      <c r="T47" s="8" t="s">
+      <c r="T47" s="25" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="20">
+    <row r="48" spans="1:20" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="26">
         <v>1998</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="21" t="s">
+      <c r="H48" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J48" s="21" t="s">
+      <c r="J48" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="K48" s="21" t="s">
+      <c r="K48" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L48" s="37" t="s">
+      <c r="L48" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="24">
         <v>-30.7</v>
       </c>
-      <c r="N48" s="22">
+      <c r="N48" s="24">
         <v>-40.700000000000003</v>
       </c>
-      <c r="O48" s="52">
+      <c r="O48" s="22">
         <v>6.7082039324993694</v>
       </c>
-      <c r="P48" s="52">
+      <c r="P48" s="22">
         <v>8.4970583144992009</v>
       </c>
-      <c r="Q48" s="22">
+      <c r="Q48" s="24">
         <v>20</v>
       </c>
-      <c r="R48" s="22">
+      <c r="R48" s="24">
         <v>20</v>
       </c>
-      <c r="S48" s="22">
+      <c r="S48" s="24">
         <v>5</v>
       </c>
-      <c r="T48" s="28" t="s">
+      <c r="T48" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1">
+      <c r="A49" s="26">
         <v>1994</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="24">
         <v>19.05</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="24">
         <v>12.05</v>
       </c>
-      <c r="O49" s="49">
+      <c r="O49" s="22">
         <v>7.4670476093299429</v>
       </c>
-      <c r="P49" s="49">
+      <c r="P49" s="22">
         <v>6.0811183182043091</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="24">
         <v>8</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="24">
         <v>8</v>
       </c>
-      <c r="T49" s="8" t="s">
+      <c r="S49" s="24"/>
+      <c r="T49" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1">
+      <c r="A50" s="26">
         <v>1992</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="24">
         <v>29.44</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="24">
         <v>15.16</v>
       </c>
-      <c r="O50" s="49">
+      <c r="O50" s="22">
         <v>15.641201999846434</v>
       </c>
-      <c r="P50" s="49">
+      <c r="P50" s="22">
         <v>3.5355339059327378</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="24">
         <v>8</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="24">
         <v>8</v>
       </c>
-      <c r="T50" s="8" t="s">
+      <c r="S50" s="24"/>
+      <c r="T50" s="25" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1">
+      <c r="A51" s="26">
         <v>2018</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="24">
         <v>471.35659760087231</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="24">
         <v>201.72464558342421</v>
       </c>
-      <c r="O51" s="50">
+      <c r="O51" s="27">
         <v>106.99870850466866</v>
       </c>
-      <c r="P51" s="50">
+      <c r="P51" s="27">
         <v>31.113054492942087</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="24">
         <v>7</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="24">
         <v>7</v>
       </c>
-      <c r="T51" s="8" t="s">
+      <c r="S51" s="24"/>
+      <c r="T51" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="22" customFormat="1" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="20">
+    <row r="52" spans="1:20" s="12" customFormat="1" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="26">
         <v>1992</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G52" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="21" t="s">
+      <c r="J52" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="K52" s="21" t="s">
+      <c r="K52" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L52" s="37" t="s">
+      <c r="L52" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="24">
         <v>-5.96</v>
       </c>
-      <c r="N52" s="22">
+      <c r="N52" s="24">
         <v>-9.0500000000000007</v>
       </c>
-      <c r="O52" s="52">
+      <c r="O52" s="22">
         <v>1.2347469376354008</v>
       </c>
-      <c r="P52" s="52">
+      <c r="P52" s="22">
         <v>1.1973303637676613</v>
       </c>
-      <c r="Q52" s="22">
+      <c r="Q52" s="24">
         <v>14</v>
       </c>
-      <c r="R52" s="22">
+      <c r="R52" s="24">
         <v>14</v>
       </c>
-      <c r="T52" s="28" t="s">
+      <c r="S52" s="24"/>
+      <c r="T52" s="25" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1">
+      <c r="A53" s="26">
         <v>2008</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="24">
         <v>76.89</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="24">
         <v>61</v>
       </c>
-      <c r="O53" s="49">
+      <c r="O53" s="22">
         <v>18.291036055948279</v>
       </c>
-      <c r="P53" s="49">
+      <c r="P53" s="22">
         <v>27.168225926622448</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="24">
         <v>5</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="24">
         <v>5</v>
       </c>
-      <c r="T53" s="8" t="s">
+      <c r="S53" s="24"/>
+      <c r="T53" s="25" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="195.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1">
+      <c r="A54" s="26">
         <v>1998</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L54" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="24">
         <v>44.5</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="24">
         <v>49.7</v>
       </c>
-      <c r="O54" s="49">
+      <c r="O54" s="22">
         <v>3.1112698372208096</v>
       </c>
-      <c r="P54" s="49">
+      <c r="P54" s="22">
         <v>4.8083261120685235</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="24">
         <v>8</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="24">
         <v>8</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="24">
         <v>4</v>
       </c>
-      <c r="T54" s="8" t="s">
+      <c r="T54" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="22" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="20">
+    <row r="55" spans="1:20" s="12" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="26">
         <v>2010</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="H55" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I55" s="20" t="s">
+      <c r="I55" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J55" s="21" t="s">
+      <c r="J55" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="K55" s="21" t="s">
+      <c r="K55" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L55" s="37" t="s">
+      <c r="L55" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="24">
         <v>-0.63500000000000001</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N55" s="24">
         <v>-0.30499999999999999</v>
       </c>
-      <c r="O55" s="51">
+      <c r="O55" s="27">
         <v>0.16675629580995099</v>
       </c>
-      <c r="P55" s="51">
+      <c r="P55" s="27">
         <v>0.19057862378280113</v>
       </c>
-      <c r="Q55" s="22">
+      <c r="Q55" s="24">
         <v>6</v>
       </c>
-      <c r="R55" s="22">
+      <c r="R55" s="24">
         <v>6</v>
       </c>
-      <c r="S55" s="22">
+      <c r="S55" s="24">
         <v>3</v>
       </c>
-      <c r="T55" s="28" t="s">
+      <c r="T55" s="25" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="213" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1">
+      <c r="A56" s="26">
         <v>2013</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="24">
         <v>5.45</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="24">
         <v>10.45</v>
       </c>
-      <c r="O56" s="49">
+      <c r="O56" s="22">
         <v>1.62</v>
       </c>
-      <c r="P56" s="49">
+      <c r="P56" s="22">
         <v>7.7099999999999991</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="24">
         <v>9</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="24">
         <v>9</v>
       </c>
-      <c r="T56" s="8" t="s">
+      <c r="S56" s="24"/>
+      <c r="T56" s="25" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1">
+      <c r="A57" s="26">
         <v>1980</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="24">
         <v>22.45</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="24">
         <v>19.649999999999999</v>
       </c>
-      <c r="O57" s="50">
+      <c r="O57" s="27">
         <v>0.48926626286648645</v>
       </c>
-      <c r="P57" s="50">
+      <c r="P57" s="27">
         <v>0.62905662368548221</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="24">
         <v>10</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="24">
         <v>10</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="24">
         <v>3</v>
       </c>
-      <c r="T57" s="6" t="s">
+      <c r="T57" s="31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="22" customFormat="1" ht="88.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="20">
+    <row r="58" spans="1:20" s="12" customFormat="1" ht="88.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="26">
         <v>1987</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="20" t="s">
+      <c r="H58" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="I58" s="20" t="s">
+      <c r="I58" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="J58" s="21" t="s">
+      <c r="J58" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="K58" s="21" t="s">
+      <c r="K58" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L58" s="37" t="s">
+      <c r="L58" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="M58" s="22">
+      <c r="M58" s="24">
         <v>-77.25</v>
       </c>
-      <c r="N58" s="22">
+      <c r="N58" s="24">
         <v>-117.55</v>
       </c>
-      <c r="O58" s="52">
+      <c r="O58" s="22">
         <v>37.085274705737312</v>
       </c>
-      <c r="P58" s="52">
+      <c r="P58" s="22">
         <v>33.851948245263522</v>
       </c>
-      <c r="Q58" s="22">
+      <c r="Q58" s="24">
         <v>24</v>
       </c>
-      <c r="R58" s="22">
+      <c r="R58" s="24">
         <v>24</v>
       </c>
-      <c r="S58" s="22">
+      <c r="S58" s="24">
         <v>2</v>
       </c>
-      <c r="T58" s="28" t="s">
+      <c r="T58" s="25" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="29">
+    <row r="59" spans="1:20" s="14" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="26">
         <v>1998</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G59" s="30" t="s">
+      <c r="G59" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="30" t="s">
+      <c r="H59" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="29" t="s">
+      <c r="I59" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J59" s="30" t="s">
+      <c r="J59" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K59" s="30" t="s">
+      <c r="K59" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L59" s="30" t="s">
+      <c r="L59" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="T59" s="39" t="s">
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="31" customFormat="1" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="29">
+    <row r="60" spans="1:20" s="14" customFormat="1" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="26">
         <v>2012</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="G60" s="30" t="s">
+      <c r="G60" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="30" t="s">
+      <c r="H60" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I60" s="30" t="s">
+      <c r="I60" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="J60" s="30" t="s">
+      <c r="J60" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="K60" s="30" t="s">
+      <c r="K60" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L60" s="44" t="s">
+      <c r="L60" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="24">
         <v>-67.859950130000001</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="24">
         <v>-24.040649080000001</v>
       </c>
-      <c r="O60" s="50">
+      <c r="O60" s="27">
         <v>86.879081420000006</v>
       </c>
-      <c r="P60" s="50">
+      <c r="P60" s="27">
         <v>34.964740970000001</v>
       </c>
-      <c r="R60" s="31">
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24">
         <v>20</v>
       </c>
-      <c r="T60" s="36" t="s">
+      <c r="S60" s="24"/>
+      <c r="T60" s="25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="34" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="32">
+    <row r="61" spans="1:20" s="15" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="26">
         <v>1982</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G61" s="33" t="s">
+      <c r="G61" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="33" t="s">
+      <c r="H61" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I61" s="32" t="s">
+      <c r="I61" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J61" s="33" t="s">
+      <c r="J61" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K61" s="33" t="s">
+      <c r="K61" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L61" s="43" t="s">
+      <c r="L61" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="M61" s="34">
+      <c r="M61" s="24">
         <v>84</v>
       </c>
-      <c r="N61" s="34">
+      <c r="N61" s="24">
         <v>102</v>
       </c>
-      <c r="O61" s="54" t="s">
+      <c r="O61" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="P61" s="54" t="s">
+      <c r="P61" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="Q61" s="34">
+      <c r="Q61" s="24">
         <v>4</v>
       </c>
-      <c r="R61" s="34">
+      <c r="R61" s="24">
         <v>4</v>
       </c>
-      <c r="T61" s="35" t="s">
+      <c r="S61" s="24"/>
+      <c r="T61" s="25" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="34" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="32">
+    <row r="62" spans="1:20" s="15" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="26">
         <v>1982</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F62" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G62" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="33" t="s">
+      <c r="H62" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I62" s="32" t="s">
+      <c r="I62" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J62" s="33" t="s">
+      <c r="J62" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K62" s="33" t="s">
+      <c r="K62" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L62" s="43" t="s">
+      <c r="L62" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="M62" s="34">
+      <c r="M62" s="24">
         <v>32</v>
       </c>
-      <c r="N62" s="34">
+      <c r="N62" s="24">
         <v>23</v>
       </c>
-      <c r="O62" s="54" t="s">
+      <c r="O62" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="P62" s="54" t="s">
+      <c r="P62" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="Q62" s="34">
+      <c r="Q62" s="24">
         <v>4</v>
       </c>
-      <c r="R62" s="34">
+      <c r="R62" s="24">
         <v>3</v>
       </c>
-      <c r="T62" s="35" t="s">
+      <c r="S62" s="24"/>
+      <c r="T62" s="25" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="13">
+    <row r="63" spans="1:20" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="26">
         <v>2021</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="K63" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L63" s="14" t="s">
+      <c r="L63" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="17" t="s">
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="25" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="13">
+    <row r="64" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="26">
         <v>2021</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J64" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="14" t="s">
+      <c r="K64" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L64" s="14" t="s">
+      <c r="L64" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="18" t="s">
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="13">
+    <row r="65" spans="1:20" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="26">
         <v>1994</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J65" s="14" t="s">
+      <c r="J65" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L65" s="14" t="s">
+      <c r="L65" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="M65" s="15">
+      <c r="M65" s="21">
         <v>6.7</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N65" s="21">
         <v>16.8</v>
       </c>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="T65" s="17" t="s">
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="13">
+    <row r="66" spans="1:20" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="26">
         <v>1994</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J66" s="14" t="s">
+      <c r="J66" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L66" s="14" t="s">
+      <c r="L66" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M66" s="21">
         <v>6.7</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N66" s="21">
         <v>16.8</v>
       </c>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="T66" s="17" t="s">
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="13">
+    <row r="67" spans="1:20" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="26">
         <v>2014</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J67" s="14" t="s">
+      <c r="J67" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L67" s="14" t="s">
+      <c r="L67" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O67" s="56"/>
-      <c r="P67" s="56"/>
-      <c r="T67" s="18" t="s">
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="13">
+    <row r="68" spans="1:20" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="26">
         <v>2015</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J68" s="14" t="s">
+      <c r="J68" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K68" s="14" t="s">
+      <c r="K68" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L68" s="14" t="s">
+      <c r="L68" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="T68" s="18" t="s">
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="13">
+    <row r="69" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="26">
         <v>2010</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="J69" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L69" s="14" t="s">
+      <c r="L69" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="O69" s="56"/>
-      <c r="P69" s="56"/>
-      <c r="T69" s="18" t="s">
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="23" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="13">
+    <row r="70" spans="1:20" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="26">
         <v>2006</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H70" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="I70" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="J70" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="K70" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L70" s="14" t="s">
+      <c r="L70" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O70" s="56"/>
-      <c r="P70" s="56"/>
-      <c r="R70" s="16">
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24">
         <v>68</v>
       </c>
-      <c r="T70" s="18" t="s">
+      <c r="S70" s="24"/>
+      <c r="T70" s="23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="13">
+    <row r="71" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="26">
         <v>2008</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I71" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J71" s="14" t="s">
+      <c r="J71" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L71" s="14" t="s">
+      <c r="L71" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="T71" s="18" t="s">
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="16" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="13">
+    <row r="72" spans="1:20" s="11" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="26">
         <v>1993</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="14" t="s">
+      <c r="H72" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="I72" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J72" s="14" t="s">
+      <c r="J72" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K72" s="14" t="s">
+      <c r="K72" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L72" s="45" t="s">
+      <c r="L72" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="O72" s="56"/>
-      <c r="P72" s="56"/>
-      <c r="T72" s="18" t="s">
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="13">
+    <row r="73" spans="1:20" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="26">
         <v>2005</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="H73" s="14" t="s">
+      <c r="H73" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I73" s="13" t="s">
+      <c r="I73" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="J73" s="14" t="s">
+      <c r="J73" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K73" s="14" t="s">
+      <c r="K73" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L73" s="14" t="s">
+      <c r="L73" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="O73" s="56"/>
-      <c r="P73" s="56"/>
-      <c r="T73" s="17" t="s">
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="13">
+    <row r="74" spans="1:20" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="26">
         <v>1990</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F74" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="14" t="s">
+      <c r="H74" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J74" s="14" t="s">
+      <c r="J74" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K74" s="14" t="s">
+      <c r="K74" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L74" s="14" t="s">
+      <c r="L74" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="16">
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="24">
         <v>10</v>
       </c>
-      <c r="R74" s="16">
+      <c r="R74" s="24">
         <v>10</v>
       </c>
-      <c r="T74" s="18" t="s">
+      <c r="S74" s="24"/>
+      <c r="T74" s="23" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="13">
+    <row r="75" spans="1:20" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="26">
         <v>1990</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F75" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I75" s="13" t="s">
+      <c r="I75" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J75" s="14" t="s">
+      <c r="J75" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K75" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L75" s="14" t="s">
+      <c r="L75" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="O75" s="56"/>
-      <c r="P75" s="56"/>
-      <c r="Q75" s="16">
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="24">
         <v>10</v>
       </c>
-      <c r="R75" s="16">
+      <c r="R75" s="24">
         <v>10</v>
       </c>
-      <c r="T75" s="18" t="s">
+      <c r="S75" s="24"/>
+      <c r="T75" s="23" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="16" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="13">
+    <row r="76" spans="1:20" s="11" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="26">
         <v>1997</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F76" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="14" t="s">
+      <c r="H76" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J76" s="14" t="s">
+      <c r="J76" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="K76" s="14" t="s">
+      <c r="K76" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L76" s="45" t="s">
+      <c r="L76" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="O76" s="56"/>
-      <c r="P76" s="56"/>
-      <c r="T76" s="17" t="s">
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="16" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="13">
+    <row r="77" spans="1:20" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="26">
         <v>1996</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="14" t="s">
+      <c r="H77" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I77" s="13" t="s">
+      <c r="I77" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J77" s="14" t="s">
+      <c r="J77" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="K77" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L77" s="45" t="s">
+      <c r="L77" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="O77" s="56"/>
-      <c r="P77" s="56"/>
-      <c r="T77" s="17" t="s">
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="25" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="13">
+    <row r="78" spans="1:20" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="26">
         <v>1991</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="14" t="s">
+      <c r="H78" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I78" s="13" t="s">
+      <c r="I78" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="J78" s="14" t="s">
+      <c r="J78" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="K78" s="14" t="s">
+      <c r="K78" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L78" s="19" t="s">
+      <c r="L78" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="O78" s="56"/>
-      <c r="P78" s="56"/>
-      <c r="T78" s="17" t="s">
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="25" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="13">
+    <row r="79" spans="1:20" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="26">
         <v>1935</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="14" t="s">
+      <c r="H79" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="I79" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J79" s="14" t="s">
+      <c r="J79" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K79" s="14" t="s">
+      <c r="K79" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L79" s="45" t="s">
+      <c r="L79" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="O79" s="56"/>
-      <c r="P79" s="56"/>
-      <c r="T79" s="17" t="s">
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="13">
+    <row r="80" spans="1:20" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="26">
         <v>1935</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I80" s="13" t="s">
+      <c r="I80" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J80" s="14" t="s">
+      <c r="J80" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K80" s="14" t="s">
+      <c r="K80" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L80" s="45" t="s">
+      <c r="L80" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="T80" s="17" t="s">
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="13">
+    <row r="81" spans="1:20" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="26">
         <v>1960</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F81" s="14" t="s">
+      <c r="F81" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H81" s="14" t="s">
+      <c r="H81" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="13" t="s">
+      <c r="I81" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J81" s="14" t="s">
+      <c r="J81" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K81" s="14" t="s">
+      <c r="K81" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L81" s="19" t="s">
+      <c r="L81" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="O81" s="56"/>
-      <c r="P81" s="56"/>
-      <c r="T81" s="17" t="s">
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="16" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="13">
+    <row r="82" spans="1:20" s="11" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="26">
         <v>1961</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="40" t="s">
+      <c r="D82" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="I82" s="13" t="s">
+      <c r="I82" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J82" s="14" t="s">
+      <c r="J82" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K82" s="14" t="s">
+      <c r="K82" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L82" s="45" t="s">
+      <c r="L82" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
-      <c r="T82" s="18" t="s">
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="13">
+    <row r="83" spans="1:20" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="26">
         <v>1981</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I83" s="14" t="s">
+      <c r="I83" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J83" s="14" t="s">
+      <c r="J83" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K83" s="14" t="s">
+      <c r="K83" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L83" s="19" t="s">
+      <c r="L83" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="O83" s="56"/>
-      <c r="P83" s="56"/>
-      <c r="T83" s="17" t="s">
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="13">
+    <row r="84" spans="1:20" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="26">
         <v>1968</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F84" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I84" s="13" t="s">
+      <c r="I84" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J84" s="14" t="s">
+      <c r="J84" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K84" s="14" t="s">
+      <c r="K84" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L84" s="19" t="s">
+      <c r="L84" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="T84" s="41" t="s">
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
+      <c r="T84" s="31" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="13">
+    <row r="85" spans="1:20" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="26">
         <v>2006</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F85" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I85" s="13" t="s">
+      <c r="I85" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="J85" s="14" t="s">
+      <c r="J85" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="K85" s="14" t="s">
+      <c r="K85" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L85" s="19" t="s">
+      <c r="L85" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="T85" s="17" t="s">
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="16" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="13">
+    <row r="86" spans="1:20" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="26">
         <v>1978</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F86" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="G86" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="I86" s="13" t="s">
+      <c r="I86" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J86" s="14" t="s">
+      <c r="J86" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K86" s="14" t="s">
+      <c r="K86" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L86" s="19" t="s">
+      <c r="L86" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="T86" s="17" t="s">
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="25" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="24">
+    <row r="87" spans="1:20" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="26">
         <v>2012</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="D87" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="25" t="s">
+      <c r="E87" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F87" s="25" t="s">
+      <c r="F87" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="G87" s="25" t="s">
+      <c r="G87" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I87" s="24" t="s">
+      <c r="I87" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J87" s="25" t="s">
+      <c r="J87" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K87" s="25" t="s">
+      <c r="K87" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L87" s="46" t="s">
+      <c r="L87" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="O87" s="57"/>
-      <c r="P87" s="57"/>
-      <c r="T87" s="38" t="s">
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="25" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="24">
+    <row r="88" spans="1:20" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="26">
         <v>2012</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E88" s="25" t="s">
+      <c r="E88" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F88" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="G88" s="25" t="s">
+      <c r="G88" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="I88" s="24" t="s">
+      <c r="I88" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J88" s="25" t="s">
+      <c r="J88" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K88" s="25" t="s">
+      <c r="K88" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L88" s="46" t="s">
+      <c r="L88" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="O88" s="57"/>
-      <c r="P88" s="57"/>
-      <c r="T88" s="38" t="s">
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="25" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="26" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="24">
+    <row r="89" spans="1:20" s="13" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="26">
         <v>2014</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E89" s="25" t="s">
+      <c r="E89" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F89" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G89" s="25" t="s">
+      <c r="G89" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H89" s="25" t="s">
+      <c r="H89" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I89" s="24" t="s">
+      <c r="I89" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J89" s="25" t="s">
+      <c r="J89" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K89" s="25" t="s">
+      <c r="K89" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L89" s="25" t="s">
+      <c r="L89" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="O89" s="57"/>
-      <c r="P89" s="57"/>
-      <c r="T89" s="27" t="s">
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="23" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="26" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="24">
+    <row r="90" spans="1:20" s="13" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="26">
         <v>2018</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E90" s="25" t="s">
+      <c r="E90" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G90" s="25" t="s">
+      <c r="G90" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="H90" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I90" s="24" t="s">
+      <c r="I90" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J90" s="25" t="s">
+      <c r="J90" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="25" t="s">
+      <c r="K90" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L90" s="25" t="s">
+      <c r="L90" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="O90" s="57"/>
-      <c r="P90" s="57"/>
-      <c r="T90" s="27" t="s">
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="23" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="26" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="24">
+    <row r="91" spans="1:20" s="13" customFormat="1" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="26">
         <v>2013</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E91" s="25" t="s">
+      <c r="E91" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F91" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G91" s="25" t="s">
+      <c r="G91" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I91" s="24" t="s">
+      <c r="I91" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J91" s="25" t="s">
+      <c r="J91" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="K91" s="25" t="s">
+      <c r="K91" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L91" s="46" t="s">
+      <c r="L91" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="O91" s="57"/>
-      <c r="P91" s="57"/>
-      <c r="T91" s="38" t="s">
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="24">
+    <row r="92" spans="1:20" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="26">
         <v>2007</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="25" t="s">
+      <c r="E92" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F92" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G92" s="25" t="s">
+      <c r="G92" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="25" t="s">
+      <c r="H92" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I92" s="24" t="s">
+      <c r="I92" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J92" s="25" t="s">
+      <c r="J92" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="K92" s="25" t="s">
+      <c r="K92" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L92" s="46" t="s">
+      <c r="L92" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="O92" s="57"/>
-      <c r="P92" s="57"/>
-      <c r="Q92" s="26">
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="24">
         <v>3</v>
       </c>
-      <c r="R92" s="26">
+      <c r="R92" s="24">
         <v>3</v>
       </c>
-      <c r="S92" s="26">
+      <c r="S92" s="24">
         <v>8</v>
       </c>
-      <c r="T92" s="38" t="s">
+      <c r="T92" s="25" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="24">
+    <row r="93" spans="1:20" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="26">
         <v>2007</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="25" t="s">
+      <c r="E93" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="F93" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G93" s="25" t="s">
+      <c r="G93" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="H93" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I93" s="24" t="s">
+      <c r="I93" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J93" s="25" t="s">
+      <c r="J93" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="K93" s="25" t="s">
+      <c r="K93" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L93" s="46" t="s">
+      <c r="L93" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="O93" s="57"/>
-      <c r="P93" s="57"/>
-      <c r="Q93" s="26">
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="24">
         <v>3</v>
       </c>
-      <c r="R93" s="26">
+      <c r="R93" s="24">
         <v>3</v>
       </c>
-      <c r="S93" s="26">
+      <c r="S93" s="24">
         <v>8</v>
       </c>
-      <c r="T93" s="38" t="s">
+      <c r="T93" s="25" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="1">
+      <c r="A94" s="26">
         <v>1964</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="J94" s="20"/>
+      <c r="K94" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="T94" s="8" t="s">
+      <c r="L94" s="32"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="25" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8074,8 +8175,8 @@
       <c r="M120" s="3"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
-      <c r="P120" s="49"/>
-      <c r="Q120" s="49"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="18"/>
       <c r="R120" s="5"/>
       <c r="S120" s="5"/>
       <c r="T120"/>
@@ -8093,8 +8194,8 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
       <c r="O121"/>
-      <c r="P121" s="49"/>
-      <c r="Q121" s="49"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="18"/>
       <c r="T121"/>
       <c r="U121" s="8"/>
     </row>
@@ -8111,8 +8212,8 @@
       <c r="M122" s="3"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
-      <c r="P122" s="49"/>
-      <c r="Q122" s="49"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="18"/>
       <c r="T122"/>
       <c r="U122" s="8"/>
     </row>
@@ -8129,8 +8230,8 @@
       <c r="M123" s="3"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
-      <c r="P123" s="49"/>
-      <c r="Q123" s="49"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="18"/>
       <c r="T123"/>
       <c r="U123" s="8"/>
     </row>
@@ -8147,8 +8248,8 @@
       <c r="M124" s="3"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
-      <c r="P124" s="49"/>
-      <c r="Q124" s="49"/>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="18"/>
       <c r="T124"/>
       <c r="U124" s="8"/>
     </row>
@@ -8165,8 +8266,8 @@
       <c r="M125" s="3"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
-      <c r="P125" s="49"/>
-      <c r="Q125" s="49"/>
+      <c r="P125" s="18"/>
+      <c r="Q125" s="18"/>
       <c r="T125"/>
       <c r="U125" s="7"/>
     </row>
@@ -8183,7 +8284,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="O126" s="5"/>
-      <c r="Q126" s="50"/>
+      <c r="Q126" s="19"/>
       <c r="T126"/>
       <c r="U126" s="7"/>
     </row>
@@ -8200,10 +8301,10 @@
       <c r="M127" s="3"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
-      <c r="P127" s="49"/>
-      <c r="Q127" s="49"/>
+      <c r="P127" s="18"/>
+      <c r="Q127" s="18"/>
       <c r="T127"/>
-      <c r="U127" s="10"/>
+      <c r="U127" s="9"/>
     </row>
     <row r="128" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="1"/>
@@ -8218,8 +8319,8 @@
       <c r="M128" s="3"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
-      <c r="P128" s="49"/>
-      <c r="Q128" s="49"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="18"/>
       <c r="T128"/>
       <c r="U128" s="8"/>
     </row>
@@ -8236,8 +8337,8 @@
       <c r="M129" s="3"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
-      <c r="P129" s="49"/>
-      <c r="Q129" s="49"/>
+      <c r="P129" s="18"/>
+      <c r="Q129" s="18"/>
       <c r="T129"/>
       <c r="U129" s="8"/>
     </row>
@@ -8254,8 +8355,8 @@
       <c r="M130" s="3"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
-      <c r="P130" s="49"/>
-      <c r="Q130" s="49"/>
+      <c r="P130" s="18"/>
+      <c r="Q130" s="18"/>
       <c r="T130"/>
       <c r="U130" s="8"/>
     </row>
@@ -8272,8 +8373,8 @@
       <c r="M131" s="3"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
-      <c r="P131" s="49"/>
-      <c r="Q131" s="49"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="18"/>
       <c r="T131"/>
       <c r="U131" s="7"/>
     </row>
@@ -8290,7 +8391,7 @@
       <c r="M132" s="3"/>
       <c r="N132" s="5"/>
       <c r="O132" s="5"/>
-      <c r="Q132" s="50"/>
+      <c r="Q132" s="19"/>
       <c r="T132"/>
       <c r="U132" s="7"/>
     </row>
@@ -8307,8 +8408,8 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="O133"/>
-      <c r="P133" s="49"/>
-      <c r="Q133" s="49"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="18"/>
       <c r="T133"/>
       <c r="U133" s="7"/>
     </row>
@@ -8325,8 +8426,8 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="O134"/>
-      <c r="P134" s="49"/>
-      <c r="Q134" s="49"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
       <c r="T134"/>
       <c r="U134" s="7"/>
     </row>
@@ -8343,7 +8444,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="O135"/>
-      <c r="Q135" s="50"/>
+      <c r="Q135" s="19"/>
       <c r="T135"/>
       <c r="U135" s="8"/>
     </row>
@@ -8360,7 +8461,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="O136"/>
-      <c r="Q136" s="50"/>
+      <c r="Q136" s="19"/>
       <c r="T136"/>
       <c r="U136" s="7"/>
     </row>
@@ -8377,7 +8478,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
       <c r="O137"/>
-      <c r="Q137" s="50"/>
+      <c r="Q137" s="19"/>
       <c r="T137"/>
       <c r="U137" s="7"/>
     </row>
@@ -8394,7 +8495,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="O138"/>
-      <c r="Q138" s="50"/>
+      <c r="Q138" s="19"/>
       <c r="T138"/>
       <c r="U138" s="7"/>
     </row>
@@ -8411,7 +8512,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
       <c r="O139"/>
-      <c r="Q139" s="50"/>
+      <c r="Q139" s="19"/>
       <c r="T139"/>
       <c r="U139" s="7"/>
     </row>
@@ -8427,8 +8528,8 @@
       <c r="L140" s="3"/>
       <c r="M140" s="2"/>
       <c r="O140"/>
-      <c r="P140" s="49"/>
-      <c r="Q140" s="49"/>
+      <c r="P140" s="18"/>
+      <c r="Q140" s="18"/>
       <c r="T140"/>
       <c r="U140" s="7"/>
     </row>
@@ -8444,8 +8545,8 @@
       <c r="L141" s="3"/>
       <c r="M141" s="2"/>
       <c r="O141"/>
-      <c r="P141" s="49"/>
-      <c r="Q141" s="49"/>
+      <c r="P141" s="18"/>
+      <c r="Q141" s="18"/>
       <c r="T141"/>
       <c r="U141" s="7"/>
     </row>
@@ -8459,10 +8560,10 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="L142" s="3"/>
-      <c r="M142" s="12"/>
+      <c r="M142" s="10"/>
       <c r="O142"/>
-      <c r="P142" s="49"/>
-      <c r="Q142" s="49"/>
+      <c r="P142" s="18"/>
+      <c r="Q142" s="18"/>
       <c r="T142"/>
       <c r="U142" s="8"/>
     </row>
@@ -8479,8 +8580,8 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
       <c r="O143"/>
-      <c r="P143" s="49"/>
-      <c r="Q143" s="49"/>
+      <c r="P143" s="18"/>
+      <c r="Q143" s="18"/>
       <c r="T143"/>
       <c r="U143" s="8"/>
     </row>
@@ -8497,7 +8598,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
       <c r="O144"/>
-      <c r="Q144" s="50"/>
+      <c r="Q144" s="19"/>
       <c r="T144"/>
       <c r="U144" s="8"/>
     </row>
@@ -8513,7 +8614,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="O145"/>
-      <c r="Q145" s="50"/>
+      <c r="Q145" s="19"/>
       <c r="T145"/>
       <c r="U145" s="8"/>
     </row>
@@ -8530,7 +8631,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="O146"/>
-      <c r="Q146" s="50"/>
+      <c r="Q146" s="19"/>
       <c r="T146"/>
       <c r="U146" s="8"/>
     </row>
@@ -8546,8 +8647,8 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="O147"/>
-      <c r="P147" s="49"/>
-      <c r="Q147" s="49"/>
+      <c r="P147" s="18"/>
+      <c r="Q147" s="18"/>
       <c r="T147"/>
       <c r="U147" s="8"/>
     </row>
@@ -8562,10 +8663,10 @@
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
       <c r="L148" s="3"/>
-      <c r="M148" s="12"/>
+      <c r="M148" s="10"/>
       <c r="O148"/>
-      <c r="P148" s="49"/>
-      <c r="Q148" s="49"/>
+      <c r="P148" s="18"/>
+      <c r="Q148" s="18"/>
       <c r="T148"/>
       <c r="U148" s="8"/>
     </row>
@@ -8582,8 +8683,8 @@
       <c r="L149" s="3"/>
       <c r="M149" s="2"/>
       <c r="O149"/>
-      <c r="P149" s="49"/>
-      <c r="Q149" s="49"/>
+      <c r="P149" s="18"/>
+      <c r="Q149" s="18"/>
       <c r="T149"/>
       <c r="U149" s="8"/>
     </row>
@@ -8600,8 +8701,8 @@
       <c r="L150" s="3"/>
       <c r="M150" s="2"/>
       <c r="O150"/>
-      <c r="P150" s="49"/>
-      <c r="Q150" s="49"/>
+      <c r="P150" s="18"/>
+      <c r="Q150" s="18"/>
       <c r="T150"/>
       <c r="U150" s="8"/>
     </row>
@@ -8618,8 +8719,8 @@
       <c r="L151" s="3"/>
       <c r="M151" s="2"/>
       <c r="O151"/>
-      <c r="P151" s="49"/>
-      <c r="Q151" s="49"/>
+      <c r="P151" s="18"/>
+      <c r="Q151" s="18"/>
       <c r="T151"/>
       <c r="U151" s="8"/>
     </row>
@@ -8636,8 +8737,8 @@
       <c r="L152" s="3"/>
       <c r="M152" s="2"/>
       <c r="O152"/>
-      <c r="P152" s="49"/>
-      <c r="Q152" s="49"/>
+      <c r="P152" s="18"/>
+      <c r="Q152" s="18"/>
       <c r="T152"/>
       <c r="U152" s="8"/>
     </row>
@@ -8654,8 +8755,8 @@
       <c r="L153" s="3"/>
       <c r="M153" s="2"/>
       <c r="O153"/>
-      <c r="P153" s="49"/>
-      <c r="Q153" s="49"/>
+      <c r="P153" s="18"/>
+      <c r="Q153" s="18"/>
       <c r="T153"/>
       <c r="U153" s="8"/>
     </row>
@@ -8672,7 +8773,7 @@
       <c r="L154" s="3"/>
       <c r="M154" s="2"/>
       <c r="O154"/>
-      <c r="Q154" s="50"/>
+      <c r="Q154" s="19"/>
       <c r="T154"/>
       <c r="U154" s="8"/>
     </row>
@@ -8689,8 +8790,8 @@
       <c r="L155" s="3"/>
       <c r="M155" s="2"/>
       <c r="O155"/>
-      <c r="P155" s="49"/>
-      <c r="Q155" s="49"/>
+      <c r="P155" s="18"/>
+      <c r="Q155" s="18"/>
       <c r="T155"/>
       <c r="U155" s="8"/>
     </row>
@@ -8707,7 +8808,7 @@
       <c r="L156" s="3"/>
       <c r="M156" s="2"/>
       <c r="O156"/>
-      <c r="Q156" s="50"/>
+      <c r="Q156" s="19"/>
       <c r="T156"/>
       <c r="U156" s="8"/>
     </row>
@@ -8724,7 +8825,7 @@
       <c r="L157" s="3"/>
       <c r="M157" s="2"/>
       <c r="O157"/>
-      <c r="Q157" s="50"/>
+      <c r="Q157" s="19"/>
       <c r="T157"/>
       <c r="U157" s="8"/>
     </row>
@@ -8741,8 +8842,8 @@
       <c r="L158" s="3"/>
       <c r="M158" s="2"/>
       <c r="O158"/>
-      <c r="P158" s="49"/>
-      <c r="Q158" s="49"/>
+      <c r="P158" s="18"/>
+      <c r="Q158" s="18"/>
       <c r="T158"/>
       <c r="U158" s="8"/>
     </row>
@@ -8759,8 +8860,8 @@
       <c r="L159" s="3"/>
       <c r="M159" s="2"/>
       <c r="O159"/>
-      <c r="P159" s="49"/>
-      <c r="Q159" s="49"/>
+      <c r="P159" s="18"/>
+      <c r="Q159" s="18"/>
       <c r="T159"/>
       <c r="U159" s="8"/>
     </row>
@@ -8777,7 +8878,7 @@
       <c r="L160" s="3"/>
       <c r="M160" s="2"/>
       <c r="O160"/>
-      <c r="Q160" s="50"/>
+      <c r="Q160" s="19"/>
       <c r="T160"/>
       <c r="U160" s="8"/>
     </row>
@@ -8794,7 +8895,7 @@
       <c r="L161" s="3"/>
       <c r="M161" s="2"/>
       <c r="O161"/>
-      <c r="Q161" s="50"/>
+      <c r="Q161" s="19"/>
       <c r="T161"/>
       <c r="U161" s="8"/>
     </row>
@@ -8811,7 +8912,7 @@
       <c r="L162" s="3"/>
       <c r="M162" s="2"/>
       <c r="O162"/>
-      <c r="Q162" s="50"/>
+      <c r="Q162" s="19"/>
       <c r="T162"/>
       <c r="U162" s="8"/>
     </row>
@@ -8828,7 +8929,7 @@
       <c r="L163" s="3"/>
       <c r="M163" s="2"/>
       <c r="O163"/>
-      <c r="Q163" s="50"/>
+      <c r="Q163" s="19"/>
       <c r="T163"/>
       <c r="U163" s="8"/>
     </row>
@@ -8845,8 +8946,8 @@
       <c r="L164" s="3"/>
       <c r="M164" s="2"/>
       <c r="O164"/>
-      <c r="P164" s="49"/>
-      <c r="Q164" s="49"/>
+      <c r="P164" s="18"/>
+      <c r="Q164" s="18"/>
       <c r="T164"/>
       <c r="U164" s="8"/>
     </row>
@@ -8863,8 +8964,8 @@
       <c r="L165" s="3"/>
       <c r="M165" s="2"/>
       <c r="O165"/>
-      <c r="P165" s="49"/>
-      <c r="Q165" s="49"/>
+      <c r="P165" s="18"/>
+      <c r="Q165" s="18"/>
       <c r="T165"/>
       <c r="U165" s="8"/>
     </row>
@@ -8881,8 +8982,8 @@
       <c r="L166" s="3"/>
       <c r="M166" s="2"/>
       <c r="O166"/>
-      <c r="P166" s="49"/>
-      <c r="Q166" s="49"/>
+      <c r="P166" s="18"/>
+      <c r="Q166" s="18"/>
       <c r="T166"/>
       <c r="U166" s="8"/>
     </row>
@@ -8899,8 +9000,8 @@
       <c r="L167" s="3"/>
       <c r="M167" s="2"/>
       <c r="O167"/>
-      <c r="P167" s="49"/>
-      <c r="Q167" s="49"/>
+      <c r="P167" s="18"/>
+      <c r="Q167" s="18"/>
       <c r="T167"/>
       <c r="U167" s="8"/>
     </row>
@@ -8917,8 +9018,8 @@
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
       <c r="O168"/>
-      <c r="P168" s="49"/>
-      <c r="Q168" s="49"/>
+      <c r="P168" s="18"/>
+      <c r="Q168" s="18"/>
       <c r="T168"/>
       <c r="U168" s="8"/>
     </row>
@@ -8935,7 +9036,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="2"/>
       <c r="O169"/>
-      <c r="Q169" s="50"/>
+      <c r="Q169" s="19"/>
       <c r="T169"/>
       <c r="U169" s="8"/>
     </row>
@@ -8952,8 +9053,8 @@
       <c r="L170" s="3"/>
       <c r="M170" s="2"/>
       <c r="O170"/>
-      <c r="P170" s="49"/>
-      <c r="Q170" s="49"/>
+      <c r="P170" s="18"/>
+      <c r="Q170" s="18"/>
       <c r="T170"/>
       <c r="U170" s="8"/>
     </row>
@@ -8970,8 +9071,8 @@
       <c r="L171" s="3"/>
       <c r="M171" s="2"/>
       <c r="O171"/>
-      <c r="P171" s="49"/>
-      <c r="Q171" s="49"/>
+      <c r="P171" s="18"/>
+      <c r="Q171" s="18"/>
       <c r="T171"/>
       <c r="U171" s="8"/>
     </row>
@@ -8988,8 +9089,8 @@
       <c r="L172" s="3"/>
       <c r="M172" s="7"/>
       <c r="O172"/>
-      <c r="P172" s="49"/>
-      <c r="Q172" s="49"/>
+      <c r="P172" s="18"/>
+      <c r="Q172" s="18"/>
       <c r="T172"/>
       <c r="U172" s="8"/>
     </row>
@@ -9006,7 +9107,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="2"/>
       <c r="O173"/>
-      <c r="Q173" s="50"/>
+      <c r="Q173" s="19"/>
       <c r="T173"/>
       <c r="U173" s="8"/>
     </row>
@@ -9023,8 +9124,8 @@
       <c r="L174" s="3"/>
       <c r="M174" s="2"/>
       <c r="O174"/>
-      <c r="P174" s="49"/>
-      <c r="Q174" s="49"/>
+      <c r="P174" s="18"/>
+      <c r="Q174" s="18"/>
       <c r="T174"/>
       <c r="U174" s="8"/>
     </row>
@@ -9041,7 +9142,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="2"/>
       <c r="O175"/>
-      <c r="Q175" s="50"/>
+      <c r="Q175" s="19"/>
       <c r="T175"/>
       <c r="U175" s="6"/>
     </row>
@@ -9057,8 +9158,8 @@
       <c r="L176" s="3"/>
       <c r="M176" s="2"/>
       <c r="O176"/>
-      <c r="P176" s="49"/>
-      <c r="Q176" s="49"/>
+      <c r="P176" s="18"/>
+      <c r="Q176" s="18"/>
       <c r="T176"/>
       <c r="U176" s="8"/>
     </row>
@@ -9075,7 +9176,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="O177"/>
-      <c r="Q177" s="50"/>
+      <c r="Q177" s="19"/>
       <c r="T177"/>
       <c r="U177" s="7"/>
     </row>
@@ -9091,7 +9192,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="2"/>
       <c r="O178"/>
-      <c r="Q178" s="50"/>
+      <c r="Q178" s="19"/>
       <c r="T178"/>
       <c r="U178" s="8"/>
     </row>
@@ -9108,7 +9209,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="2"/>
       <c r="O179"/>
-      <c r="Q179" s="50"/>
+      <c r="Q179" s="19"/>
       <c r="T179"/>
       <c r="U179" s="8"/>
     </row>
@@ -9125,7 +9226,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="2"/>
       <c r="O180"/>
-      <c r="Q180" s="50"/>
+      <c r="Q180" s="19"/>
       <c r="T180"/>
       <c r="U180" s="8"/>
     </row>
@@ -9142,8 +9243,8 @@
       <c r="M181" s="3"/>
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
-      <c r="P181" s="49"/>
-      <c r="Q181" s="49"/>
+      <c r="P181" s="18"/>
+      <c r="Q181" s="18"/>
       <c r="R181" s="5"/>
       <c r="S181" s="5"/>
       <c r="T181" s="5"/>
@@ -9162,8 +9263,8 @@
       <c r="M182" s="3"/>
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
-      <c r="P182" s="49"/>
-      <c r="Q182" s="49"/>
+      <c r="P182" s="18"/>
+      <c r="Q182" s="18"/>
       <c r="R182" s="5"/>
       <c r="S182" s="5"/>
       <c r="T182" s="5"/>
@@ -9182,8 +9283,8 @@
       <c r="M183" s="3"/>
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
-      <c r="P183" s="49"/>
-      <c r="Q183" s="49"/>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="18"/>
       <c r="T183"/>
       <c r="U183" s="8"/>
     </row>
@@ -9200,8 +9301,8 @@
       <c r="M184" s="3"/>
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
-      <c r="P184" s="49"/>
-      <c r="Q184" s="49"/>
+      <c r="P184" s="18"/>
+      <c r="Q184" s="18"/>
       <c r="T184"/>
       <c r="U184" s="8"/>
     </row>
@@ -9217,7 +9318,7 @@
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
       <c r="O185"/>
-      <c r="Q185" s="50"/>
+      <c r="Q185" s="19"/>
       <c r="T185"/>
       <c r="U185" s="7"/>
     </row>
@@ -9233,7 +9334,7 @@
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
       <c r="O186"/>
-      <c r="Q186" s="50"/>
+      <c r="Q186" s="19"/>
       <c r="T186"/>
       <c r="U186" s="7"/>
     </row>
@@ -9249,7 +9350,7 @@
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
       <c r="O187"/>
-      <c r="Q187" s="50"/>
+      <c r="Q187" s="19"/>
       <c r="T187"/>
       <c r="U187" s="7"/>
     </row>
@@ -9266,7 +9367,7 @@
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
       <c r="O188"/>
-      <c r="Q188" s="50"/>
+      <c r="Q188" s="19"/>
       <c r="T188"/>
       <c r="U188" s="7"/>
     </row>
@@ -9283,7 +9384,7 @@
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
       <c r="O189"/>
-      <c r="Q189" s="50"/>
+      <c r="Q189" s="19"/>
       <c r="T189"/>
       <c r="U189" s="7"/>
     </row>
@@ -9298,9 +9399,9 @@
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
       <c r="L190" s="3"/>
-      <c r="M190" s="12"/>
+      <c r="M190" s="10"/>
       <c r="O190"/>
-      <c r="Q190" s="50"/>
+      <c r="Q190" s="19"/>
       <c r="T190"/>
       <c r="U190" s="7"/>
     </row>
@@ -9317,7 +9418,7 @@
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
       <c r="O191"/>
-      <c r="Q191" s="50"/>
+      <c r="Q191" s="19"/>
       <c r="T191"/>
       <c r="U191" s="8"/>
     </row>
@@ -9334,7 +9435,7 @@
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
       <c r="O192"/>
-      <c r="Q192" s="50"/>
+      <c r="Q192" s="19"/>
       <c r="T192"/>
       <c r="U192" s="7"/>
     </row>
@@ -9351,7 +9452,7 @@
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
       <c r="O193"/>
-      <c r="Q193" s="50"/>
+      <c r="Q193" s="19"/>
       <c r="T193"/>
       <c r="U193" s="7"/>
     </row>
@@ -9366,9 +9467,9 @@
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
       <c r="L194" s="3"/>
-      <c r="M194" s="12"/>
+      <c r="M194" s="10"/>
       <c r="O194"/>
-      <c r="Q194" s="50"/>
+      <c r="Q194" s="19"/>
       <c r="T194"/>
       <c r="U194" s="8"/>
     </row>
@@ -9383,9 +9484,9 @@
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
       <c r="L195" s="3"/>
-      <c r="M195" s="12"/>
+      <c r="M195" s="10"/>
       <c r="O195"/>
-      <c r="Q195" s="50"/>
+      <c r="Q195" s="19"/>
       <c r="T195"/>
       <c r="U195" s="8"/>
     </row>
@@ -9402,7 +9503,7 @@
       <c r="L196" s="3"/>
       <c r="M196" s="2"/>
       <c r="O196"/>
-      <c r="Q196" s="50"/>
+      <c r="Q196" s="19"/>
       <c r="T196"/>
       <c r="U196" s="8"/>
     </row>
@@ -9417,9 +9518,9 @@
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
       <c r="L197" s="3"/>
-      <c r="M197" s="12"/>
+      <c r="M197" s="10"/>
       <c r="O197"/>
-      <c r="Q197" s="50"/>
+      <c r="Q197" s="19"/>
       <c r="T197"/>
       <c r="U197" s="8"/>
     </row>
@@ -9434,9 +9535,9 @@
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
       <c r="L198" s="3"/>
-      <c r="M198" s="12"/>
+      <c r="M198" s="10"/>
       <c r="O198"/>
-      <c r="Q198" s="50"/>
+      <c r="Q198" s="19"/>
       <c r="T198"/>
       <c r="U198" s="8"/>
     </row>
@@ -9453,7 +9554,7 @@
       <c r="L199" s="3"/>
       <c r="M199" s="2"/>
       <c r="O199"/>
-      <c r="Q199" s="50"/>
+      <c r="Q199" s="19"/>
       <c r="T199"/>
       <c r="U199" s="8"/>
     </row>
@@ -9461,16 +9562,16 @@
       <c r="B200" s="1"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="47"/>
+      <c r="E200" s="16"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
       <c r="L200" s="3"/>
-      <c r="M200" s="12"/>
+      <c r="M200" s="10"/>
       <c r="O200"/>
-      <c r="Q200" s="50"/>
+      <c r="Q200" s="19"/>
       <c r="T200"/>
       <c r="U200" s="7"/>
     </row>
@@ -9485,7 +9586,7 @@
       <c r="L201" s="3"/>
       <c r="M201" s="2"/>
       <c r="O201"/>
-      <c r="Q201" s="50"/>
+      <c r="Q201" s="19"/>
       <c r="T201"/>
       <c r="U201" s="8"/>
     </row>
@@ -9502,7 +9603,7 @@
       <c r="L202" s="3"/>
       <c r="M202" s="2"/>
       <c r="O202"/>
-      <c r="Q202" s="50"/>
+      <c r="Q202" s="19"/>
       <c r="T202"/>
       <c r="U202" s="6"/>
     </row>
@@ -9519,7 +9620,7 @@
       <c r="L203" s="3"/>
       <c r="M203" s="2"/>
       <c r="O203"/>
-      <c r="Q203" s="50"/>
+      <c r="Q203" s="19"/>
       <c r="T203"/>
       <c r="U203" s="8"/>
     </row>
@@ -9536,7 +9637,7 @@
       <c r="L204" s="3"/>
       <c r="M204" s="2"/>
       <c r="O204"/>
-      <c r="Q204" s="50"/>
+      <c r="Q204" s="19"/>
       <c r="T204"/>
       <c r="U204" s="8"/>
     </row>
@@ -9553,7 +9654,7 @@
       <c r="L205" s="3"/>
       <c r="M205" s="2"/>
       <c r="O205"/>
-      <c r="Q205" s="50"/>
+      <c r="Q205" s="19"/>
       <c r="T205"/>
       <c r="U205" s="8"/>
     </row>
@@ -9570,7 +9671,7 @@
       <c r="L206" s="3"/>
       <c r="M206" s="2"/>
       <c r="O206"/>
-      <c r="Q206" s="50"/>
+      <c r="Q206" s="19"/>
       <c r="T206"/>
       <c r="U206" s="8"/>
     </row>
@@ -9587,7 +9688,7 @@
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
       <c r="O207"/>
-      <c r="Q207" s="50"/>
+      <c r="Q207" s="19"/>
       <c r="T207"/>
       <c r="U207" s="7"/>
     </row>
@@ -9604,7 +9705,7 @@
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
       <c r="O208"/>
-      <c r="Q208" s="50"/>
+      <c r="Q208" s="19"/>
       <c r="T208"/>
       <c r="U208" s="7"/>
     </row>
@@ -9621,7 +9722,7 @@
       <c r="L209" s="3"/>
       <c r="M209" s="2"/>
       <c r="O209"/>
-      <c r="Q209" s="50"/>
+      <c r="Q209" s="19"/>
       <c r="T209"/>
       <c r="U209" s="8"/>
     </row>
@@ -9638,7 +9739,7 @@
       <c r="L210" s="3"/>
       <c r="M210" s="2"/>
       <c r="O210"/>
-      <c r="Q210" s="50"/>
+      <c r="Q210" s="19"/>
       <c r="T210"/>
       <c r="U210" s="8"/>
     </row>
@@ -9655,12 +9756,11 @@
       <c r="L211" s="3"/>
       <c r="M211" s="2"/>
       <c r="O211"/>
-      <c r="Q211" s="50"/>
+      <c r="Q211" s="19"/>
       <c r="T211"/>
       <c r="U211" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U94" xr:uid="{BF1C84BB-F2CC-42C6-A1BF-21ED272783EE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
